--- a/BackTest/2020-01-10 BackTest BTC.xlsx
+++ b/BackTest/2020-01-10 BackTest BTC.xlsx
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -33071,14 +33071,20 @@
         <v>8993233.333333334</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I934" t="n">
         <v>0</v>
       </c>
-      <c r="J934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>8935000</v>
+      </c>
       <c r="K934" t="inlineStr"/>
-      <c r="L934" t="inlineStr"/>
+      <c r="L934" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M934" t="n">
         <v>1</v>
       </c>
@@ -33106,14 +33112,20 @@
         <v>8991750</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I935" t="n">
         <v>0</v>
       </c>
-      <c r="J935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>8933000</v>
+      </c>
       <c r="K935" t="inlineStr"/>
-      <c r="L935" t="inlineStr"/>
+      <c r="L935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M935" t="n">
         <v>1</v>
       </c>
@@ -33141,14 +33153,20 @@
         <v>8990383.333333334</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I936" t="n">
         <v>0</v>
       </c>
-      <c r="J936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>8930000</v>
+      </c>
       <c r="K936" t="inlineStr"/>
-      <c r="L936" t="inlineStr"/>
+      <c r="L936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M936" t="n">
         <v>1</v>
       </c>
@@ -33176,14 +33194,20 @@
         <v>8989166.666666666</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I937" t="n">
         <v>0</v>
       </c>
-      <c r="J937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>8940000</v>
+      </c>
       <c r="K937" t="inlineStr"/>
-      <c r="L937" t="inlineStr"/>
+      <c r="L937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M937" t="n">
         <v>1</v>
       </c>
@@ -33211,14 +33235,20 @@
         <v>8987950</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I938" t="n">
         <v>0</v>
       </c>
-      <c r="J938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>8951000</v>
+      </c>
       <c r="K938" t="inlineStr"/>
-      <c r="L938" t="inlineStr"/>
+      <c r="L938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M938" t="n">
         <v>1</v>
       </c>
@@ -33246,14 +33276,20 @@
         <v>8986716.666666666</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I939" t="n">
         <v>0</v>
       </c>
-      <c r="J939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>8951000</v>
+      </c>
       <c r="K939" t="inlineStr"/>
-      <c r="L939" t="inlineStr"/>
+      <c r="L939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M939" t="n">
         <v>1</v>
       </c>
@@ -33281,14 +33317,20 @@
         <v>8985283.333333334</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I940" t="n">
         <v>0</v>
       </c>
-      <c r="J940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>8946000</v>
+      </c>
       <c r="K940" t="inlineStr"/>
-      <c r="L940" t="inlineStr"/>
+      <c r="L940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M940" t="n">
         <v>1</v>
       </c>
@@ -33323,7 +33365,11 @@
       </c>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr"/>
-      <c r="L941" t="inlineStr"/>
+      <c r="L941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M941" t="n">
         <v>1</v>
       </c>
@@ -33358,7 +33404,11 @@
       </c>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr"/>
-      <c r="L942" t="inlineStr"/>
+      <c r="L942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M942" t="n">
         <v>1</v>
       </c>
@@ -33393,7 +33443,11 @@
       </c>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr"/>
-      <c r="L943" t="inlineStr"/>
+      <c r="L943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M943" t="n">
         <v>1</v>
       </c>
@@ -33428,7 +33482,11 @@
       </c>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr"/>
-      <c r="L944" t="inlineStr"/>
+      <c r="L944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M944" t="n">
         <v>1</v>
       </c>
@@ -33463,7 +33521,11 @@
       </c>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr"/>
-      <c r="L945" t="inlineStr"/>
+      <c r="L945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M945" t="n">
         <v>1</v>
       </c>
@@ -33498,7 +33560,11 @@
       </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr"/>
-      <c r="L946" t="inlineStr"/>
+      <c r="L946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M946" t="n">
         <v>1</v>
       </c>
@@ -33533,7 +33599,11 @@
       </c>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr"/>
-      <c r="L947" t="inlineStr"/>
+      <c r="L947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M947" t="n">
         <v>1</v>
       </c>
@@ -33568,7 +33638,11 @@
       </c>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr"/>
-      <c r="L948" t="inlineStr"/>
+      <c r="L948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M948" t="n">
         <v>1</v>
       </c>
@@ -33603,7 +33677,11 @@
       </c>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr"/>
-      <c r="L949" t="inlineStr"/>
+      <c r="L949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M949" t="n">
         <v>1</v>
       </c>
@@ -33638,7 +33716,11 @@
       </c>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr"/>
-      <c r="L950" t="inlineStr"/>
+      <c r="L950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M950" t="n">
         <v>1</v>
       </c>
@@ -33673,7 +33755,11 @@
       </c>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr"/>
-      <c r="L951" t="inlineStr"/>
+      <c r="L951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M951" t="n">
         <v>1</v>
       </c>
@@ -33708,7 +33794,11 @@
       </c>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr"/>
-      <c r="L952" t="inlineStr"/>
+      <c r="L952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M952" t="n">
         <v>1</v>
       </c>
@@ -33743,7 +33833,11 @@
       </c>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr"/>
-      <c r="L953" t="inlineStr"/>
+      <c r="L953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M953" t="n">
         <v>1</v>
       </c>
@@ -33778,7 +33872,11 @@
       </c>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr"/>
-      <c r="L954" t="inlineStr"/>
+      <c r="L954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M954" t="n">
         <v>1</v>
       </c>
@@ -33813,7 +33911,11 @@
       </c>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr"/>
-      <c r="L955" t="inlineStr"/>
+      <c r="L955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M955" t="n">
         <v>1</v>
       </c>
@@ -33848,7 +33950,11 @@
       </c>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr"/>
-      <c r="L956" t="inlineStr"/>
+      <c r="L956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M956" t="n">
         <v>1</v>
       </c>
@@ -33883,7 +33989,11 @@
       </c>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr"/>
-      <c r="L957" t="inlineStr"/>
+      <c r="L957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M957" t="n">
         <v>1</v>
       </c>
@@ -33918,7 +34028,11 @@
       </c>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr"/>
-      <c r="L958" t="inlineStr"/>
+      <c r="L958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M958" t="n">
         <v>1</v>
       </c>
@@ -33953,7 +34067,11 @@
       </c>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr"/>
-      <c r="L959" t="inlineStr"/>
+      <c r="L959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M959" t="n">
         <v>1</v>
       </c>
@@ -33988,7 +34106,11 @@
       </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr"/>
-      <c r="L960" t="inlineStr"/>
+      <c r="L960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M960" t="n">
         <v>1</v>
       </c>
@@ -34023,7 +34145,11 @@
       </c>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr"/>
-      <c r="L961" t="inlineStr"/>
+      <c r="L961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M961" t="n">
         <v>1</v>
       </c>
@@ -34058,7 +34184,11 @@
       </c>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr"/>
-      <c r="L962" t="inlineStr"/>
+      <c r="L962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M962" t="n">
         <v>1</v>
       </c>
@@ -34093,7 +34223,11 @@
       </c>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr"/>
-      <c r="L963" t="inlineStr"/>
+      <c r="L963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M963" t="n">
         <v>1</v>
       </c>
@@ -34128,7 +34262,11 @@
       </c>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr"/>
-      <c r="L964" t="inlineStr"/>
+      <c r="L964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M964" t="n">
         <v>1</v>
       </c>
@@ -34163,7 +34301,11 @@
       </c>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr"/>
-      <c r="L965" t="inlineStr"/>
+      <c r="L965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M965" t="n">
         <v>1</v>
       </c>
@@ -34198,7 +34340,11 @@
       </c>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr"/>
-      <c r="L966" t="inlineStr"/>
+      <c r="L966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M966" t="n">
         <v>1</v>
       </c>
@@ -34233,7 +34379,11 @@
       </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr"/>
-      <c r="L967" t="inlineStr"/>
+      <c r="L967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M967" t="n">
         <v>1</v>
       </c>
@@ -34268,7 +34418,11 @@
       </c>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr"/>
-      <c r="L968" t="inlineStr"/>
+      <c r="L968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M968" t="n">
         <v>1</v>
       </c>
@@ -34303,7 +34457,11 @@
       </c>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr"/>
-      <c r="L969" t="inlineStr"/>
+      <c r="L969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M969" t="n">
         <v>1</v>
       </c>
@@ -34338,7 +34496,11 @@
       </c>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr"/>
-      <c r="L970" t="inlineStr"/>
+      <c r="L970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M970" t="n">
         <v>1</v>
       </c>
@@ -34373,7 +34535,11 @@
       </c>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr"/>
-      <c r="L971" t="inlineStr"/>
+      <c r="L971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M971" t="n">
         <v>1</v>
       </c>
@@ -34408,7 +34574,11 @@
       </c>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr"/>
-      <c r="L972" t="inlineStr"/>
+      <c r="L972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M972" t="n">
         <v>1</v>
       </c>
@@ -34443,7 +34613,11 @@
       </c>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr"/>
-      <c r="L973" t="inlineStr"/>
+      <c r="L973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M973" t="n">
         <v>1</v>
       </c>
@@ -34478,7 +34652,11 @@
       </c>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr"/>
-      <c r="L974" t="inlineStr"/>
+      <c r="L974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M974" t="n">
         <v>1</v>
       </c>
@@ -34513,7 +34691,11 @@
       </c>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr"/>
-      <c r="L975" t="inlineStr"/>
+      <c r="L975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M975" t="n">
         <v>1</v>
       </c>
@@ -34548,7 +34730,11 @@
       </c>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr"/>
-      <c r="L976" t="inlineStr"/>
+      <c r="L976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M976" t="n">
         <v>1</v>
       </c>
@@ -34583,7 +34769,11 @@
       </c>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr"/>
-      <c r="L977" t="inlineStr"/>
+      <c r="L977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M977" t="n">
         <v>1</v>
       </c>
@@ -34618,7 +34808,11 @@
       </c>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr"/>
-      <c r="L978" t="inlineStr"/>
+      <c r="L978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M978" t="n">
         <v>1</v>
       </c>
@@ -34653,7 +34847,11 @@
       </c>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr"/>
-      <c r="L979" t="inlineStr"/>
+      <c r="L979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M979" t="n">
         <v>1</v>
       </c>
@@ -34681,18 +34879,16 @@
         <v>8942183.333333334</v>
       </c>
       <c r="H980" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I980" t="n">
         <v>0</v>
       </c>
-      <c r="J980" t="n">
-        <v>8922000</v>
-      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr"/>
       <c r="L980" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M980" t="n">
@@ -34722,14 +34918,12 @@
         <v>8941283.333333334</v>
       </c>
       <c r="H981" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I981" t="n">
         <v>0</v>
       </c>
-      <c r="J981" t="n">
-        <v>8925000</v>
-      </c>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr"/>
       <c r="L981" t="inlineStr">
         <is>
@@ -34763,14 +34957,12 @@
         <v>8940483.333333334</v>
       </c>
       <c r="H982" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I982" t="n">
         <v>0</v>
       </c>
-      <c r="J982" t="n">
-        <v>8912000</v>
-      </c>
+      <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr"/>
       <c r="L982" t="inlineStr">
         <is>
@@ -34804,14 +34996,12 @@
         <v>8939916.666666666</v>
       </c>
       <c r="H983" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I983" t="n">
         <v>0</v>
       </c>
-      <c r="J983" t="n">
-        <v>8922000</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr"/>
       <c r="L983" t="inlineStr">
         <is>
@@ -34845,14 +35035,12 @@
         <v>8939333.333333334</v>
       </c>
       <c r="H984" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I984" t="n">
         <v>0</v>
       </c>
-      <c r="J984" t="n">
-        <v>8915000</v>
-      </c>
+      <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr"/>
       <c r="L984" t="inlineStr">
         <is>
@@ -34886,14 +35074,12 @@
         <v>8938866.666666666</v>
       </c>
       <c r="H985" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I985" t="n">
         <v>0</v>
       </c>
-      <c r="J985" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr"/>
       <c r="L985" t="inlineStr">
         <is>
@@ -34927,14 +35113,12 @@
         <v>8938300</v>
       </c>
       <c r="H986" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I986" t="n">
         <v>0</v>
       </c>
-      <c r="J986" t="n">
-        <v>8915000</v>
-      </c>
+      <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr"/>
       <c r="L986" t="inlineStr">
         <is>
@@ -34968,14 +35152,12 @@
         <v>8937850</v>
       </c>
       <c r="H987" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I987" t="n">
         <v>0</v>
       </c>
-      <c r="J987" t="n">
-        <v>8910000</v>
-      </c>
+      <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr"/>
       <c r="L987" t="inlineStr">
         <is>
@@ -35009,14 +35191,12 @@
         <v>8937416.666666666</v>
       </c>
       <c r="H988" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I988" t="n">
         <v>0</v>
       </c>
-      <c r="J988" t="n">
-        <v>8912000</v>
-      </c>
+      <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr"/>
       <c r="L988" t="inlineStr">
         <is>
@@ -35050,14 +35230,12 @@
         <v>8937066.666666666</v>
       </c>
       <c r="H989" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I989" t="n">
         <v>0</v>
       </c>
-      <c r="J989" t="n">
-        <v>8901000</v>
-      </c>
+      <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr"/>
       <c r="L989" t="inlineStr">
         <is>
@@ -35091,14 +35269,12 @@
         <v>8936650</v>
       </c>
       <c r="H990" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I990" t="n">
         <v>0</v>
       </c>
-      <c r="J990" t="n">
-        <v>8911000</v>
-      </c>
+      <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr"/>
       <c r="L990" t="inlineStr">
         <is>
@@ -35132,14 +35308,12 @@
         <v>8936066.666666666</v>
       </c>
       <c r="H991" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I991" t="n">
         <v>0</v>
       </c>
-      <c r="J991" t="n">
-        <v>8904000</v>
-      </c>
+      <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr"/>
       <c r="L991" t="inlineStr">
         <is>
@@ -35173,14 +35347,12 @@
         <v>8935566.666666666</v>
       </c>
       <c r="H992" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I992" t="n">
         <v>0</v>
       </c>
-      <c r="J992" t="n">
-        <v>8904000</v>
-      </c>
+      <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr"/>
       <c r="L992" t="inlineStr">
         <is>
@@ -35214,14 +35386,12 @@
         <v>8935250</v>
       </c>
       <c r="H993" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I993" t="n">
         <v>0</v>
       </c>
-      <c r="J993" t="n">
-        <v>8911000</v>
-      </c>
+      <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr"/>
       <c r="L993" t="inlineStr">
         <is>
@@ -35255,14 +35425,12 @@
         <v>8935250</v>
       </c>
       <c r="H994" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I994" t="n">
         <v>0</v>
       </c>
-      <c r="J994" t="n">
-        <v>8917000</v>
-      </c>
+      <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr"/>
       <c r="L994" t="inlineStr">
         <is>
@@ -35296,14 +35464,12 @@
         <v>8935150</v>
       </c>
       <c r="H995" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I995" t="n">
         <v>0</v>
       </c>
-      <c r="J995" t="n">
-        <v>8927000</v>
-      </c>
+      <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr"/>
       <c r="L995" t="inlineStr">
         <is>
@@ -35337,14 +35503,12 @@
         <v>8934733.333333334</v>
       </c>
       <c r="H996" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I996" t="n">
         <v>0</v>
       </c>
-      <c r="J996" t="n">
-        <v>8916000</v>
-      </c>
+      <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr"/>
       <c r="L996" t="inlineStr">
         <is>
@@ -35378,14 +35542,12 @@
         <v>8934266.666666666</v>
       </c>
       <c r="H997" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I997" t="n">
         <v>0</v>
       </c>
-      <c r="J997" t="n">
-        <v>8921000</v>
-      </c>
+      <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr"/>
       <c r="L997" t="inlineStr">
         <is>
@@ -35419,14 +35581,12 @@
         <v>8933900</v>
       </c>
       <c r="H998" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I998" t="n">
         <v>0</v>
       </c>
-      <c r="J998" t="n">
-        <v>8926000</v>
-      </c>
+      <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr"/>
       <c r="L998" t="inlineStr">
         <is>
@@ -35460,14 +35620,12 @@
         <v>8933450</v>
       </c>
       <c r="H999" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I999" t="n">
         <v>0</v>
       </c>
-      <c r="J999" t="n">
-        <v>8919000</v>
-      </c>
+      <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr"/>
       <c r="L999" t="inlineStr">
         <is>
@@ -35501,14 +35659,12 @@
         <v>8933116.666666666</v>
       </c>
       <c r="H1000" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="n">
         <v>0</v>
       </c>
-      <c r="J1000" t="n">
-        <v>8923000</v>
-      </c>
+      <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="inlineStr">
         <is>
@@ -35542,14 +35698,12 @@
         <v>8932666.666666666</v>
       </c>
       <c r="H1001" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="n">
         <v>0</v>
       </c>
-      <c r="J1001" t="n">
-        <v>8915000</v>
-      </c>
+      <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="inlineStr">
         <is>
@@ -35583,14 +35737,12 @@
         <v>8932066.666666666</v>
       </c>
       <c r="H1002" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="n">
         <v>0</v>
       </c>
-      <c r="J1002" t="n">
-        <v>8910000</v>
-      </c>
+      <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="inlineStr">
         <is>
@@ -35624,14 +35776,12 @@
         <v>8931516.666666666</v>
       </c>
       <c r="H1003" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="n">
         <v>0</v>
       </c>
-      <c r="J1003" t="n">
-        <v>8907000</v>
-      </c>
+      <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="inlineStr">
         <is>
@@ -35665,14 +35815,12 @@
         <v>8931000</v>
       </c>
       <c r="H1004" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="n">
         <v>0</v>
       </c>
-      <c r="J1004" t="n">
-        <v>8910000</v>
-      </c>
+      <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="inlineStr">
         <is>
@@ -35706,14 +35854,12 @@
         <v>8930783.333333334</v>
       </c>
       <c r="H1005" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="n">
         <v>0</v>
       </c>
-      <c r="J1005" t="n">
-        <v>8915000</v>
-      </c>
+      <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="inlineStr">
         <is>
@@ -35747,14 +35893,12 @@
         <v>8930316.666666666</v>
       </c>
       <c r="H1006" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="n">
         <v>0</v>
       </c>
-      <c r="J1006" t="n">
-        <v>8941000</v>
-      </c>
+      <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="inlineStr">
         <is>
@@ -35788,14 +35932,12 @@
         <v>8930183.333333334</v>
       </c>
       <c r="H1007" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="n">
         <v>0</v>
       </c>
-      <c r="J1007" t="n">
-        <v>8928000</v>
-      </c>
+      <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="inlineStr">
         <is>
@@ -35829,14 +35971,12 @@
         <v>8930000</v>
       </c>
       <c r="H1008" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="n">
         <v>0</v>
       </c>
-      <c r="J1008" t="n">
-        <v>8953000</v>
-      </c>
+      <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="inlineStr">
         <is>
@@ -35870,14 +36010,12 @@
         <v>8930016.666666666</v>
       </c>
       <c r="H1009" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="n">
         <v>0</v>
       </c>
-      <c r="J1009" t="n">
-        <v>8944000</v>
-      </c>
+      <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="inlineStr">
         <is>
@@ -35911,14 +36049,12 @@
         <v>8929800</v>
       </c>
       <c r="H1010" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="n">
         <v>0</v>
       </c>
-      <c r="J1010" t="n">
-        <v>8949000</v>
-      </c>
+      <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="inlineStr">
         <is>
@@ -36186,14 +36322,12 @@
         <v>8927150</v>
       </c>
       <c r="H1017" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="n">
         <v>0</v>
       </c>
-      <c r="J1017" t="n">
-        <v>8923000</v>
-      </c>
+      <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="inlineStr">
         <is>
@@ -36227,14 +36361,12 @@
         <v>8926766.666666666</v>
       </c>
       <c r="H1018" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="n">
         <v>0</v>
       </c>
-      <c r="J1018" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="inlineStr">
         <is>
@@ -36268,14 +36400,12 @@
         <v>8926316.666666666</v>
       </c>
       <c r="H1019" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="n">
         <v>0</v>
       </c>
-      <c r="J1019" t="n">
-        <v>8919000</v>
-      </c>
+      <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="inlineStr">
         <is>
@@ -36309,14 +36439,12 @@
         <v>8925783.333333334</v>
       </c>
       <c r="H1020" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="n">
         <v>0</v>
       </c>
-      <c r="J1020" t="n">
-        <v>8919000</v>
-      </c>
+      <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="inlineStr">
         <is>
@@ -36350,14 +36478,12 @@
         <v>8925333.333333334</v>
       </c>
       <c r="H1021" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="n">
         <v>0</v>
       </c>
-      <c r="J1021" t="n">
-        <v>8917000</v>
-      </c>
+      <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="inlineStr">
         <is>
@@ -36391,14 +36517,12 @@
         <v>8925000</v>
       </c>
       <c r="H1022" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="n">
         <v>0</v>
       </c>
-      <c r="J1022" t="n">
-        <v>8914000</v>
-      </c>
+      <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="inlineStr">
         <is>
@@ -36432,14 +36556,12 @@
         <v>8924733.333333334</v>
       </c>
       <c r="H1023" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="n">
         <v>0</v>
       </c>
-      <c r="J1023" t="n">
-        <v>8919000</v>
-      </c>
+      <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="inlineStr">
         <is>
@@ -36473,14 +36595,12 @@
         <v>8924383.333333334</v>
       </c>
       <c r="H1024" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="n">
         <v>0</v>
       </c>
-      <c r="J1024" t="n">
-        <v>8916000</v>
-      </c>
+      <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="inlineStr">
         <is>
@@ -36514,14 +36634,12 @@
         <v>8924166.666666666</v>
       </c>
       <c r="H1025" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="n">
         <v>0</v>
       </c>
-      <c r="J1025" t="n">
-        <v>8917000</v>
-      </c>
+      <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="inlineStr">
         <is>
@@ -36555,14 +36673,12 @@
         <v>8923833.333333334</v>
       </c>
       <c r="H1026" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="n">
         <v>0</v>
       </c>
-      <c r="J1026" t="n">
-        <v>8918000</v>
-      </c>
+      <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="inlineStr">
         <is>
@@ -36596,14 +36712,12 @@
         <v>8923616.666666666</v>
       </c>
       <c r="H1027" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="n">
         <v>0</v>
       </c>
-      <c r="J1027" t="n">
-        <v>8917000</v>
-      </c>
+      <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="inlineStr">
         <is>
@@ -36637,14 +36751,12 @@
         <v>8923566.666666666</v>
       </c>
       <c r="H1028" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="n">
         <v>0</v>
       </c>
-      <c r="J1028" t="n">
-        <v>8926000</v>
-      </c>
+      <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="inlineStr">
         <is>
@@ -36678,14 +36790,12 @@
         <v>8923450</v>
       </c>
       <c r="H1029" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="n">
         <v>0</v>
       </c>
-      <c r="J1029" t="n">
-        <v>8930000</v>
-      </c>
+      <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="inlineStr">
         <is>
@@ -36719,14 +36829,12 @@
         <v>8923066.666666666</v>
       </c>
       <c r="H1030" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="n">
         <v>0</v>
       </c>
-      <c r="J1030" t="n">
-        <v>8930000</v>
-      </c>
+      <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="inlineStr">
         <is>
@@ -36760,14 +36868,12 @@
         <v>8922800</v>
       </c>
       <c r="H1031" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="n">
         <v>0</v>
       </c>
-      <c r="J1031" t="n">
-        <v>8928000</v>
-      </c>
+      <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="inlineStr">
         <is>
@@ -36801,14 +36907,12 @@
         <v>8922350</v>
       </c>
       <c r="H1032" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="n">
         <v>0</v>
       </c>
-      <c r="J1032" t="n">
-        <v>8921000</v>
-      </c>
+      <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="inlineStr">
         <is>
@@ -36842,14 +36946,12 @@
         <v>8921916.666666666</v>
       </c>
       <c r="H1033" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="n">
         <v>0</v>
       </c>
-      <c r="J1033" t="n">
-        <v>8921000</v>
-      </c>
+      <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="inlineStr">
         <is>
@@ -36883,14 +36985,12 @@
         <v>8921600</v>
       </c>
       <c r="H1034" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="n">
         <v>0</v>
       </c>
-      <c r="J1034" t="n">
-        <v>8916000</v>
-      </c>
+      <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="inlineStr">
         <is>
@@ -36924,14 +37024,12 @@
         <v>8921300</v>
       </c>
       <c r="H1035" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="n">
         <v>0</v>
       </c>
-      <c r="J1035" t="n">
-        <v>8917000</v>
-      </c>
+      <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="inlineStr">
         <is>
@@ -36965,14 +37063,12 @@
         <v>8921050</v>
       </c>
       <c r="H1036" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="n">
         <v>0</v>
       </c>
-      <c r="J1036" t="n">
-        <v>8917000</v>
-      </c>
+      <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="inlineStr">
         <is>
@@ -37006,14 +37102,12 @@
         <v>8921116.666666666</v>
       </c>
       <c r="H1037" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="n">
         <v>0</v>
       </c>
-      <c r="J1037" t="n">
-        <v>8912000</v>
-      </c>
+      <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="inlineStr">
         <is>
@@ -37047,14 +37141,12 @@
         <v>8921166.666666666</v>
       </c>
       <c r="H1038" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="n">
         <v>0</v>
       </c>
-      <c r="J1038" t="n">
-        <v>8912000</v>
-      </c>
+      <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="inlineStr">
         <is>
@@ -37088,14 +37180,12 @@
         <v>8921200</v>
       </c>
       <c r="H1039" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="n">
         <v>0</v>
       </c>
-      <c r="J1039" t="n">
-        <v>8922000</v>
-      </c>
+      <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="inlineStr">
         <is>
@@ -37129,14 +37219,12 @@
         <v>8921166.666666666</v>
       </c>
       <c r="H1040" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="n">
         <v>0</v>
       </c>
-      <c r="J1040" t="n">
-        <v>8923000</v>
-      </c>
+      <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="inlineStr">
         <is>
@@ -37170,14 +37258,12 @@
         <v>8921333.333333334</v>
       </c>
       <c r="H1041" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="n">
         <v>0</v>
       </c>
-      <c r="J1041" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="inlineStr">
         <is>
@@ -37211,14 +37297,12 @@
         <v>8921283.333333334</v>
       </c>
       <c r="H1042" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="n">
         <v>0</v>
       </c>
-      <c r="J1042" t="n">
-        <v>8925000</v>
-      </c>
+      <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="inlineStr">
         <is>
@@ -37252,14 +37336,12 @@
         <v>8921316.666666666</v>
       </c>
       <c r="H1043" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="n">
         <v>0</v>
       </c>
-      <c r="J1043" t="n">
-        <v>8915000</v>
-      </c>
+      <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="inlineStr">
         <is>
@@ -37293,14 +37375,12 @@
         <v>8921350</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="n">
         <v>0</v>
       </c>
-      <c r="J1044" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="inlineStr">
         <is>
@@ -37334,14 +37414,12 @@
         <v>8921550</v>
       </c>
       <c r="H1045" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="n">
         <v>0</v>
       </c>
-      <c r="J1045" t="n">
-        <v>8921000</v>
-      </c>
+      <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="inlineStr">
         <is>
@@ -37375,14 +37453,12 @@
         <v>8921666.666666666</v>
       </c>
       <c r="H1046" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="n">
         <v>0</v>
       </c>
-      <c r="J1046" t="n">
-        <v>8916000</v>
-      </c>
+      <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="inlineStr">
         <is>
@@ -37416,14 +37492,12 @@
         <v>8921883.333333334</v>
       </c>
       <c r="H1047" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="n">
         <v>0</v>
       </c>
-      <c r="J1047" t="n">
-        <v>8912000</v>
-      </c>
+      <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="inlineStr">
         <is>
@@ -37457,14 +37531,12 @@
         <v>8922083.333333334</v>
       </c>
       <c r="H1048" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="n">
         <v>0</v>
       </c>
-      <c r="J1048" t="n">
-        <v>8916000</v>
-      </c>
+      <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="inlineStr">
         <is>
@@ -37498,14 +37570,12 @@
         <v>8922350</v>
       </c>
       <c r="H1049" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="n">
         <v>0</v>
       </c>
-      <c r="J1049" t="n">
-        <v>8926000</v>
-      </c>
+      <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="inlineStr">
         <is>
@@ -37539,14 +37609,12 @@
         <v>8922733.333333334</v>
       </c>
       <c r="H1050" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="n">
         <v>0</v>
       </c>
-      <c r="J1050" t="n">
-        <v>8927000</v>
-      </c>
+      <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="inlineStr">
         <is>
@@ -37580,14 +37648,12 @@
         <v>8923150</v>
       </c>
       <c r="H1051" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="n">
         <v>0</v>
       </c>
-      <c r="J1051" t="n">
-        <v>8927000</v>
-      </c>
+      <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="inlineStr">
         <is>
@@ -37621,14 +37687,12 @@
         <v>8923450</v>
       </c>
       <c r="H1052" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="n">
         <v>0</v>
       </c>
-      <c r="J1052" t="n">
-        <v>8927000</v>
-      </c>
+      <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="inlineStr">
         <is>
@@ -37662,14 +37726,12 @@
         <v>8923533.333333334</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="n">
         <v>0</v>
       </c>
-      <c r="J1053" t="n">
-        <v>8928000</v>
-      </c>
+      <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="inlineStr">
         <is>
@@ -37703,14 +37765,12 @@
         <v>8923416.666666666</v>
       </c>
       <c r="H1054" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="n">
         <v>0</v>
       </c>
-      <c r="J1054" t="n">
-        <v>8921000</v>
-      </c>
+      <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="inlineStr">
         <is>
@@ -37744,14 +37804,12 @@
         <v>8923483.333333334</v>
       </c>
       <c r="H1055" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="n">
         <v>0</v>
       </c>
-      <c r="J1055" t="n">
-        <v>8926000</v>
-      </c>
+      <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="inlineStr">
         <is>
@@ -37785,14 +37843,12 @@
         <v>8923716.666666666</v>
       </c>
       <c r="H1056" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="n">
         <v>0</v>
       </c>
-      <c r="J1056" t="n">
-        <v>8928000</v>
-      </c>
+      <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="inlineStr">
         <is>
@@ -37826,14 +37882,12 @@
         <v>8923900</v>
       </c>
       <c r="H1057" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="n">
         <v>0</v>
       </c>
-      <c r="J1057" t="n">
-        <v>8929000</v>
-      </c>
+      <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="inlineStr">
         <is>
@@ -37867,14 +37921,12 @@
         <v>8924050</v>
       </c>
       <c r="H1058" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="n">
         <v>0</v>
       </c>
-      <c r="J1058" t="n">
-        <v>8934000</v>
-      </c>
+      <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="inlineStr">
         <is>
@@ -37908,14 +37960,12 @@
         <v>8924350</v>
       </c>
       <c r="H1059" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="n">
         <v>0</v>
       </c>
-      <c r="J1059" t="n">
-        <v>8937000</v>
-      </c>
+      <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="inlineStr">
         <is>
@@ -37949,14 +37999,12 @@
         <v>8924700</v>
       </c>
       <c r="H1060" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="n">
         <v>0</v>
       </c>
-      <c r="J1060" t="n">
-        <v>8936000</v>
-      </c>
+      <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="inlineStr">
         <is>
@@ -37990,14 +38038,12 @@
         <v>8925266.666666666</v>
       </c>
       <c r="H1061" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="n">
         <v>0</v>
       </c>
-      <c r="J1061" t="n">
-        <v>8942000</v>
-      </c>
+      <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="inlineStr">
         <is>
@@ -38031,14 +38077,12 @@
         <v>8925916.666666666</v>
       </c>
       <c r="H1062" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="n">
         <v>0</v>
       </c>
-      <c r="J1062" t="n">
-        <v>8943000</v>
-      </c>
+      <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="inlineStr">
         <is>
@@ -38618,14 +38662,12 @@
         <v>8926383.333333334</v>
       </c>
       <c r="H1077" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="n">
         <v>0</v>
       </c>
-      <c r="J1077" t="n">
-        <v>8925000</v>
-      </c>
+      <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="inlineStr">
         <is>
@@ -38659,14 +38701,12 @@
         <v>8926583.333333334</v>
       </c>
       <c r="H1078" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="n">
         <v>0</v>
       </c>
-      <c r="J1078" t="n">
-        <v>8930000</v>
-      </c>
+      <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="inlineStr">
         <is>
@@ -38700,14 +38740,12 @@
         <v>8926833.333333334</v>
       </c>
       <c r="H1079" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="n">
         <v>0</v>
       </c>
-      <c r="J1079" t="n">
-        <v>8933000</v>
-      </c>
+      <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="inlineStr">
         <is>
@@ -38741,14 +38779,12 @@
         <v>8927033.333333334</v>
       </c>
       <c r="H1080" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="n">
         <v>0</v>
       </c>
-      <c r="J1080" t="n">
-        <v>8930000</v>
-      </c>
+      <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="inlineStr">
         <is>
@@ -38782,14 +38818,12 @@
         <v>8927316.666666666</v>
       </c>
       <c r="H1081" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="n">
         <v>0</v>
       </c>
-      <c r="J1081" t="n">
-        <v>8929000</v>
-      </c>
+      <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="inlineStr">
         <is>
@@ -38823,14 +38857,12 @@
         <v>8927433.333333334</v>
       </c>
       <c r="H1082" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="n">
         <v>0</v>
       </c>
-      <c r="J1082" t="n">
-        <v>8929000</v>
-      </c>
+      <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="inlineStr">
         <is>
@@ -38864,14 +38896,12 @@
         <v>8927766.666666666</v>
       </c>
       <c r="H1083" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="n">
         <v>0</v>
       </c>
-      <c r="J1083" t="n">
-        <v>8929000</v>
-      </c>
+      <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="inlineStr">
         <is>
@@ -38905,14 +38935,12 @@
         <v>8928066.666666666</v>
       </c>
       <c r="H1084" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="n">
         <v>0</v>
       </c>
-      <c r="J1084" t="n">
-        <v>8932000</v>
-      </c>
+      <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="inlineStr">
         <is>
@@ -38946,14 +38974,12 @@
         <v>8928183.333333334</v>
       </c>
       <c r="H1085" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="n">
         <v>0</v>
       </c>
-      <c r="J1085" t="n">
-        <v>8934000</v>
-      </c>
+      <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="inlineStr">
         <is>
@@ -38987,14 +39013,12 @@
         <v>8928450</v>
       </c>
       <c r="H1086" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="n">
         <v>0</v>
       </c>
-      <c r="J1086" t="n">
-        <v>8934000</v>
-      </c>
+      <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="inlineStr">
         <is>
@@ -39028,14 +39052,12 @@
         <v>8928766.666666666</v>
       </c>
       <c r="H1087" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="n">
         <v>0</v>
       </c>
-      <c r="J1087" t="n">
-        <v>8934000</v>
-      </c>
+      <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="inlineStr">
         <is>
@@ -39069,14 +39091,12 @@
         <v>8928866.666666666</v>
       </c>
       <c r="H1088" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="n">
         <v>0</v>
       </c>
-      <c r="J1088" t="n">
-        <v>8938000</v>
-      </c>
+      <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="inlineStr">
         <is>
@@ -39110,14 +39130,12 @@
         <v>8928966.666666666</v>
       </c>
       <c r="H1089" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1089" t="n">
         <v>0</v>
       </c>
-      <c r="J1089" t="n">
-        <v>8937000</v>
-      </c>
+      <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr"/>
       <c r="L1089" t="inlineStr">
         <is>
@@ -39346,14 +39364,12 @@
         <v>8930216.666666666</v>
       </c>
       <c r="H1095" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="n">
         <v>0</v>
       </c>
-      <c r="J1095" t="n">
-        <v>8929000</v>
-      </c>
+      <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr"/>
       <c r="L1095" t="inlineStr">
         <is>
@@ -39387,14 +39403,12 @@
         <v>8930566.666666666</v>
       </c>
       <c r="H1096" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="n">
         <v>0</v>
       </c>
-      <c r="J1096" t="n">
-        <v>8933000</v>
-      </c>
+      <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr"/>
       <c r="L1096" t="inlineStr">
         <is>
@@ -39428,14 +39442,12 @@
         <v>8930883.333333334</v>
       </c>
       <c r="H1097" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="n">
         <v>0</v>
       </c>
-      <c r="J1097" t="n">
-        <v>8930000</v>
-      </c>
+      <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr"/>
       <c r="L1097" t="inlineStr">
         <is>
@@ -39469,14 +39481,12 @@
         <v>8931300</v>
       </c>
       <c r="H1098" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="n">
         <v>0</v>
       </c>
-      <c r="J1098" t="n">
-        <v>8935000</v>
-      </c>
+      <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr"/>
       <c r="L1098" t="inlineStr">
         <is>
@@ -39510,14 +39520,12 @@
         <v>8931583.333333334</v>
       </c>
       <c r="H1099" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="n">
         <v>0</v>
       </c>
-      <c r="J1099" t="n">
-        <v>8936000</v>
-      </c>
+      <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr"/>
       <c r="L1099" t="inlineStr">
         <is>
@@ -41504,16 +41512,18 @@
         <v>0</v>
       </c>
       <c r="I1150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr"/>
       <c r="L1150" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M1150" t="inlineStr"/>
+      <c r="M1150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="1" t="n">
@@ -41545,10 +41555,12 @@
       </c>
       <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr"/>
-      <c r="L1151" t="inlineStr"/>
-      <c r="M1151" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1151" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M1151" t="inlineStr"/>
     </row>
     <row r="1152">
       <c r="A1152" s="1" t="n">
@@ -45073,20 +45085,14 @@
         <v>8939383.333333334</v>
       </c>
       <c r="H1252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1252" t="n">
         <v>0</v>
       </c>
-      <c r="J1252" t="n">
-        <v>8931000</v>
-      </c>
+      <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr"/>
-      <c r="L1252" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L1252" t="inlineStr"/>
       <c r="M1252" t="n">
         <v>1</v>
       </c>
@@ -45114,20 +45120,14 @@
         <v>8939283.333333334</v>
       </c>
       <c r="H1253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1253" t="n">
         <v>0</v>
       </c>
-      <c r="J1253" t="n">
-        <v>8926000</v>
-      </c>
+      <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr"/>
-      <c r="L1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1253" t="inlineStr"/>
       <c r="M1253" t="n">
         <v>1</v>
       </c>
@@ -45155,20 +45155,14 @@
         <v>8939150</v>
       </c>
       <c r="H1254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1254" t="n">
         <v>0</v>
       </c>
-      <c r="J1254" t="n">
-        <v>8921000</v>
-      </c>
+      <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr"/>
-      <c r="L1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1254" t="inlineStr"/>
       <c r="M1254" t="n">
         <v>1</v>
       </c>
@@ -45196,20 +45190,14 @@
         <v>8938666.666666666</v>
       </c>
       <c r="H1255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1255" t="n">
         <v>0</v>
       </c>
-      <c r="J1255" t="n">
-        <v>8932000</v>
-      </c>
+      <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr"/>
-      <c r="L1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1255" t="inlineStr"/>
       <c r="M1255" t="n">
         <v>1</v>
       </c>
@@ -45237,20 +45225,14 @@
         <v>8937933.333333334</v>
       </c>
       <c r="H1256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1256" t="n">
         <v>0</v>
       </c>
-      <c r="J1256" t="n">
-        <v>8921000</v>
-      </c>
+      <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr"/>
-      <c r="L1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1256" t="inlineStr"/>
       <c r="M1256" t="n">
         <v>1</v>
       </c>
@@ -45278,20 +45260,14 @@
         <v>8937333.333333334</v>
       </c>
       <c r="H1257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1257" t="n">
         <v>0</v>
       </c>
-      <c r="J1257" t="n">
-        <v>8922000</v>
-      </c>
+      <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr"/>
-      <c r="L1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1257" t="inlineStr"/>
       <c r="M1257" t="n">
         <v>1</v>
       </c>
@@ -45319,20 +45295,14 @@
         <v>8937033.333333334</v>
       </c>
       <c r="H1258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1258" t="n">
         <v>0</v>
       </c>
-      <c r="J1258" t="n">
-        <v>8923000</v>
-      </c>
+      <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr"/>
-      <c r="L1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1258" t="inlineStr"/>
       <c r="M1258" t="n">
         <v>1</v>
       </c>
@@ -45360,20 +45330,14 @@
         <v>8937400</v>
       </c>
       <c r="H1259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1259" t="n">
         <v>0</v>
       </c>
-      <c r="J1259" t="n">
-        <v>8922000</v>
-      </c>
+      <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr"/>
-      <c r="L1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1259" t="inlineStr"/>
       <c r="M1259" t="n">
         <v>1</v>
       </c>
@@ -45401,20 +45365,14 @@
         <v>8937633.333333334</v>
       </c>
       <c r="H1260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1260" t="n">
         <v>0</v>
       </c>
-      <c r="J1260" t="n">
-        <v>8923000</v>
-      </c>
+      <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr"/>
-      <c r="L1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1260" t="inlineStr"/>
       <c r="M1260" t="n">
         <v>1</v>
       </c>
@@ -45442,20 +45400,14 @@
         <v>8938316.666666666</v>
       </c>
       <c r="H1261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1261" t="n">
         <v>0</v>
       </c>
-      <c r="J1261" t="n">
-        <v>8929000</v>
-      </c>
+      <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr"/>
-      <c r="L1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1261" t="inlineStr"/>
       <c r="M1261" t="n">
         <v>1</v>
       </c>
@@ -45483,20 +45435,14 @@
         <v>8938950</v>
       </c>
       <c r="H1262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1262" t="n">
         <v>0</v>
       </c>
-      <c r="J1262" t="n">
-        <v>8953000</v>
-      </c>
+      <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr"/>
-      <c r="L1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1262" t="inlineStr"/>
       <c r="M1262" t="n">
         <v>1</v>
       </c>
@@ -45524,20 +45470,14 @@
         <v>8939900</v>
       </c>
       <c r="H1263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1263" t="n">
         <v>0</v>
       </c>
-      <c r="J1263" t="n">
-        <v>8944000</v>
-      </c>
+      <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr"/>
-      <c r="L1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1263" t="inlineStr"/>
       <c r="M1263" t="n">
         <v>1</v>
       </c>
@@ -45572,11 +45512,7 @@
       </c>
       <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr"/>
-      <c r="L1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1264" t="inlineStr"/>
       <c r="M1264" t="n">
         <v>1</v>
       </c>
@@ -45611,11 +45547,7 @@
       </c>
       <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr"/>
-      <c r="L1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1265" t="inlineStr"/>
       <c r="M1265" t="n">
         <v>1</v>
       </c>
@@ -45650,11 +45582,7 @@
       </c>
       <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr"/>
-      <c r="L1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1266" t="inlineStr"/>
       <c r="M1266" t="n">
         <v>1</v>
       </c>
@@ -45689,11 +45617,7 @@
       </c>
       <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr"/>
-      <c r="L1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1267" t="inlineStr"/>
       <c r="M1267" t="n">
         <v>1</v>
       </c>
@@ -45728,11 +45652,7 @@
       </c>
       <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr"/>
-      <c r="L1268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1268" t="inlineStr"/>
       <c r="M1268" t="n">
         <v>1</v>
       </c>
@@ -45767,11 +45687,7 @@
       </c>
       <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr"/>
-      <c r="L1269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1269" t="inlineStr"/>
       <c r="M1269" t="n">
         <v>1</v>
       </c>
@@ -45806,11 +45722,7 @@
       </c>
       <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr"/>
-      <c r="L1270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1270" t="inlineStr"/>
       <c r="M1270" t="n">
         <v>1</v>
       </c>
@@ -45845,11 +45757,7 @@
       </c>
       <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr"/>
-      <c r="L1271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1271" t="inlineStr"/>
       <c r="M1271" t="n">
         <v>1</v>
       </c>
@@ -45884,11 +45792,7 @@
       </c>
       <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr"/>
-      <c r="L1272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1272" t="inlineStr"/>
       <c r="M1272" t="n">
         <v>1</v>
       </c>
@@ -45923,11 +45827,7 @@
       </c>
       <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr"/>
-      <c r="L1273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1273" t="inlineStr"/>
       <c r="M1273" t="n">
         <v>1</v>
       </c>
@@ -45962,11 +45862,7 @@
       </c>
       <c r="J1274" t="inlineStr"/>
       <c r="K1274" t="inlineStr"/>
-      <c r="L1274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1274" t="inlineStr"/>
       <c r="M1274" t="n">
         <v>1</v>
       </c>
@@ -46001,11 +45897,7 @@
       </c>
       <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr"/>
-      <c r="L1275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1275" t="inlineStr"/>
       <c r="M1275" t="n">
         <v>1</v>
       </c>
@@ -46040,11 +45932,7 @@
       </c>
       <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr"/>
-      <c r="L1276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1276" t="inlineStr"/>
       <c r="M1276" t="n">
         <v>1</v>
       </c>
@@ -46079,11 +45967,7 @@
       </c>
       <c r="J1277" t="inlineStr"/>
       <c r="K1277" t="inlineStr"/>
-      <c r="L1277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1277" t="inlineStr"/>
       <c r="M1277" t="n">
         <v>1</v>
       </c>
@@ -46118,11 +46002,7 @@
       </c>
       <c r="J1278" t="inlineStr"/>
       <c r="K1278" t="inlineStr"/>
-      <c r="L1278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1278" t="inlineStr"/>
       <c r="M1278" t="n">
         <v>1</v>
       </c>
@@ -46157,11 +46037,7 @@
       </c>
       <c r="J1279" t="inlineStr"/>
       <c r="K1279" t="inlineStr"/>
-      <c r="L1279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1279" t="inlineStr"/>
       <c r="M1279" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-10 BackTest BTC.xlsx
+++ b/BackTest/2020-01-10 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-26.12293217</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-53.91923217</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-61.56283217</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-76.02443217</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-95.01365158999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-165.62835159</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-154.09479414</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-145.75956986</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-155.53165931</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-186.28067042</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-218.78756545</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-180.05096292</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-138.06736292</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-133.12040536</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-141.66360536</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-151.84380536</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-173.51541956</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-161.78043376</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-178.2572303</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-96.29522289000001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-86.08437735000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-76.74270611000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-66.99400611000002</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-62.85294952000002</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-58.35037735000002</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-77.35272898000002</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-69.85504320000003</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-56.72045419000003</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-54.45925441000003</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-45.52977210000003</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-32.08069406000003</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-33.08199406000003</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-33.08199406000003</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-32.98869406000003</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-19.42402131000003</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-36.17424945000003</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-47.48525867000004</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-52.38995873000003</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-49.61500666000003</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-49.61500666000003</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-43.70190107000003</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-46.08030107000003</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-46.86424395000003</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-45.56877263000003</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-44.45030153000003</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-44.45030153000003</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-44.40910153000003</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-43.89526610000003</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-42.97509329000003</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-43.40284076000003</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-42.86588040000003</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-42.86588040000003</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-48.48810510000003</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-41.67803498000003</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-38.56583498000003</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-46.77042153000003</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-43.25049367000003</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-54.75777619000003</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-56.51853217000003</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-59.32591104000003</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-58.65139723000003</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-80.70910309000003</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-80.70910309000003</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-86.30050309000003</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-80.82050309000003</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-80.82050309000003</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-81.32540309000004</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-82.15540309000004</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-82.93590309000004</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-83.94010309000004</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-92.05947779000003</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-110.70007779</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-112.58037779</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-120.81993337</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-133.75823337</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-145.02753337</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-141.65353337</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-141.53109938</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-141.53109938</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-140.23364648</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-132.33179938</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-122.29529938</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-121.94709938</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-128.44159938</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-127.95842005</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-125.29248476</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-125.29248476</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-127.92258476</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-127.40918476</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-137.47088476</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-139.01678476</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-139.17418476</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-140.64578476</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-135.01848472</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-134.17028472</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-133.01048472</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-133.08788472</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-133.47454964</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-135.65924964</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-155.85757101</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-148.90995774</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-148.84065774</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-149.10805774</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-149.1604577400001</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-149.0370577400001</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-149.5944577400001</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-149.19775774</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-151.89395774</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-153.54353091</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-153.12233091</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-152.9720308700001</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-153.36457122</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-153.36457122</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-152.98177122</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-152.20247122</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-152.73357122</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-152.73357122</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-152.80757119</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-152.80757119</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-147.05317119</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-147.05317119</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-148.68617119</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-147.78257449</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-148.26279837</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-146.77975918</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-151.60186281</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-155.16621023</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-155.16621023</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-157.07861023</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-157.07861023</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-157.15961023</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-158.19991508</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-158.90321993</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-158.76531993</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-155.00264449</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-155.4834538</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-156.5230538</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-156.6560538000001</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-157.2359842900001</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-157.21158429</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-157.21158429</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-157.6759842900001</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-158.0004149600001</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-157.9733149600001</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-159.7212149600001</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-162.15674688</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-163.23514688</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-161.2974096</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-161.2974096</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-161.7158096</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-161.97544012</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-167.93799103</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-167.84369103</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-167.84369103</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-167.87359103</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-167.19379103</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-167.84039103</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-166.56568043</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-165.6415910300001</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-171.4629910300001</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-172.3654901800001</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-173.1162901800001</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-234.1783610600002</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-221.4990359500002</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-220.5465359500002</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-220.5465359500002</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-217.0373359500002</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-220.9371359500002</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-223.7908359500002</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-223.5877359500002</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-222.7444359500002</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-225.2005359500002</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-225.2005359500002</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-225.4496359500002</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-226.8944359500002</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-224.3376359500002</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-224.5100359500002</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-224.3369359500002</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-224.7452359500002</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-222.3757359500002</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-220.5306342900002</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-220.5306342900002</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-222.0460342900002</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-222.3422342900002</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-222.6848324600002</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-225.5212324600002</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-223.8630754100002</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-224.5007754100002</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-221.0588754100002</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-221.0588754100002</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-221.9900754100002</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-222.1446654100002</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-223.2552796000002</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-228.8299460700004</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-229.8346460700004</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-235.9856460700004</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-233.0776460700004</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-236.2667771100004</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-236.2667771100004</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-240.6644794000004</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>-223.4022119200003</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>-217.7598119200003</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>-223.6973432900003</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>-217.8328746600003</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>-218.6570746100003</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>-218.8617746100003</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>-220.8620746100003</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>-220.1611416700003</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>-239.3840124500004</v>
       </c>
       <c r="H831" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>-239.3840124500004</v>
       </c>
       <c r="H832" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>-291.3463054400004</v>
       </c>
       <c r="H915" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-291.5380054400005</v>
       </c>
       <c r="H916" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>-285.5929054400004</v>
       </c>
       <c r="H917" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-290.4338054400004</v>
       </c>
       <c r="H918" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>-288.7817467700004</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>-290.5347897000004</v>
       </c>
       <c r="H920" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>-293.6088010300004</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>-293.0150512300004</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30844,7 +30844,7 @@
         <v>-287.7262143900005</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>-291.9621451500004</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>-293.2950973500004</v>
       </c>
       <c r="H925" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>-293.2950973500004</v>
       </c>
       <c r="H926" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>-293.2950973500004</v>
       </c>
       <c r="H927" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>-294.9685973500004</v>
       </c>
       <c r="H928" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>-294.9685973500004</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>-300.0357973500004</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>-299.8025973500004</v>
       </c>
       <c r="H935" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>-297.8761043500004</v>
       </c>
       <c r="H936" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>-297.8761043500004</v>
       </c>
       <c r="H937" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>-301.5961043500004</v>
       </c>
       <c r="H938" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>-299.5340043500004</v>
       </c>
       <c r="H939" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>-298.3237043500004</v>
       </c>
       <c r="H940" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>-301.8588043500004</v>
       </c>
       <c r="H941" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -34672,10 +34672,14 @@
         <v>-352.6620867000005</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
@@ -34705,11 +34709,19 @@
         <v>-354.8037867000005</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>8925000</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -34738,11 +34750,19 @@
         <v>-350.3315867000005</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -34771,11 +34791,19 @@
         <v>-349.2025440500005</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>8917000</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -34804,11 +34832,19 @@
         <v>-349.2025440500005</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>8918000</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -34837,11 +34873,19 @@
         <v>-350.7135440500006</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>8918000</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -34870,11 +34914,19 @@
         <v>-352.7433356000006</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -34903,11 +34955,19 @@
         <v>-346.4264356000006</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>8908000</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -34936,11 +34996,19 @@
         <v>-358.4845460100006</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -34969,11 +35037,19 @@
         <v>-354.8994460100006</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>8904000</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35002,15 +35078,17 @@
         <v>-355.3022460100006</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1049" t="n">
         <v>8912000</v>
       </c>
-      <c r="J1049" t="inlineStr"/>
+      <c r="J1049" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1049" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1049" t="n">
@@ -35041,12 +35119,14 @@
         <v>-355.3022460100006</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1050" t="n">
         <v>8904000</v>
       </c>
-      <c r="J1050" t="inlineStr"/>
+      <c r="J1050" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1050" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35080,12 +35160,14 @@
         <v>-351.8895807700006</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1051" t="n">
         <v>8904000</v>
       </c>
-      <c r="J1051" t="inlineStr"/>
+      <c r="J1051" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1051" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35119,12 +35201,14 @@
         <v>-351.2394807700006</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1052" t="n">
         <v>8910000</v>
       </c>
-      <c r="J1052" t="inlineStr"/>
+      <c r="J1052" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1052" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35158,12 +35242,14 @@
         <v>-349.2831807700006</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1053" t="n">
         <v>8916000</v>
       </c>
-      <c r="J1053" t="inlineStr"/>
+      <c r="J1053" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1053" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35197,12 +35283,14 @@
         <v>-352.0342807700006</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1054" t="n">
         <v>8933000</v>
       </c>
-      <c r="J1054" t="inlineStr"/>
+      <c r="J1054" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1054" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35236,12 +35324,14 @@
         <v>-352.7399807700006</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1055" t="n">
         <v>8924000</v>
       </c>
-      <c r="J1055" t="inlineStr"/>
+      <c r="J1055" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1055" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35275,12 +35365,14 @@
         <v>-350.7079455000006</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1056" t="n">
         <v>8915000</v>
       </c>
-      <c r="J1056" t="inlineStr"/>
+      <c r="J1056" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1056" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35314,12 +35406,14 @@
         <v>-348.5388455000005</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1057" t="n">
         <v>8923000</v>
       </c>
-      <c r="J1057" t="inlineStr"/>
+      <c r="J1057" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1057" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35353,12 +35447,14 @@
         <v>-348.6352455000006</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1058" t="n">
         <v>8929000</v>
       </c>
-      <c r="J1058" t="inlineStr"/>
+      <c r="J1058" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1058" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35392,12 +35488,14 @@
         <v>-350.1052455000006</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1059" t="n">
         <v>8919000</v>
       </c>
-      <c r="J1059" t="inlineStr"/>
+      <c r="J1059" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1059" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35431,12 +35529,14 @@
         <v>-350.4472455000006</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1060" t="n">
         <v>8915000</v>
       </c>
-      <c r="J1060" t="inlineStr"/>
+      <c r="J1060" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1060" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35470,12 +35570,14 @@
         <v>-350.5405455000006</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1061" t="n">
         <v>8912000</v>
       </c>
-      <c r="J1061" t="inlineStr"/>
+      <c r="J1061" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1061" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35509,12 +35611,14 @@
         <v>-350.3111455000006</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1062" t="n">
         <v>8906000</v>
       </c>
-      <c r="J1062" t="inlineStr"/>
+      <c r="J1062" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1062" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35548,12 +35652,14 @@
         <v>-347.1315455000006</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1063" t="n">
         <v>8910000</v>
       </c>
-      <c r="J1063" t="inlineStr"/>
+      <c r="J1063" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1063" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35587,12 +35693,14 @@
         <v>-344.5559455000006</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1064" t="n">
         <v>8915000</v>
       </c>
-      <c r="J1064" t="inlineStr"/>
+      <c r="J1064" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1064" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35626,12 +35734,14 @@
         <v>-345.2394455000006</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1065" t="n">
         <v>8939000</v>
       </c>
-      <c r="J1065" t="inlineStr"/>
+      <c r="J1065" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1065" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35665,12 +35775,14 @@
         <v>-340.6513455000006</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1066" t="n">
         <v>8928000</v>
       </c>
-      <c r="J1066" t="inlineStr"/>
+      <c r="J1066" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1066" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35704,12 +35816,12 @@
         <v>-341.6233455000005</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1067" t="n">
-        <v>8955000</v>
-      </c>
-      <c r="J1067" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1067" t="inlineStr"/>
+      <c r="J1067" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1067" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35746,7 +35858,9 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="inlineStr"/>
+      <c r="J1068" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1068" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35783,7 +35897,9 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="inlineStr"/>
+      <c r="J1069" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1069" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35820,7 +35936,9 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="inlineStr"/>
+      <c r="J1070" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35857,7 +35975,9 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="inlineStr"/>
+      <c r="J1071" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35894,7 +36014,9 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="inlineStr"/>
+      <c r="J1072" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35931,7 +36053,9 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="inlineStr"/>
+      <c r="J1073" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35968,7 +36092,9 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="inlineStr"/>
+      <c r="J1074" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36002,12 +36128,12 @@
         <v>-346.3333455000005</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1075" t="n">
-        <v>8922000</v>
-      </c>
-      <c r="J1075" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1075" t="inlineStr"/>
+      <c r="J1075" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36041,12 +36167,12 @@
         <v>-346.9257455000005</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1076" t="n">
-        <v>8923000</v>
-      </c>
-      <c r="J1076" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1076" t="inlineStr"/>
+      <c r="J1076" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36080,10 +36206,14 @@
         <v>-347.1325455000004</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>8921000</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36117,12 +36247,12 @@
         <v>-347.1893455000005</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1078" t="inlineStr"/>
+      <c r="J1078" t="n">
         <v>8920000</v>
       </c>
-      <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36156,12 +36286,14 @@
         <v>-347.1893455000005</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1079" t="n">
         <v>8917000</v>
       </c>
-      <c r="J1079" t="inlineStr"/>
+      <c r="J1079" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36195,10 +36327,14 @@
         <v>-349.5963455000004</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>8917000</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36232,12 +36368,14 @@
         <v>-349.5373455000004</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1081" t="n">
         <v>8912000</v>
       </c>
-      <c r="J1081" t="inlineStr"/>
+      <c r="J1081" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36271,12 +36409,14 @@
         <v>-350.5795455000004</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1082" t="n">
         <v>8920000</v>
       </c>
-      <c r="J1082" t="inlineStr"/>
+      <c r="J1082" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36310,10 +36450,14 @@
         <v>-350.4652455000004</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>8914000</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36347,10 +36491,14 @@
         <v>-349.0837685000004</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>8917000</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36384,10 +36532,14 @@
         <v>-349.1064685000003</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>8928000</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36421,10 +36573,14 @@
         <v>-349.1105685000003</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>8918000</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36458,10 +36614,14 @@
         <v>-348.0637685000003</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>8917000</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36495,12 +36655,14 @@
         <v>-348.0637685000003</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1088" t="n">
         <v>8930000</v>
       </c>
-      <c r="J1088" t="inlineStr"/>
+      <c r="J1088" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36534,10 +36696,14 @@
         <v>-350.4443685000003</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>8930000</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36571,12 +36737,14 @@
         <v>-350.4062685000004</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1090" t="n">
         <v>8923000</v>
       </c>
-      <c r="J1090" t="inlineStr"/>
+      <c r="J1090" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36610,12 +36778,14 @@
         <v>-350.5447685000004</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1091" t="n">
         <v>8927000</v>
       </c>
-      <c r="J1091" t="inlineStr"/>
+      <c r="J1091" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36649,12 +36819,14 @@
         <v>-351.0838685000004</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1092" t="n">
         <v>8921000</v>
       </c>
-      <c r="J1092" t="inlineStr"/>
+      <c r="J1092" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36688,12 +36860,14 @@
         <v>-351.1063685000004</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1093" t="n">
         <v>8917000</v>
       </c>
-      <c r="J1093" t="inlineStr"/>
+      <c r="J1093" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36727,12 +36901,14 @@
         <v>-351.0667685000004</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1094" t="n">
         <v>8916000</v>
       </c>
-      <c r="J1094" t="inlineStr"/>
+      <c r="J1094" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36766,12 +36942,14 @@
         <v>-352.4414685000004</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1095" t="n">
         <v>8917000</v>
       </c>
-      <c r="J1095" t="inlineStr"/>
+      <c r="J1095" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36805,12 +36983,14 @@
         <v>-352.4380685000004</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1096" t="n">
         <v>8911000</v>
       </c>
-      <c r="J1096" t="inlineStr"/>
+      <c r="J1096" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36844,12 +37024,14 @@
         <v>-352.4520685000004</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1097" t="n">
         <v>8916000</v>
       </c>
-      <c r="J1097" t="inlineStr"/>
+      <c r="J1097" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36883,12 +37065,14 @@
         <v>-352.4490685000004</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1098" t="n">
         <v>8911000</v>
       </c>
-      <c r="J1098" t="inlineStr"/>
+      <c r="J1098" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36922,12 +37106,14 @@
         <v>-348.9148572600004</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1099" t="n">
         <v>8922000</v>
       </c>
-      <c r="J1099" t="inlineStr"/>
+      <c r="J1099" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36961,12 +37147,14 @@
         <v>-349.2688572600004</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1100" t="n">
         <v>8923000</v>
       </c>
-      <c r="J1100" t="inlineStr"/>
+      <c r="J1100" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37000,10 +37188,14 @@
         <v>-349.4557572600004</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>8922000</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37037,10 +37229,14 @@
         <v>-349.3867572600004</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>8914000</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37074,10 +37270,14 @@
         <v>-349.3867572600004</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37111,12 +37311,14 @@
         <v>-339.6267572600004</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1104" t="n">
         <v>8920000</v>
       </c>
-      <c r="J1104" t="inlineStr"/>
+      <c r="J1104" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37150,12 +37352,14 @@
         <v>-341.9694572600004</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1105" t="n">
         <v>8924000</v>
       </c>
-      <c r="J1105" t="inlineStr"/>
+      <c r="J1105" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37189,12 +37393,14 @@
         <v>-335.5105572600004</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1106" t="n">
         <v>8915000</v>
       </c>
-      <c r="J1106" t="inlineStr"/>
+      <c r="J1106" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37228,12 +37434,14 @@
         <v>-335.7350572600004</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1107" t="n">
         <v>8925000</v>
       </c>
-      <c r="J1107" t="inlineStr"/>
+      <c r="J1107" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37267,12 +37475,14 @@
         <v>-335.6244572600004</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1108" t="n">
         <v>8916000</v>
       </c>
-      <c r="J1108" t="inlineStr"/>
+      <c r="J1108" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37306,12 +37516,14 @@
         <v>-335.6382572600004</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1109" t="n">
         <v>8928000</v>
       </c>
-      <c r="J1109" t="inlineStr"/>
+      <c r="J1109" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37345,12 +37557,14 @@
         <v>-332.7433999600004</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1110" t="n">
         <v>8927000</v>
       </c>
-      <c r="J1110" t="inlineStr"/>
+      <c r="J1110" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37384,12 +37598,14 @@
         <v>-333.3897999600004</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1111" t="n">
         <v>8929000</v>
       </c>
-      <c r="J1111" t="inlineStr"/>
+      <c r="J1111" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37423,12 +37639,14 @@
         <v>-333.9402999600004</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1112" t="n">
         <v>8928000</v>
       </c>
-      <c r="J1112" t="inlineStr"/>
+      <c r="J1112" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37462,12 +37680,14 @@
         <v>-333.2125999600004</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1113" t="n">
         <v>8921000</v>
       </c>
-      <c r="J1113" t="inlineStr"/>
+      <c r="J1113" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37501,12 +37721,12 @@
         <v>-331.9480999600004</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1114" t="n">
-        <v>8926000</v>
-      </c>
-      <c r="J1114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1114" t="inlineStr"/>
+      <c r="J1114" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37540,12 +37760,12 @@
         <v>-324.3205572600004</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1115" t="n">
-        <v>8928000</v>
-      </c>
-      <c r="J1115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1115" t="inlineStr"/>
+      <c r="J1115" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37582,7 +37802,9 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="inlineStr"/>
+      <c r="J1116" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37619,7 +37841,9 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="inlineStr"/>
+      <c r="J1117" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37656,7 +37880,9 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="inlineStr"/>
+      <c r="J1118" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37693,7 +37919,9 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="inlineStr"/>
+      <c r="J1119" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37730,7 +37958,9 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="inlineStr"/>
+      <c r="J1120" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37767,7 +37997,9 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="inlineStr"/>
+      <c r="J1121" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37804,7 +38036,9 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
+      <c r="J1122" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37841,7 +38075,9 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
+      <c r="J1123" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37878,7 +38114,9 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
+      <c r="J1124" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37915,7 +38153,9 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
+      <c r="J1125" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37952,7 +38192,9 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
+      <c r="J1126" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37989,7 +38231,9 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="inlineStr"/>
+      <c r="J1127" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38026,7 +38270,9 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
+      <c r="J1128" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38063,7 +38309,9 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
+      <c r="J1129" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38100,7 +38348,9 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
+      <c r="J1130" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38137,7 +38387,9 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
+      <c r="J1131" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38174,7 +38426,9 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
+      <c r="J1132" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38211,7 +38465,9 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
+      <c r="J1133" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38248,7 +38504,9 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
+      <c r="J1134" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38285,7 +38543,9 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="inlineStr"/>
+      <c r="J1135" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38322,7 +38582,9 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
+      <c r="J1136" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38359,7 +38621,9 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
+      <c r="J1137" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38396,7 +38660,9 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
+      <c r="J1138" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38433,7 +38699,9 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
+      <c r="J1139" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38470,7 +38738,9 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
+      <c r="J1140" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38507,7 +38777,9 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="inlineStr"/>
+      <c r="J1141" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38544,7 +38816,9 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
+      <c r="J1142" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38581,7 +38855,9 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="inlineStr"/>
+      <c r="J1143" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38618,7 +38894,9 @@
         <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="inlineStr"/>
+      <c r="J1144" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38655,7 +38933,9 @@
         <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="inlineStr"/>
+      <c r="J1145" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38692,7 +38972,9 @@
         <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="inlineStr"/>
+      <c r="J1146" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38729,7 +39011,9 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="inlineStr"/>
+      <c r="J1147" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38766,7 +39050,9 @@
         <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="inlineStr"/>
+      <c r="J1148" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38803,7 +39089,9 @@
         <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="inlineStr"/>
+      <c r="J1149" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38840,7 +39128,9 @@
         <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="inlineStr"/>
+      <c r="J1150" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38877,7 +39167,9 @@
         <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="inlineStr"/>
+      <c r="J1151" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38914,7 +39206,9 @@
         <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="inlineStr"/>
+      <c r="J1152" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38951,7 +39245,9 @@
         <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="inlineStr"/>
+      <c r="J1153" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38988,7 +39284,9 @@
         <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="inlineStr"/>
+      <c r="J1154" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39025,7 +39323,9 @@
         <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="inlineStr"/>
+      <c r="J1155" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39062,7 +39362,9 @@
         <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="inlineStr"/>
+      <c r="J1156" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39099,7 +39401,9 @@
         <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="inlineStr"/>
+      <c r="J1157" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39136,7 +39440,9 @@
         <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="inlineStr"/>
+      <c r="J1158" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39173,7 +39479,9 @@
         <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="inlineStr"/>
+      <c r="J1159" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39210,7 +39518,9 @@
         <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="inlineStr"/>
+      <c r="J1160" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39247,7 +39557,9 @@
         <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="inlineStr"/>
+      <c r="J1161" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39284,7 +39596,9 @@
         <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="inlineStr"/>
+      <c r="J1162" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39321,7 +39635,9 @@
         <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="inlineStr"/>
+      <c r="J1163" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39358,7 +39674,9 @@
         <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="inlineStr"/>
+      <c r="J1164" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39395,7 +39713,9 @@
         <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="inlineStr"/>
+      <c r="J1165" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39432,7 +39752,9 @@
         <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="inlineStr"/>
+      <c r="J1166" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39469,7 +39791,9 @@
         <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="inlineStr"/>
+      <c r="J1167" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39506,7 +39830,9 @@
         <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="inlineStr"/>
+      <c r="J1168" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39543,7 +39869,9 @@
         <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="inlineStr"/>
+      <c r="J1169" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39580,7 +39908,9 @@
         <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="inlineStr"/>
+      <c r="J1170" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39617,7 +39947,9 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="inlineStr"/>
+      <c r="J1171" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39654,7 +39986,9 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="inlineStr"/>
+      <c r="J1172" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39691,7 +40025,9 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="inlineStr"/>
+      <c r="J1173" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39728,7 +40064,9 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="inlineStr"/>
+      <c r="J1174" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39765,7 +40103,9 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="inlineStr"/>
+      <c r="J1175" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39802,7 +40142,9 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="inlineStr"/>
+      <c r="J1176" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39839,7 +40181,9 @@
         <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="inlineStr"/>
+      <c r="J1177" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39876,7 +40220,9 @@
         <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="inlineStr"/>
+      <c r="J1178" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39913,7 +40259,9 @@
         <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="inlineStr"/>
+      <c r="J1179" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39950,7 +40298,9 @@
         <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="inlineStr"/>
+      <c r="J1180" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39987,7 +40337,9 @@
         <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="inlineStr"/>
+      <c r="J1181" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40024,7 +40376,9 @@
         <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="inlineStr"/>
+      <c r="J1182" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40061,7 +40415,9 @@
         <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="inlineStr"/>
+      <c r="J1183" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40098,7 +40454,9 @@
         <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="inlineStr"/>
+      <c r="J1184" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40135,7 +40493,9 @@
         <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="inlineStr"/>
+      <c r="J1185" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40172,7 +40532,9 @@
         <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="inlineStr"/>
+      <c r="J1186" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40209,7 +40571,9 @@
         <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="inlineStr"/>
+      <c r="J1187" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40246,7 +40610,9 @@
         <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="inlineStr"/>
+      <c r="J1188" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40283,7 +40649,9 @@
         <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="inlineStr"/>
+      <c r="J1189" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40320,7 +40688,9 @@
         <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="inlineStr"/>
+      <c r="J1190" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40357,7 +40727,9 @@
         <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="inlineStr"/>
+      <c r="J1191" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40394,7 +40766,9 @@
         <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="inlineStr"/>
+      <c r="J1192" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40431,7 +40805,9 @@
         <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="inlineStr"/>
+      <c r="J1193" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40468,7 +40844,9 @@
         <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="inlineStr"/>
+      <c r="J1194" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40505,7 +40883,9 @@
         <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="inlineStr"/>
+      <c r="J1195" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40542,7 +40922,9 @@
         <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="inlineStr"/>
+      <c r="J1196" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40579,7 +40961,9 @@
         <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="inlineStr"/>
+      <c r="J1197" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40616,7 +41000,9 @@
         <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="inlineStr"/>
+      <c r="J1198" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40653,7 +41039,9 @@
         <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="inlineStr"/>
+      <c r="J1199" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40690,7 +41078,9 @@
         <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="inlineStr"/>
+      <c r="J1200" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40727,7 +41117,9 @@
         <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="inlineStr"/>
+      <c r="J1201" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40764,7 +41156,9 @@
         <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="inlineStr"/>
+      <c r="J1202" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40801,7 +41195,9 @@
         <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="inlineStr"/>
+      <c r="J1203" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40838,7 +41234,9 @@
         <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="inlineStr"/>
+      <c r="J1204" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40875,7 +41273,9 @@
         <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="inlineStr"/>
+      <c r="J1205" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40912,7 +41312,9 @@
         <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="inlineStr"/>
+      <c r="J1206" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40949,7 +41351,9 @@
         <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="inlineStr"/>
+      <c r="J1207" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40986,7 +41390,9 @@
         <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="inlineStr"/>
+      <c r="J1208" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41023,7 +41429,9 @@
         <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="inlineStr"/>
+      <c r="J1209" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41060,7 +41468,9 @@
         <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="inlineStr"/>
+      <c r="J1210" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41097,7 +41507,9 @@
         <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="inlineStr"/>
+      <c r="J1211" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41134,7 +41546,9 @@
         <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="inlineStr"/>
+      <c r="J1212" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41171,7 +41585,9 @@
         <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="inlineStr"/>
+      <c r="J1213" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41208,7 +41624,9 @@
         <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="inlineStr"/>
+      <c r="J1214" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41245,7 +41663,9 @@
         <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="inlineStr"/>
+      <c r="J1215" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41282,7 +41702,9 @@
         <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="inlineStr"/>
+      <c r="J1216" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41319,7 +41741,9 @@
         <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="inlineStr"/>
+      <c r="J1217" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41356,7 +41780,9 @@
         <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="inlineStr"/>
+      <c r="J1218" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41393,7 +41819,9 @@
         <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="inlineStr"/>
+      <c r="J1219" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41430,7 +41858,9 @@
         <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="inlineStr"/>
+      <c r="J1220" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41467,7 +41897,9 @@
         <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="inlineStr"/>
+      <c r="J1221" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41504,7 +41936,9 @@
         <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="inlineStr"/>
+      <c r="J1222" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41541,7 +41975,9 @@
         <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="inlineStr"/>
+      <c r="J1223" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41578,7 +42014,9 @@
         <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="inlineStr"/>
+      <c r="J1224" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41615,7 +42053,9 @@
         <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="inlineStr"/>
+      <c r="J1225" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41652,7 +42092,9 @@
         <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="inlineStr"/>
+      <c r="J1226" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41689,7 +42131,9 @@
         <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="inlineStr"/>
+      <c r="J1227" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41726,7 +42170,9 @@
         <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="inlineStr"/>
+      <c r="J1228" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41763,7 +42209,9 @@
         <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="inlineStr"/>
+      <c r="J1229" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41800,7 +42248,9 @@
         <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="inlineStr"/>
+      <c r="J1230" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41837,7 +42287,9 @@
         <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="inlineStr"/>
+      <c r="J1231" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41874,7 +42326,9 @@
         <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="inlineStr"/>
+      <c r="J1232" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41911,7 +42365,9 @@
         <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="inlineStr"/>
+      <c r="J1233" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41948,7 +42404,9 @@
         <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="inlineStr"/>
+      <c r="J1234" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41985,7 +42443,9 @@
         <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="inlineStr"/>
+      <c r="J1235" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42022,7 +42482,9 @@
         <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="inlineStr"/>
+      <c r="J1236" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42059,7 +42521,9 @@
         <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="inlineStr"/>
+      <c r="J1237" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42096,7 +42560,9 @@
         <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="inlineStr"/>
+      <c r="J1238" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42133,7 +42599,9 @@
         <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="inlineStr"/>
+      <c r="J1239" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42170,7 +42638,9 @@
         <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="inlineStr"/>
+      <c r="J1240" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42207,7 +42677,9 @@
         <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="inlineStr"/>
+      <c r="J1241" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42244,7 +42716,9 @@
         <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="inlineStr"/>
+      <c r="J1242" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42281,7 +42755,9 @@
         <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="inlineStr"/>
+      <c r="J1243" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42318,7 +42794,9 @@
         <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="inlineStr"/>
+      <c r="J1244" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42355,7 +42833,9 @@
         <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="inlineStr"/>
+      <c r="J1245" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42392,7 +42872,9 @@
         <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="inlineStr"/>
+      <c r="J1246" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42429,7 +42911,9 @@
         <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="inlineStr"/>
+      <c r="J1247" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42466,7 +42950,9 @@
         <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="inlineStr"/>
+      <c r="J1248" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42503,7 +42989,9 @@
         <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="inlineStr"/>
+      <c r="J1249" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42540,7 +43028,9 @@
         <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="inlineStr"/>
+      <c r="J1250" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42577,7 +43067,9 @@
         <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="inlineStr"/>
+      <c r="J1251" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42614,7 +43106,9 @@
         <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
-      <c r="J1252" t="inlineStr"/>
+      <c r="J1252" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42651,7 +43145,9 @@
         <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
-      <c r="J1253" t="inlineStr"/>
+      <c r="J1253" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42688,7 +43184,9 @@
         <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
-      <c r="J1254" t="inlineStr"/>
+      <c r="J1254" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42722,10 +43220,14 @@
         <v>-338.0681611800002</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1255" t="inlineStr"/>
-      <c r="J1255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>8949000</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42762,7 +43264,9 @@
         <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="inlineStr"/>
+      <c r="J1256" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42796,10 +43300,14 @@
         <v>-344.3604181600002</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1257" t="inlineStr"/>
-      <c r="J1257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>8952000</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42833,10 +43341,14 @@
         <v>-364.6481181600002</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1258" t="inlineStr"/>
-      <c r="J1258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>8941000</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42870,10 +43382,14 @@
         <v>-358.7338497400002</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1259" t="inlineStr"/>
-      <c r="J1259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>8902000</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42907,10 +43423,14 @@
         <v>-361.4679497400002</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>8919000</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42944,10 +43464,14 @@
         <v>-386.2884497400002</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>8910000</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42981,10 +43505,14 @@
         <v>-396.1697497400002</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>8900000</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43018,10 +43546,14 @@
         <v>-385.9826497400002</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>8888000</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43055,10 +43587,14 @@
         <v>-383.9149497400002</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1264" t="inlineStr"/>
-      <c r="J1264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>8904000</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43092,10 +43628,14 @@
         <v>-380.7890497400002</v>
       </c>
       <c r="H1265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1265" t="inlineStr"/>
-      <c r="J1265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>8914000</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43129,10 +43669,14 @@
         <v>-386.9066497400002</v>
       </c>
       <c r="H1266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>8919000</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43166,10 +43710,14 @@
         <v>-389.0228497400002</v>
       </c>
       <c r="H1267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1267" t="inlineStr"/>
-      <c r="J1267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>8918000</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43203,10 +43751,14 @@
         <v>-384.9072043500002</v>
       </c>
       <c r="H1268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1268" t="inlineStr"/>
-      <c r="J1268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>8917000</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43240,10 +43792,14 @@
         <v>-385.1788908200002</v>
       </c>
       <c r="H1269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1269" t="inlineStr"/>
-      <c r="J1269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>8944000</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43277,10 +43833,14 @@
         <v>-380.0322908200002</v>
       </c>
       <c r="H1270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1270" t="inlineStr"/>
-      <c r="J1270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>8934000</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43314,10 +43874,14 @@
         <v>-377.5687908200002</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1271" t="inlineStr"/>
-      <c r="J1271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>8960000</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43354,7 +43918,9 @@
         <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="inlineStr"/>
+      <c r="J1272" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43391,7 +43957,9 @@
         <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
-      <c r="J1273" t="inlineStr"/>
+      <c r="J1273" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43428,7 +43996,9 @@
         <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
-      <c r="J1274" t="inlineStr"/>
+      <c r="J1274" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43465,7 +44035,9 @@
         <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
-      <c r="J1275" t="inlineStr"/>
+      <c r="J1275" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43502,7 +44074,9 @@
         <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
-      <c r="J1276" t="inlineStr"/>
+      <c r="J1276" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43539,7 +44113,9 @@
         <v>0</v>
       </c>
       <c r="I1277" t="inlineStr"/>
-      <c r="J1277" t="inlineStr"/>
+      <c r="J1277" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43576,7 +44152,9 @@
         <v>0</v>
       </c>
       <c r="I1278" t="inlineStr"/>
-      <c r="J1278" t="inlineStr"/>
+      <c r="J1278" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43613,7 +44191,9 @@
         <v>0</v>
       </c>
       <c r="I1279" t="inlineStr"/>
-      <c r="J1279" t="inlineStr"/>
+      <c r="J1279" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43650,7 +44230,9 @@
         <v>0</v>
       </c>
       <c r="I1280" t="inlineStr"/>
-      <c r="J1280" t="inlineStr"/>
+      <c r="J1280" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43687,7 +44269,9 @@
         <v>0</v>
       </c>
       <c r="I1281" t="inlineStr"/>
-      <c r="J1281" t="inlineStr"/>
+      <c r="J1281" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43724,7 +44308,9 @@
         <v>0</v>
       </c>
       <c r="I1282" t="inlineStr"/>
-      <c r="J1282" t="inlineStr"/>
+      <c r="J1282" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43761,7 +44347,9 @@
         <v>0</v>
       </c>
       <c r="I1283" t="inlineStr"/>
-      <c r="J1283" t="inlineStr"/>
+      <c r="J1283" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43798,7 +44386,9 @@
         <v>0</v>
       </c>
       <c r="I1284" t="inlineStr"/>
-      <c r="J1284" t="inlineStr"/>
+      <c r="J1284" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43835,7 +44425,9 @@
         <v>0</v>
       </c>
       <c r="I1285" t="inlineStr"/>
-      <c r="J1285" t="inlineStr"/>
+      <c r="J1285" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43872,7 +44464,9 @@
         <v>0</v>
       </c>
       <c r="I1286" t="inlineStr"/>
-      <c r="J1286" t="inlineStr"/>
+      <c r="J1286" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43909,7 +44503,9 @@
         <v>0</v>
       </c>
       <c r="I1287" t="inlineStr"/>
-      <c r="J1287" t="inlineStr"/>
+      <c r="J1287" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43946,7 +44542,9 @@
         <v>0</v>
       </c>
       <c r="I1288" t="inlineStr"/>
-      <c r="J1288" t="inlineStr"/>
+      <c r="J1288" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43983,7 +44581,9 @@
         <v>0</v>
       </c>
       <c r="I1289" t="inlineStr"/>
-      <c r="J1289" t="inlineStr"/>
+      <c r="J1289" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44020,7 +44620,9 @@
         <v>0</v>
       </c>
       <c r="I1290" t="inlineStr"/>
-      <c r="J1290" t="inlineStr"/>
+      <c r="J1290" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44057,7 +44659,9 @@
         <v>0</v>
       </c>
       <c r="I1291" t="inlineStr"/>
-      <c r="J1291" t="inlineStr"/>
+      <c r="J1291" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44094,7 +44698,9 @@
         <v>0</v>
       </c>
       <c r="I1292" t="inlineStr"/>
-      <c r="J1292" t="inlineStr"/>
+      <c r="J1292" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44131,7 +44737,9 @@
         <v>0</v>
       </c>
       <c r="I1293" t="inlineStr"/>
-      <c r="J1293" t="inlineStr"/>
+      <c r="J1293" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44168,7 +44776,9 @@
         <v>0</v>
       </c>
       <c r="I1294" t="inlineStr"/>
-      <c r="J1294" t="inlineStr"/>
+      <c r="J1294" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44205,7 +44815,9 @@
         <v>0</v>
       </c>
       <c r="I1295" t="inlineStr"/>
-      <c r="J1295" t="inlineStr"/>
+      <c r="J1295" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44242,7 +44854,9 @@
         <v>0</v>
       </c>
       <c r="I1296" t="inlineStr"/>
-      <c r="J1296" t="inlineStr"/>
+      <c r="J1296" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44279,7 +44893,9 @@
         <v>0</v>
       </c>
       <c r="I1297" t="inlineStr"/>
-      <c r="J1297" t="inlineStr"/>
+      <c r="J1297" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44316,7 +44932,9 @@
         <v>0</v>
       </c>
       <c r="I1298" t="inlineStr"/>
-      <c r="J1298" t="inlineStr"/>
+      <c r="J1298" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44353,7 +44971,9 @@
         <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
-      <c r="J1299" t="inlineStr"/>
+      <c r="J1299" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44390,7 +45010,9 @@
         <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
-      <c r="J1300" t="inlineStr"/>
+      <c r="J1300" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44427,7 +45049,9 @@
         <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
-      <c r="J1301" t="inlineStr"/>
+      <c r="J1301" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44464,7 +45088,9 @@
         <v>0</v>
       </c>
       <c r="I1302" t="inlineStr"/>
-      <c r="J1302" t="inlineStr"/>
+      <c r="J1302" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44501,7 +45127,9 @@
         <v>0</v>
       </c>
       <c r="I1303" t="inlineStr"/>
-      <c r="J1303" t="inlineStr"/>
+      <c r="J1303" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44535,10 +45163,14 @@
         <v>-396.5214839600004</v>
       </c>
       <c r="H1304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1304" t="inlineStr"/>
-      <c r="J1304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44572,10 +45204,14 @@
         <v>-396.5214839600004</v>
       </c>
       <c r="H1305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1305" t="inlineStr"/>
-      <c r="J1305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>8928000</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44609,10 +45245,14 @@
         <v>-396.8026425900003</v>
       </c>
       <c r="H1306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1306" t="inlineStr"/>
-      <c r="J1306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>8928000</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44646,10 +45286,14 @@
         <v>-395.4827473900003</v>
       </c>
       <c r="H1307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1307" t="inlineStr"/>
-      <c r="J1307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>8925000</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44683,10 +45327,14 @@
         <v>-395.9464703400003</v>
       </c>
       <c r="H1308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1308" t="inlineStr"/>
-      <c r="J1308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>8937000</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44723,7 +45371,9 @@
         <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
-      <c r="J1309" t="inlineStr"/>
+      <c r="J1309" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44760,7 +45410,9 @@
         <v>0</v>
       </c>
       <c r="I1310" t="inlineStr"/>
-      <c r="J1310" t="inlineStr"/>
+      <c r="J1310" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44797,7 +45449,9 @@
         <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
-      <c r="J1311" t="inlineStr"/>
+      <c r="J1311" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44834,7 +45488,9 @@
         <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
-      <c r="J1312" t="inlineStr"/>
+      <c r="J1312" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44868,10 +45524,14 @@
         <v>-388.5296703400003</v>
       </c>
       <c r="H1313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1313" t="inlineStr"/>
-      <c r="J1313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44905,10 +45565,14 @@
         <v>-388.7357703400003</v>
       </c>
       <c r="H1314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1314" t="inlineStr"/>
-      <c r="J1314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>8932000</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44942,10 +45606,14 @@
         <v>-389.7387703400003</v>
       </c>
       <c r="H1315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1315" t="inlineStr"/>
-      <c r="J1315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44979,10 +45647,14 @@
         <v>-389.8246703400003</v>
       </c>
       <c r="H1316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1316" t="inlineStr"/>
-      <c r="J1316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>8917000</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45016,10 +45688,14 @@
         <v>-389.7860703400003</v>
       </c>
       <c r="H1317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1317" t="inlineStr"/>
-      <c r="J1317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>8916000</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45053,10 +45729,14 @@
         <v>-388.6674706000003</v>
       </c>
       <c r="H1318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1318" t="inlineStr"/>
-      <c r="J1318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>8923000</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45090,10 +45770,14 @@
         <v>-385.8141706000004</v>
       </c>
       <c r="H1319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1319" t="inlineStr"/>
-      <c r="J1319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>8924000</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45127,10 +45811,14 @@
         <v>-380.9050706000003</v>
       </c>
       <c r="H1320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1320" t="inlineStr"/>
-      <c r="J1320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>8933000</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45164,10 +45852,14 @@
         <v>-381.4359706000003</v>
       </c>
       <c r="H1321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1321" t="inlineStr"/>
-      <c r="J1321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>8951000</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45201,10 +45893,14 @@
         <v>-381.4119706000003</v>
       </c>
       <c r="H1322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1322" t="inlineStr"/>
-      <c r="J1322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>8938000</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45238,10 +45934,14 @@
         <v>-381.4119706000003</v>
       </c>
       <c r="H1323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1323" t="inlineStr"/>
-      <c r="J1323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>8945000</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45278,7 +45978,9 @@
         <v>0</v>
       </c>
       <c r="I1324" t="inlineStr"/>
-      <c r="J1324" t="inlineStr"/>
+      <c r="J1324" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45315,7 +46017,9 @@
         <v>0</v>
       </c>
       <c r="I1325" t="inlineStr"/>
-      <c r="J1325" t="inlineStr"/>
+      <c r="J1325" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45352,7 +46056,9 @@
         <v>0</v>
       </c>
       <c r="I1326" t="inlineStr"/>
-      <c r="J1326" t="inlineStr"/>
+      <c r="J1326" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45389,7 +46095,9 @@
         <v>0</v>
       </c>
       <c r="I1327" t="inlineStr"/>
-      <c r="J1327" t="inlineStr"/>
+      <c r="J1327" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45426,7 +46134,9 @@
         <v>0</v>
       </c>
       <c r="I1328" t="inlineStr"/>
-      <c r="J1328" t="inlineStr"/>
+      <c r="J1328" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45463,7 +46173,9 @@
         <v>0</v>
       </c>
       <c r="I1329" t="inlineStr"/>
-      <c r="J1329" t="inlineStr"/>
+      <c r="J1329" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45500,7 +46212,9 @@
         <v>0</v>
       </c>
       <c r="I1330" t="inlineStr"/>
-      <c r="J1330" t="inlineStr"/>
+      <c r="J1330" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45537,7 +46251,9 @@
         <v>0</v>
       </c>
       <c r="I1331" t="inlineStr"/>
-      <c r="J1331" t="inlineStr"/>
+      <c r="J1331" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45574,7 +46290,9 @@
         <v>0</v>
       </c>
       <c r="I1332" t="inlineStr"/>
-      <c r="J1332" t="inlineStr"/>
+      <c r="J1332" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45608,10 +46326,14 @@
         <v>-385.2858097500003</v>
       </c>
       <c r="H1333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1333" t="inlineStr"/>
-      <c r="J1333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>8934000</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45648,7 +46370,9 @@
         <v>0</v>
       </c>
       <c r="I1334" t="inlineStr"/>
-      <c r="J1334" t="inlineStr"/>
+      <c r="J1334" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45685,7 +46409,9 @@
         <v>0</v>
       </c>
       <c r="I1335" t="inlineStr"/>
-      <c r="J1335" t="inlineStr"/>
+      <c r="J1335" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45722,7 +46448,9 @@
         <v>0</v>
       </c>
       <c r="I1336" t="inlineStr"/>
-      <c r="J1336" t="inlineStr"/>
+      <c r="J1336" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45759,7 +46487,9 @@
         <v>0</v>
       </c>
       <c r="I1337" t="inlineStr"/>
-      <c r="J1337" t="inlineStr"/>
+      <c r="J1337" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45796,7 +46526,9 @@
         <v>0</v>
       </c>
       <c r="I1338" t="inlineStr"/>
-      <c r="J1338" t="inlineStr"/>
+      <c r="J1338" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45833,7 +46565,9 @@
         <v>0</v>
       </c>
       <c r="I1339" t="inlineStr"/>
-      <c r="J1339" t="inlineStr"/>
+      <c r="J1339" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45870,7 +46604,9 @@
         <v>0</v>
       </c>
       <c r="I1340" t="inlineStr"/>
-      <c r="J1340" t="inlineStr"/>
+      <c r="J1340" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45907,7 +46643,9 @@
         <v>0</v>
       </c>
       <c r="I1341" t="inlineStr"/>
-      <c r="J1341" t="inlineStr"/>
+      <c r="J1341" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45944,7 +46682,9 @@
         <v>0</v>
       </c>
       <c r="I1342" t="inlineStr"/>
-      <c r="J1342" t="inlineStr"/>
+      <c r="J1342" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45981,7 +46721,9 @@
         <v>0</v>
       </c>
       <c r="I1343" t="inlineStr"/>
-      <c r="J1343" t="inlineStr"/>
+      <c r="J1343" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46018,7 +46760,9 @@
         <v>0</v>
       </c>
       <c r="I1344" t="inlineStr"/>
-      <c r="J1344" t="inlineStr"/>
+      <c r="J1344" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46055,7 +46799,9 @@
         <v>0</v>
       </c>
       <c r="I1345" t="inlineStr"/>
-      <c r="J1345" t="inlineStr"/>
+      <c r="J1345" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46092,7 +46838,9 @@
         <v>0</v>
       </c>
       <c r="I1346" t="inlineStr"/>
-      <c r="J1346" t="inlineStr"/>
+      <c r="J1346" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46129,7 +46877,9 @@
         <v>0</v>
       </c>
       <c r="I1347" t="inlineStr"/>
-      <c r="J1347" t="inlineStr"/>
+      <c r="J1347" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46166,7 +46916,9 @@
         <v>0</v>
       </c>
       <c r="I1348" t="inlineStr"/>
-      <c r="J1348" t="inlineStr"/>
+      <c r="J1348" t="n">
+        <v>8920000</v>
+      </c>
       <c r="K1348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46178,6 +46930,6 @@
       <c r="M1348" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-10 BackTest BTC.xlsx
+++ b/BackTest/2020-01-10 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-26.12293217</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-53.91923217</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-61.56283217</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-76.02443217</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-95.01365158999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-165.62835159</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-154.09479414</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-145.75956986</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-155.53165931</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-186.28067042</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-218.78756545</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-180.05096292</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-138.06736292</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-133.12040536</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-141.66360536</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-151.84380536</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-173.51541956</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-161.78043376</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-178.2572303</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-124.89915802</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-132.67285802</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-130.48708563</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-128.1485793</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-132.5704793</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-116.73798968</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-115.01408968</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-111.49248398</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-104.15795697</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-96.69885076999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-93.43259954</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-99.73189954</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-96.29522289000001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-86.08437735000001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-76.74270611000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-66.99400611000002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-62.85294952000002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-58.35037735000002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-77.35272898000002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-69.85504320000003</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-56.72045419000003</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-54.45925441000003</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-45.52977210000003</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-32.08069406000003</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-33.08199406000003</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-33.08199406000003</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-43.70190107000003</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-46.08030107000003</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-46.86424395000003</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-45.56877263000003</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-44.45030153000003</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-44.45030153000003</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-44.40910153000003</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-43.89526610000003</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-42.97509329000003</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-43.40284076000003</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-42.86588040000003</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-42.86588040000003</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-48.48810510000003</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-41.67803498000003</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-38.56583498000003</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-46.77042153000003</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-43.25049367000003</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-54.75777619000003</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-56.51853217000003</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-59.32591104000003</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-58.65139723000003</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-80.70910309000003</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-80.70910309000003</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-86.30050309000003</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-80.82050309000003</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-80.82050309000003</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-81.32540309000004</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-82.15540309000004</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-82.93590309000004</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-83.94010309000004</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-92.05947779000003</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-110.70007779</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-112.58037779</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-120.81993337</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-133.75823337</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-145.02753337</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-141.65353337</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-141.53109938</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-141.53109938</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-140.23364648</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-132.33179938</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-122.29529938</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-121.94709938</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-128.44159938</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-127.95842005</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-125.29248476</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-125.29248476</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-127.92258476</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-127.40918476</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-137.47088476</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-139.01678476</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-139.17418476</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-140.64578476</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-135.01848472</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-134.17028472</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-133.01048472</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-133.08788472</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-133.47454964</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-135.65924964</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-220.5465359500002</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-220.5465359500002</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-217.0373359500002</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-220.9371359500002</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-223.7908359500002</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-223.5877359500002</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-222.7444359500002</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-225.2005359500002</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-225.2005359500002</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-225.4496359500002</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-226.8944359500002</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-224.3376359500002</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-224.5100359500002</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-224.3369359500002</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-224.7452359500002</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -33022,11 +33022,17 @@
         <v>-395.8968689100006</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I989" t="n">
+        <v>8933000</v>
+      </c>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33055,11 +33061,17 @@
         <v>-387.3571689100007</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I990" t="n">
+        <v>8929000</v>
+      </c>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33092,7 +33104,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33121,11 +33137,17 @@
         <v>-387.2766689100006</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I992" t="n">
+        <v>8940000</v>
+      </c>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33158,7 +33180,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33187,11 +33213,17 @@
         <v>-388.8582381500006</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
-      </c>
-      <c r="I994" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I994" t="n">
+        <v>8933000</v>
+      </c>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33224,7 +33256,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33257,7 +33293,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33290,7 +33330,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33323,7 +33367,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33356,7 +33404,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33389,7 +33441,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33422,7 +33478,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33455,7 +33515,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33488,7 +33552,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33521,7 +33589,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33554,7 +33626,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33587,7 +33663,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33620,7 +33700,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33653,7 +33737,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33686,7 +33774,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33719,7 +33811,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -33752,7 +33848,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -33785,7 +33885,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -33818,7 +33922,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -33851,7 +33959,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -33884,7 +33996,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -33917,7 +34033,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -33950,7 +34070,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -33983,7 +34107,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34016,7 +34144,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34049,7 +34181,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34082,7 +34218,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34115,7 +34255,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34148,7 +34292,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34181,7 +34329,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34214,7 +34366,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34247,7 +34403,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34280,7 +34440,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34313,7 +34477,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34346,7 +34514,11 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34379,7 +34551,11 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34412,7 +34588,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34445,7 +34625,11 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34478,7 +34662,11 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34511,7 +34699,11 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34544,7 +34736,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34577,7 +34773,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34610,7 +34810,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34643,7 +34847,11 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34672,15 +34880,15 @@
         <v>-352.6620867000005</v>
       </c>
       <c r="H1039" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1039" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="J1039" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1039" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1039" t="inlineStr"/>
+      <c r="J1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -34709,17 +34917,13 @@
         <v>-354.8037867000005</v>
       </c>
       <c r="H1040" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1040" t="n">
-        <v>8925000</v>
-      </c>
-      <c r="J1040" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1040" t="inlineStr"/>
+      <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1040" t="n">
@@ -34750,14 +34954,10 @@
         <v>-350.3315867000005</v>
       </c>
       <c r="H1041" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1041" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="J1041" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1041" t="inlineStr"/>
+      <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34791,14 +34991,10 @@
         <v>-349.2025440500005</v>
       </c>
       <c r="H1042" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1042" t="n">
-        <v>8917000</v>
-      </c>
-      <c r="J1042" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1042" t="inlineStr"/>
+      <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34832,14 +35028,10 @@
         <v>-349.2025440500005</v>
       </c>
       <c r="H1043" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1043" t="n">
-        <v>8918000</v>
-      </c>
-      <c r="J1043" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1043" t="inlineStr"/>
+      <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34873,14 +35065,10 @@
         <v>-350.7135440500006</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1044" t="n">
-        <v>8918000</v>
-      </c>
-      <c r="J1044" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1044" t="inlineStr"/>
+      <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34914,14 +35102,10 @@
         <v>-352.7433356000006</v>
       </c>
       <c r="H1045" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1045" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="J1045" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1045" t="inlineStr"/>
+      <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34955,14 +35139,10 @@
         <v>-346.4264356000006</v>
       </c>
       <c r="H1046" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1046" t="n">
-        <v>8908000</v>
-      </c>
-      <c r="J1046" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1046" t="inlineStr"/>
+      <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34996,14 +35176,10 @@
         <v>-358.4845460100006</v>
       </c>
       <c r="H1047" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1047" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="J1047" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1047" t="inlineStr"/>
+      <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35037,14 +35213,10 @@
         <v>-354.8994460100006</v>
       </c>
       <c r="H1048" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1048" t="n">
-        <v>8904000</v>
-      </c>
-      <c r="J1048" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1048" t="inlineStr"/>
+      <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35078,14 +35250,10 @@
         <v>-355.3022460100006</v>
       </c>
       <c r="H1049" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1049" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="J1049" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1049" t="inlineStr"/>
+      <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35119,14 +35287,10 @@
         <v>-355.3022460100006</v>
       </c>
       <c r="H1050" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1050" t="n">
-        <v>8904000</v>
-      </c>
-      <c r="J1050" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1050" t="inlineStr"/>
+      <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35160,14 +35324,10 @@
         <v>-351.8895807700006</v>
       </c>
       <c r="H1051" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1051" t="n">
-        <v>8904000</v>
-      </c>
-      <c r="J1051" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1051" t="inlineStr"/>
+      <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35201,14 +35361,10 @@
         <v>-351.2394807700006</v>
       </c>
       <c r="H1052" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1052" t="n">
-        <v>8910000</v>
-      </c>
-      <c r="J1052" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1052" t="inlineStr"/>
+      <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35242,14 +35398,10 @@
         <v>-349.2831807700006</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1053" t="n">
-        <v>8916000</v>
-      </c>
-      <c r="J1053" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1053" t="inlineStr"/>
+      <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35283,14 +35435,10 @@
         <v>-352.0342807700006</v>
       </c>
       <c r="H1054" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1054" t="n">
-        <v>8933000</v>
-      </c>
-      <c r="J1054" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1054" t="inlineStr"/>
+      <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35324,14 +35472,10 @@
         <v>-352.7399807700006</v>
       </c>
       <c r="H1055" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1055" t="n">
-        <v>8924000</v>
-      </c>
-      <c r="J1055" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1055" t="inlineStr"/>
+      <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35365,14 +35509,10 @@
         <v>-350.7079455000006</v>
       </c>
       <c r="H1056" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1056" t="n">
-        <v>8915000</v>
-      </c>
-      <c r="J1056" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1056" t="inlineStr"/>
+      <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35406,14 +35546,10 @@
         <v>-348.5388455000005</v>
       </c>
       <c r="H1057" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1057" t="n">
-        <v>8923000</v>
-      </c>
-      <c r="J1057" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1057" t="inlineStr"/>
+      <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35447,14 +35583,10 @@
         <v>-348.6352455000006</v>
       </c>
       <c r="H1058" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1058" t="n">
-        <v>8929000</v>
-      </c>
-      <c r="J1058" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1058" t="inlineStr"/>
+      <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35488,14 +35620,10 @@
         <v>-350.1052455000006</v>
       </c>
       <c r="H1059" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1059" t="n">
-        <v>8919000</v>
-      </c>
-      <c r="J1059" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1059" t="inlineStr"/>
+      <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35529,14 +35657,10 @@
         <v>-350.4472455000006</v>
       </c>
       <c r="H1060" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1060" t="n">
-        <v>8915000</v>
-      </c>
-      <c r="J1060" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1060" t="inlineStr"/>
+      <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35570,14 +35694,10 @@
         <v>-350.5405455000006</v>
       </c>
       <c r="H1061" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1061" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="J1061" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1061" t="inlineStr"/>
+      <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35611,14 +35731,10 @@
         <v>-350.3111455000006</v>
       </c>
       <c r="H1062" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1062" t="n">
-        <v>8906000</v>
-      </c>
-      <c r="J1062" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1062" t="inlineStr"/>
+      <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35652,14 +35768,10 @@
         <v>-347.1315455000006</v>
       </c>
       <c r="H1063" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1063" t="n">
-        <v>8910000</v>
-      </c>
-      <c r="J1063" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1063" t="inlineStr"/>
+      <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35693,14 +35805,10 @@
         <v>-344.5559455000006</v>
       </c>
       <c r="H1064" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1064" t="n">
-        <v>8915000</v>
-      </c>
-      <c r="J1064" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1064" t="inlineStr"/>
+      <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35734,14 +35842,10 @@
         <v>-345.2394455000006</v>
       </c>
       <c r="H1065" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1065" t="n">
-        <v>8939000</v>
-      </c>
-      <c r="J1065" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1065" t="inlineStr"/>
+      <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35775,14 +35879,10 @@
         <v>-340.6513455000006</v>
       </c>
       <c r="H1066" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1066" t="n">
-        <v>8928000</v>
-      </c>
-      <c r="J1066" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1066" t="inlineStr"/>
+      <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35819,9 +35919,7 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35858,9 +35956,7 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35897,9 +35993,7 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35936,9 +36030,7 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35975,9 +36067,7 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36014,9 +36104,7 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36053,9 +36141,7 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36092,9 +36178,7 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36131,9 +36215,7 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36170,9 +36252,7 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36206,14 +36286,10 @@
         <v>-347.1325455000004</v>
       </c>
       <c r="H1077" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1077" t="n">
-        <v>8921000</v>
-      </c>
-      <c r="J1077" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1077" t="inlineStr"/>
+      <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36250,9 +36326,7 @@
         <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36286,14 +36360,10 @@
         <v>-347.1893455000005</v>
       </c>
       <c r="H1079" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1079" t="n">
-        <v>8917000</v>
-      </c>
-      <c r="J1079" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1079" t="inlineStr"/>
+      <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36327,14 +36397,10 @@
         <v>-349.5963455000004</v>
       </c>
       <c r="H1080" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1080" t="n">
-        <v>8917000</v>
-      </c>
-      <c r="J1080" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1080" t="inlineStr"/>
+      <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36368,14 +36434,10 @@
         <v>-349.5373455000004</v>
       </c>
       <c r="H1081" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1081" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="J1081" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1081" t="inlineStr"/>
+      <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36409,14 +36471,10 @@
         <v>-350.5795455000004</v>
       </c>
       <c r="H1082" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1082" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="J1082" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1082" t="inlineStr"/>
+      <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36450,14 +36508,10 @@
         <v>-350.4652455000004</v>
       </c>
       <c r="H1083" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1083" t="n">
-        <v>8914000</v>
-      </c>
-      <c r="J1083" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1083" t="inlineStr"/>
+      <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36491,14 +36545,10 @@
         <v>-349.0837685000004</v>
       </c>
       <c r="H1084" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1084" t="n">
-        <v>8917000</v>
-      </c>
-      <c r="J1084" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1084" t="inlineStr"/>
+      <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36532,14 +36582,10 @@
         <v>-349.1064685000003</v>
       </c>
       <c r="H1085" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1085" t="n">
-        <v>8928000</v>
-      </c>
-      <c r="J1085" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1085" t="inlineStr"/>
+      <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36573,14 +36619,10 @@
         <v>-349.1105685000003</v>
       </c>
       <c r="H1086" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1086" t="n">
-        <v>8918000</v>
-      </c>
-      <c r="J1086" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1086" t="inlineStr"/>
+      <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36614,14 +36656,10 @@
         <v>-348.0637685000003</v>
       </c>
       <c r="H1087" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1087" t="n">
-        <v>8917000</v>
-      </c>
-      <c r="J1087" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1087" t="inlineStr"/>
+      <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36655,14 +36693,10 @@
         <v>-348.0637685000003</v>
       </c>
       <c r="H1088" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1088" t="n">
-        <v>8930000</v>
-      </c>
-      <c r="J1088" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1088" t="inlineStr"/>
+      <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36696,14 +36730,10 @@
         <v>-350.4443685000003</v>
       </c>
       <c r="H1089" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1089" t="n">
-        <v>8930000</v>
-      </c>
-      <c r="J1089" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1089" t="inlineStr"/>
+      <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36737,14 +36767,10 @@
         <v>-350.4062685000004</v>
       </c>
       <c r="H1090" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1090" t="n">
-        <v>8923000</v>
-      </c>
-      <c r="J1090" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1090" t="inlineStr"/>
+      <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36778,14 +36804,10 @@
         <v>-350.5447685000004</v>
       </c>
       <c r="H1091" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1091" t="n">
-        <v>8927000</v>
-      </c>
-      <c r="J1091" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1091" t="inlineStr"/>
+      <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36819,14 +36841,10 @@
         <v>-351.0838685000004</v>
       </c>
       <c r="H1092" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1092" t="n">
-        <v>8921000</v>
-      </c>
-      <c r="J1092" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1092" t="inlineStr"/>
+      <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36860,14 +36878,10 @@
         <v>-351.1063685000004</v>
       </c>
       <c r="H1093" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1093" t="n">
-        <v>8917000</v>
-      </c>
-      <c r="J1093" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1093" t="inlineStr"/>
+      <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36901,14 +36915,10 @@
         <v>-351.0667685000004</v>
       </c>
       <c r="H1094" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1094" t="n">
-        <v>8916000</v>
-      </c>
-      <c r="J1094" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1094" t="inlineStr"/>
+      <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36942,14 +36952,10 @@
         <v>-352.4414685000004</v>
       </c>
       <c r="H1095" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1095" t="n">
-        <v>8917000</v>
-      </c>
-      <c r="J1095" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1095" t="inlineStr"/>
+      <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36983,14 +36989,10 @@
         <v>-352.4380685000004</v>
       </c>
       <c r="H1096" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1096" t="n">
-        <v>8911000</v>
-      </c>
-      <c r="J1096" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1096" t="inlineStr"/>
+      <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37024,14 +37026,10 @@
         <v>-352.4520685000004</v>
       </c>
       <c r="H1097" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1097" t="n">
-        <v>8916000</v>
-      </c>
-      <c r="J1097" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1097" t="inlineStr"/>
+      <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37065,14 +37063,10 @@
         <v>-352.4490685000004</v>
       </c>
       <c r="H1098" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1098" t="n">
-        <v>8911000</v>
-      </c>
-      <c r="J1098" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1098" t="inlineStr"/>
+      <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37106,14 +37100,10 @@
         <v>-348.9148572600004</v>
       </c>
       <c r="H1099" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1099" t="n">
-        <v>8922000</v>
-      </c>
-      <c r="J1099" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1099" t="inlineStr"/>
+      <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37147,14 +37137,10 @@
         <v>-349.2688572600004</v>
       </c>
       <c r="H1100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1100" t="n">
-        <v>8923000</v>
-      </c>
-      <c r="J1100" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1100" t="inlineStr"/>
+      <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37188,14 +37174,10 @@
         <v>-349.4557572600004</v>
       </c>
       <c r="H1101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1101" t="n">
-        <v>8922000</v>
-      </c>
-      <c r="J1101" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1101" t="inlineStr"/>
+      <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37229,14 +37211,10 @@
         <v>-349.3867572600004</v>
       </c>
       <c r="H1102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1102" t="n">
-        <v>8914000</v>
-      </c>
-      <c r="J1102" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1102" t="inlineStr"/>
+      <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37270,14 +37248,10 @@
         <v>-349.3867572600004</v>
       </c>
       <c r="H1103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1103" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="J1103" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1103" t="inlineStr"/>
+      <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37311,14 +37285,10 @@
         <v>-339.6267572600004</v>
       </c>
       <c r="H1104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1104" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="J1104" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1104" t="inlineStr"/>
+      <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37352,14 +37322,10 @@
         <v>-341.9694572600004</v>
       </c>
       <c r="H1105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1105" t="n">
-        <v>8924000</v>
-      </c>
-      <c r="J1105" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1105" t="inlineStr"/>
+      <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37393,14 +37359,10 @@
         <v>-335.5105572600004</v>
       </c>
       <c r="H1106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1106" t="n">
-        <v>8915000</v>
-      </c>
-      <c r="J1106" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1106" t="inlineStr"/>
+      <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37434,14 +37396,10 @@
         <v>-335.7350572600004</v>
       </c>
       <c r="H1107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1107" t="n">
-        <v>8925000</v>
-      </c>
-      <c r="J1107" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1107" t="inlineStr"/>
+      <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37475,14 +37433,10 @@
         <v>-335.6244572600004</v>
       </c>
       <c r="H1108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1108" t="n">
-        <v>8916000</v>
-      </c>
-      <c r="J1108" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1108" t="inlineStr"/>
+      <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37516,14 +37470,10 @@
         <v>-335.6382572600004</v>
       </c>
       <c r="H1109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1109" t="n">
-        <v>8928000</v>
-      </c>
-      <c r="J1109" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1109" t="inlineStr"/>
+      <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37557,14 +37507,10 @@
         <v>-332.7433999600004</v>
       </c>
       <c r="H1110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1110" t="n">
-        <v>8927000</v>
-      </c>
-      <c r="J1110" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1110" t="inlineStr"/>
+      <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37598,14 +37544,10 @@
         <v>-333.3897999600004</v>
       </c>
       <c r="H1111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1111" t="n">
-        <v>8929000</v>
-      </c>
-      <c r="J1111" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1111" t="inlineStr"/>
+      <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37639,14 +37581,10 @@
         <v>-333.9402999600004</v>
       </c>
       <c r="H1112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1112" t="n">
-        <v>8928000</v>
-      </c>
-      <c r="J1112" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1112" t="inlineStr"/>
+      <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37680,14 +37618,10 @@
         <v>-333.2125999600004</v>
       </c>
       <c r="H1113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1113" t="n">
-        <v>8921000</v>
-      </c>
-      <c r="J1113" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1113" t="inlineStr"/>
+      <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37724,9 +37658,7 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37763,9 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37802,9 +37732,7 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37841,9 +37769,7 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37880,9 +37806,7 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37919,9 +37843,7 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37958,9 +37880,7 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37997,9 +37917,7 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38036,9 +37954,7 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38075,9 +37991,7 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38114,9 +38028,7 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38153,9 +38065,7 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38192,9 +38102,7 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38231,9 +38139,7 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38270,9 +38176,7 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38309,9 +38213,7 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38348,9 +38250,7 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38387,9 +38287,7 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38426,9 +38324,7 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38465,9 +38361,7 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38504,9 +38398,7 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38543,9 +38435,7 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38582,9 +38472,7 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38621,9 +38509,7 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38660,9 +38546,7 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38699,9 +38583,7 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38738,9 +38620,7 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38777,9 +38657,7 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38816,9 +38694,7 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38855,9 +38731,7 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38894,9 +38768,7 @@
         <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38933,9 +38805,7 @@
         <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38972,9 +38842,7 @@
         <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39011,9 +38879,7 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39050,9 +38916,7 @@
         <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39089,9 +38953,7 @@
         <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39128,9 +38990,7 @@
         <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39167,9 +39027,7 @@
         <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39206,9 +39064,7 @@
         <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39245,9 +39101,7 @@
         <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39284,9 +39138,7 @@
         <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39323,9 +39175,7 @@
         <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39362,9 +39212,7 @@
         <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39401,9 +39249,7 @@
         <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39440,9 +39286,7 @@
         <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39479,9 +39323,7 @@
         <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39518,9 +39360,7 @@
         <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39557,9 +39397,7 @@
         <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39596,9 +39434,7 @@
         <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39635,9 +39471,7 @@
         <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39674,9 +39508,7 @@
         <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39713,9 +39545,7 @@
         <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39752,9 +39582,7 @@
         <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39791,9 +39619,7 @@
         <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39830,9 +39656,7 @@
         <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39869,9 +39693,7 @@
         <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39908,9 +39730,7 @@
         <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39947,9 +39767,7 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39986,9 +39804,7 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40025,9 +39841,7 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40064,9 +39878,7 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40103,9 +39915,7 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40142,9 +39952,7 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40181,9 +39989,7 @@
         <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40220,9 +40026,7 @@
         <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40259,9 +40063,7 @@
         <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40298,9 +40100,7 @@
         <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40337,9 +40137,7 @@
         <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40376,9 +40174,7 @@
         <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40415,9 +40211,7 @@
         <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40454,9 +40248,7 @@
         <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40493,9 +40285,7 @@
         <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40532,9 +40322,7 @@
         <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40571,9 +40359,7 @@
         <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40610,9 +40396,7 @@
         <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40649,9 +40433,7 @@
         <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40688,9 +40470,7 @@
         <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40724,20 +40504,16 @@
         <v>-272.8761595600003</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1191" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1191" t="inlineStr"/>
       <c r="M1191" t="inlineStr"/>
     </row>
     <row r="1192">
@@ -40763,17 +40539,11 @@
         <v>-272.8761595600003</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1192" t="inlineStr"/>
+      <c r="K1192" t="inlineStr"/>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -40802,17 +40572,11 @@
         <v>-278.5919595600003</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1193" t="inlineStr"/>
+      <c r="K1193" t="inlineStr"/>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -40841,17 +40605,11 @@
         <v>-279.4906595600003</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1194" t="inlineStr"/>
+      <c r="K1194" t="inlineStr"/>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -40880,17 +40638,11 @@
         <v>-276.2175595100003</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1195" t="inlineStr"/>
+      <c r="K1195" t="inlineStr"/>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -40919,17 +40671,11 @@
         <v>-275.4243595100003</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1196" t="inlineStr"/>
+      <c r="K1196" t="inlineStr"/>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -40958,17 +40704,11 @@
         <v>-273.1489595100003</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1197" t="inlineStr"/>
+      <c r="K1197" t="inlineStr"/>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -40997,17 +40737,11 @@
         <v>-273.3190595100003</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1198" t="inlineStr"/>
+      <c r="K1198" t="inlineStr"/>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -41036,17 +40770,11 @@
         <v>-272.2760595100003</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1199" t="inlineStr"/>
+      <c r="K1199" t="inlineStr"/>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -41075,17 +40803,11 @@
         <v>-270.2460595600003</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr"/>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -41114,17 +40836,11 @@
         <v>-262.3768031900003</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr"/>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -41153,17 +40869,11 @@
         <v>-252.1160031900003</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr"/>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -41192,17 +40902,11 @@
         <v>-240.1366031900003</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr"/>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -41231,17 +40935,11 @@
         <v>-249.5470492000003</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr"/>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -41270,17 +40968,11 @@
         <v>-244.3029000200003</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1205" t="inlineStr"/>
+      <c r="K1205" t="inlineStr"/>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -41309,17 +41001,11 @@
         <v>-243.7158000800003</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr"/>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -41348,17 +41034,11 @@
         <v>-241.5277999700003</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1207" t="inlineStr"/>
+      <c r="K1207" t="inlineStr"/>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -41390,14 +41070,8 @@
         <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1208" t="inlineStr"/>
+      <c r="K1208" t="inlineStr"/>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -41429,14 +41103,8 @@
         <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr"/>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -41468,14 +41136,8 @@
         <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1210" t="inlineStr"/>
+      <c r="K1210" t="inlineStr"/>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -41507,14 +41169,8 @@
         <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1211" t="inlineStr"/>
+      <c r="K1211" t="inlineStr"/>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -41546,14 +41202,8 @@
         <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr"/>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -41585,14 +41235,8 @@
         <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr"/>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -41621,17 +41265,11 @@
         <v>-244.3335205500003</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr"/>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -41660,17 +41298,11 @@
         <v>-255.4671205500003</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr"/>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -41699,17 +41331,11 @@
         <v>-257.6578205500003</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr"/>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -41738,17 +41364,11 @@
         <v>-257.8999205500003</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1217" t="inlineStr"/>
+      <c r="K1217" t="inlineStr"/>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -41780,14 +41400,8 @@
         <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr"/>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -41819,14 +41433,8 @@
         <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr"/>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -41858,14 +41466,8 @@
         <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr"/>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -41897,14 +41499,8 @@
         <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr"/>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -41936,14 +41532,8 @@
         <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr"/>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -41975,14 +41565,8 @@
         <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr"/>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -42014,14 +41598,8 @@
         <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr"/>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -42053,14 +41631,8 @@
         <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr"/>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -42092,14 +41664,8 @@
         <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr"/>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -42131,14 +41697,8 @@
         <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr"/>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -42170,14 +41730,8 @@
         <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr"/>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -42209,14 +41763,8 @@
         <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr"/>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -42248,14 +41796,8 @@
         <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr"/>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -42287,14 +41829,8 @@
         <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr"/>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -42326,14 +41862,8 @@
         <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr"/>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -42362,17 +41892,11 @@
         <v>-272.2832609400003</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr"/>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -42401,17 +41925,11 @@
         <v>-273.1301609400003</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr"/>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -42440,17 +41958,11 @@
         <v>-273.2518609400003</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr"/>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -42479,17 +41991,11 @@
         <v>-273.5200609400003</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -42521,14 +42027,8 @@
         <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr"/>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -42560,14 +42060,8 @@
         <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr"/>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -42599,14 +42093,8 @@
         <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr"/>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -42638,14 +42126,8 @@
         <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr"/>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -42677,14 +42159,8 @@
         <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr"/>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -42716,14 +42192,8 @@
         <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr"/>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -42755,14 +42225,8 @@
         <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr"/>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -42794,14 +42258,8 @@
         <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr"/>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -42833,14 +42291,8 @@
         <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr"/>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -42872,14 +42324,8 @@
         <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr"/>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -42911,14 +42357,8 @@
         <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -42950,14 +42390,8 @@
         <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -42989,14 +42423,8 @@
         <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr"/>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -43028,14 +42456,8 @@
         <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr"/>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -43067,14 +42489,8 @@
         <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr"/>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -43106,14 +42522,8 @@
         <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
-      <c r="J1252" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr"/>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -43145,14 +42555,8 @@
         <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
-      <c r="J1253" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr"/>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -43184,14 +42588,8 @@
         <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
-      <c r="J1254" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr"/>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -43220,19 +42618,11 @@
         <v>-338.0681611800002</v>
       </c>
       <c r="H1255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1255" t="n">
-        <v>8949000</v>
-      </c>
-      <c r="J1255" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1255" t="inlineStr"/>
+      <c r="J1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr"/>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -43264,14 +42654,8 @@
         <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1256" t="inlineStr"/>
+      <c r="K1256" t="inlineStr"/>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -43300,19 +42684,11 @@
         <v>-344.3604181600002</v>
       </c>
       <c r="H1257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1257" t="n">
-        <v>8952000</v>
-      </c>
-      <c r="J1257" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1257" t="inlineStr"/>
+      <c r="J1257" t="inlineStr"/>
+      <c r="K1257" t="inlineStr"/>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -43341,19 +42717,11 @@
         <v>-364.6481181600002</v>
       </c>
       <c r="H1258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1258" t="n">
-        <v>8941000</v>
-      </c>
-      <c r="J1258" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1258" t="inlineStr"/>
+      <c r="J1258" t="inlineStr"/>
+      <c r="K1258" t="inlineStr"/>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -43382,19 +42750,11 @@
         <v>-358.7338497400002</v>
       </c>
       <c r="H1259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1259" t="n">
-        <v>8902000</v>
-      </c>
-      <c r="J1259" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1259" t="inlineStr"/>
+      <c r="J1259" t="inlineStr"/>
+      <c r="K1259" t="inlineStr"/>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -43423,19 +42783,11 @@
         <v>-361.4679497400002</v>
       </c>
       <c r="H1260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1260" t="n">
-        <v>8919000</v>
-      </c>
-      <c r="J1260" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1260" t="inlineStr"/>
+      <c r="J1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr"/>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -43464,19 +42816,11 @@
         <v>-386.2884497400002</v>
       </c>
       <c r="H1261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1261" t="n">
-        <v>8910000</v>
-      </c>
-      <c r="J1261" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1261" t="inlineStr"/>
+      <c r="J1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr"/>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -43505,19 +42849,11 @@
         <v>-396.1697497400002</v>
       </c>
       <c r="H1262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1262" t="n">
-        <v>8900000</v>
-      </c>
-      <c r="J1262" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1262" t="inlineStr"/>
+      <c r="J1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr"/>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -43546,19 +42882,11 @@
         <v>-385.9826497400002</v>
       </c>
       <c r="H1263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1263" t="n">
-        <v>8888000</v>
-      </c>
-      <c r="J1263" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1263" t="inlineStr"/>
+      <c r="J1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr"/>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -43587,19 +42915,11 @@
         <v>-383.9149497400002</v>
       </c>
       <c r="H1264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1264" t="n">
-        <v>8904000</v>
-      </c>
-      <c r="J1264" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="K1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1264" t="inlineStr"/>
+      <c r="J1264" t="inlineStr"/>
+      <c r="K1264" t="inlineStr"/>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -43633,12 +42953,10 @@
       <c r="I1265" t="n">
         <v>8914000</v>
       </c>
-      <c r="J1265" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1265" t="n">
@@ -43674,9 +42992,7 @@
       <c r="I1266" t="n">
         <v>8919000</v>
       </c>
-      <c r="J1266" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43715,9 +43031,7 @@
       <c r="I1267" t="n">
         <v>8918000</v>
       </c>
-      <c r="J1267" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43756,9 +43070,7 @@
       <c r="I1268" t="n">
         <v>8917000</v>
       </c>
-      <c r="J1268" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43797,9 +43109,7 @@
       <c r="I1269" t="n">
         <v>8944000</v>
       </c>
-      <c r="J1269" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43833,14 +43143,10 @@
         <v>-380.0322908200002</v>
       </c>
       <c r="H1270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1270" t="n">
-        <v>8934000</v>
-      </c>
-      <c r="J1270" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1270" t="inlineStr"/>
+      <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43874,14 +43180,10 @@
         <v>-377.5687908200002</v>
       </c>
       <c r="H1271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1271" t="n">
-        <v>8960000</v>
-      </c>
-      <c r="J1271" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1271" t="inlineStr"/>
+      <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43918,9 +43220,7 @@
         <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43957,9 +43257,7 @@
         <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
-      <c r="J1273" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43996,9 +43294,7 @@
         <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
-      <c r="J1274" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1274" t="inlineStr"/>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44035,9 +43331,7 @@
         <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
-      <c r="J1275" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44074,9 +43368,7 @@
         <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
-      <c r="J1276" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44113,9 +43405,7 @@
         <v>0</v>
       </c>
       <c r="I1277" t="inlineStr"/>
-      <c r="J1277" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1277" t="inlineStr"/>
       <c r="K1277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44152,9 +43442,7 @@
         <v>0</v>
       </c>
       <c r="I1278" t="inlineStr"/>
-      <c r="J1278" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1278" t="inlineStr"/>
       <c r="K1278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44191,9 +43479,7 @@
         <v>0</v>
       </c>
       <c r="I1279" t="inlineStr"/>
-      <c r="J1279" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1279" t="inlineStr"/>
       <c r="K1279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44230,9 +43516,7 @@
         <v>0</v>
       </c>
       <c r="I1280" t="inlineStr"/>
-      <c r="J1280" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1280" t="inlineStr"/>
       <c r="K1280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44269,9 +43553,7 @@
         <v>0</v>
       </c>
       <c r="I1281" t="inlineStr"/>
-      <c r="J1281" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1281" t="inlineStr"/>
       <c r="K1281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44308,9 +43590,7 @@
         <v>0</v>
       </c>
       <c r="I1282" t="inlineStr"/>
-      <c r="J1282" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1282" t="inlineStr"/>
       <c r="K1282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44347,9 +43627,7 @@
         <v>0</v>
       </c>
       <c r="I1283" t="inlineStr"/>
-      <c r="J1283" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1283" t="inlineStr"/>
       <c r="K1283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44386,9 +43664,7 @@
         <v>0</v>
       </c>
       <c r="I1284" t="inlineStr"/>
-      <c r="J1284" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1284" t="inlineStr"/>
       <c r="K1284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44425,9 +43701,7 @@
         <v>0</v>
       </c>
       <c r="I1285" t="inlineStr"/>
-      <c r="J1285" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1285" t="inlineStr"/>
       <c r="K1285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44464,9 +43738,7 @@
         <v>0</v>
       </c>
       <c r="I1286" t="inlineStr"/>
-      <c r="J1286" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1286" t="inlineStr"/>
       <c r="K1286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44503,9 +43775,7 @@
         <v>0</v>
       </c>
       <c r="I1287" t="inlineStr"/>
-      <c r="J1287" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1287" t="inlineStr"/>
       <c r="K1287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44542,9 +43812,7 @@
         <v>0</v>
       </c>
       <c r="I1288" t="inlineStr"/>
-      <c r="J1288" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1288" t="inlineStr"/>
       <c r="K1288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44581,9 +43849,7 @@
         <v>0</v>
       </c>
       <c r="I1289" t="inlineStr"/>
-      <c r="J1289" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1289" t="inlineStr"/>
       <c r="K1289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44620,9 +43886,7 @@
         <v>0</v>
       </c>
       <c r="I1290" t="inlineStr"/>
-      <c r="J1290" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1290" t="inlineStr"/>
       <c r="K1290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44659,9 +43923,7 @@
         <v>0</v>
       </c>
       <c r="I1291" t="inlineStr"/>
-      <c r="J1291" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1291" t="inlineStr"/>
       <c r="K1291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44698,9 +43960,7 @@
         <v>0</v>
       </c>
       <c r="I1292" t="inlineStr"/>
-      <c r="J1292" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1292" t="inlineStr"/>
       <c r="K1292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44737,9 +43997,7 @@
         <v>0</v>
       </c>
       <c r="I1293" t="inlineStr"/>
-      <c r="J1293" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1293" t="inlineStr"/>
       <c r="K1293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44776,9 +44034,7 @@
         <v>0</v>
       </c>
       <c r="I1294" t="inlineStr"/>
-      <c r="J1294" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1294" t="inlineStr"/>
       <c r="K1294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44815,9 +44071,7 @@
         <v>0</v>
       </c>
       <c r="I1295" t="inlineStr"/>
-      <c r="J1295" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1295" t="inlineStr"/>
       <c r="K1295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44854,9 +44108,7 @@
         <v>0</v>
       </c>
       <c r="I1296" t="inlineStr"/>
-      <c r="J1296" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1296" t="inlineStr"/>
       <c r="K1296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44893,9 +44145,7 @@
         <v>0</v>
       </c>
       <c r="I1297" t="inlineStr"/>
-      <c r="J1297" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1297" t="inlineStr"/>
       <c r="K1297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44932,9 +44182,7 @@
         <v>0</v>
       </c>
       <c r="I1298" t="inlineStr"/>
-      <c r="J1298" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1298" t="inlineStr"/>
       <c r="K1298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44971,9 +44219,7 @@
         <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
-      <c r="J1299" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1299" t="inlineStr"/>
       <c r="K1299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45010,9 +44256,7 @@
         <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
-      <c r="J1300" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1300" t="inlineStr"/>
       <c r="K1300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45049,9 +44293,7 @@
         <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
-      <c r="J1301" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1301" t="inlineStr"/>
       <c r="K1301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45088,9 +44330,7 @@
         <v>0</v>
       </c>
       <c r="I1302" t="inlineStr"/>
-      <c r="J1302" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1302" t="inlineStr"/>
       <c r="K1302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45127,9 +44367,7 @@
         <v>0</v>
       </c>
       <c r="I1303" t="inlineStr"/>
-      <c r="J1303" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1303" t="inlineStr"/>
       <c r="K1303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45163,14 +44401,10 @@
         <v>-396.5214839600004</v>
       </c>
       <c r="H1304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1304" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="J1304" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1304" t="inlineStr"/>
+      <c r="J1304" t="inlineStr"/>
       <c r="K1304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45204,14 +44438,10 @@
         <v>-396.5214839600004</v>
       </c>
       <c r="H1305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1305" t="n">
-        <v>8928000</v>
-      </c>
-      <c r="J1305" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1305" t="inlineStr"/>
+      <c r="J1305" t="inlineStr"/>
       <c r="K1305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45245,14 +44475,10 @@
         <v>-396.8026425900003</v>
       </c>
       <c r="H1306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1306" t="n">
-        <v>8928000</v>
-      </c>
-      <c r="J1306" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1306" t="inlineStr"/>
+      <c r="J1306" t="inlineStr"/>
       <c r="K1306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45286,14 +44512,10 @@
         <v>-395.4827473900003</v>
       </c>
       <c r="H1307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1307" t="n">
-        <v>8925000</v>
-      </c>
-      <c r="J1307" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1307" t="inlineStr"/>
+      <c r="J1307" t="inlineStr"/>
       <c r="K1307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45327,14 +44549,10 @@
         <v>-395.9464703400003</v>
       </c>
       <c r="H1308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1308" t="n">
-        <v>8937000</v>
-      </c>
-      <c r="J1308" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1308" t="inlineStr"/>
+      <c r="J1308" t="inlineStr"/>
       <c r="K1308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45371,9 +44589,7 @@
         <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
-      <c r="J1309" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1309" t="inlineStr"/>
       <c r="K1309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45410,9 +44626,7 @@
         <v>0</v>
       </c>
       <c r="I1310" t="inlineStr"/>
-      <c r="J1310" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1310" t="inlineStr"/>
       <c r="K1310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45449,9 +44663,7 @@
         <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
-      <c r="J1311" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1311" t="inlineStr"/>
       <c r="K1311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45488,9 +44700,7 @@
         <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
-      <c r="J1312" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1312" t="inlineStr"/>
       <c r="K1312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45524,14 +44734,10 @@
         <v>-388.5296703400003</v>
       </c>
       <c r="H1313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1313" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="J1313" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1313" t="inlineStr"/>
+      <c r="J1313" t="inlineStr"/>
       <c r="K1313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45565,14 +44771,10 @@
         <v>-388.7357703400003</v>
       </c>
       <c r="H1314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1314" t="n">
-        <v>8932000</v>
-      </c>
-      <c r="J1314" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1314" t="inlineStr"/>
+      <c r="J1314" t="inlineStr"/>
       <c r="K1314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45606,14 +44808,10 @@
         <v>-389.7387703400003</v>
       </c>
       <c r="H1315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1315" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="J1315" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1315" t="inlineStr"/>
+      <c r="J1315" t="inlineStr"/>
       <c r="K1315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45647,14 +44845,10 @@
         <v>-389.8246703400003</v>
       </c>
       <c r="H1316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1316" t="n">
-        <v>8917000</v>
-      </c>
-      <c r="J1316" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1316" t="inlineStr"/>
+      <c r="J1316" t="inlineStr"/>
       <c r="K1316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45688,14 +44882,10 @@
         <v>-389.7860703400003</v>
       </c>
       <c r="H1317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1317" t="n">
-        <v>8916000</v>
-      </c>
-      <c r="J1317" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1317" t="inlineStr"/>
+      <c r="J1317" t="inlineStr"/>
       <c r="K1317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45729,14 +44919,10 @@
         <v>-388.6674706000003</v>
       </c>
       <c r="H1318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1318" t="n">
-        <v>8923000</v>
-      </c>
-      <c r="J1318" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1318" t="inlineStr"/>
+      <c r="J1318" t="inlineStr"/>
       <c r="K1318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45770,14 +44956,10 @@
         <v>-385.8141706000004</v>
       </c>
       <c r="H1319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1319" t="n">
-        <v>8924000</v>
-      </c>
-      <c r="J1319" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1319" t="inlineStr"/>
+      <c r="J1319" t="inlineStr"/>
       <c r="K1319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45811,14 +44993,10 @@
         <v>-380.9050706000003</v>
       </c>
       <c r="H1320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1320" t="n">
-        <v>8933000</v>
-      </c>
-      <c r="J1320" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1320" t="inlineStr"/>
+      <c r="J1320" t="inlineStr"/>
       <c r="K1320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45852,14 +45030,10 @@
         <v>-381.4359706000003</v>
       </c>
       <c r="H1321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1321" t="n">
-        <v>8951000</v>
-      </c>
-      <c r="J1321" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1321" t="inlineStr"/>
+      <c r="J1321" t="inlineStr"/>
       <c r="K1321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45893,14 +45067,10 @@
         <v>-381.4119706000003</v>
       </c>
       <c r="H1322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1322" t="n">
-        <v>8938000</v>
-      </c>
-      <c r="J1322" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1322" t="inlineStr"/>
+      <c r="J1322" t="inlineStr"/>
       <c r="K1322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45934,14 +45104,10 @@
         <v>-381.4119706000003</v>
       </c>
       <c r="H1323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1323" t="n">
-        <v>8945000</v>
-      </c>
-      <c r="J1323" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1323" t="inlineStr"/>
+      <c r="J1323" t="inlineStr"/>
       <c r="K1323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45978,9 +45144,7 @@
         <v>0</v>
       </c>
       <c r="I1324" t="inlineStr"/>
-      <c r="J1324" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1324" t="inlineStr"/>
       <c r="K1324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46017,9 +45181,7 @@
         <v>0</v>
       </c>
       <c r="I1325" t="inlineStr"/>
-      <c r="J1325" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1325" t="inlineStr"/>
       <c r="K1325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46056,9 +45218,7 @@
         <v>0</v>
       </c>
       <c r="I1326" t="inlineStr"/>
-      <c r="J1326" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1326" t="inlineStr"/>
       <c r="K1326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46095,9 +45255,7 @@
         <v>0</v>
       </c>
       <c r="I1327" t="inlineStr"/>
-      <c r="J1327" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1327" t="inlineStr"/>
       <c r="K1327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46134,9 +45292,7 @@
         <v>0</v>
       </c>
       <c r="I1328" t="inlineStr"/>
-      <c r="J1328" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1328" t="inlineStr"/>
       <c r="K1328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46173,9 +45329,7 @@
         <v>0</v>
       </c>
       <c r="I1329" t="inlineStr"/>
-      <c r="J1329" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1329" t="inlineStr"/>
       <c r="K1329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46212,9 +45366,7 @@
         <v>0</v>
       </c>
       <c r="I1330" t="inlineStr"/>
-      <c r="J1330" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1330" t="inlineStr"/>
       <c r="K1330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46251,9 +45403,7 @@
         <v>0</v>
       </c>
       <c r="I1331" t="inlineStr"/>
-      <c r="J1331" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1331" t="inlineStr"/>
       <c r="K1331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46290,9 +45440,7 @@
         <v>0</v>
       </c>
       <c r="I1332" t="inlineStr"/>
-      <c r="J1332" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1332" t="inlineStr"/>
       <c r="K1332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46326,14 +45474,10 @@
         <v>-385.2858097500003</v>
       </c>
       <c r="H1333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1333" t="n">
-        <v>8934000</v>
-      </c>
-      <c r="J1333" t="n">
-        <v>8920000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1333" t="inlineStr"/>
+      <c r="J1333" t="inlineStr"/>
       <c r="K1333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46370,9 +45514,7 @@
         <v>0</v>
       </c>
       <c r="I1334" t="inlineStr"/>
-      <c r="J1334" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1334" t="inlineStr"/>
       <c r="K1334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46409,9 +45551,7 @@
         <v>0</v>
       </c>
       <c r="I1335" t="inlineStr"/>
-      <c r="J1335" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1335" t="inlineStr"/>
       <c r="K1335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46448,9 +45588,7 @@
         <v>0</v>
       </c>
       <c r="I1336" t="inlineStr"/>
-      <c r="J1336" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1336" t="inlineStr"/>
       <c r="K1336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46487,9 +45625,7 @@
         <v>0</v>
       </c>
       <c r="I1337" t="inlineStr"/>
-      <c r="J1337" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1337" t="inlineStr"/>
       <c r="K1337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46526,9 +45662,7 @@
         <v>0</v>
       </c>
       <c r="I1338" t="inlineStr"/>
-      <c r="J1338" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1338" t="inlineStr"/>
       <c r="K1338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46565,9 +45699,7 @@
         <v>0</v>
       </c>
       <c r="I1339" t="inlineStr"/>
-      <c r="J1339" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1339" t="inlineStr"/>
       <c r="K1339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46604,9 +45736,7 @@
         <v>0</v>
       </c>
       <c r="I1340" t="inlineStr"/>
-      <c r="J1340" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1340" t="inlineStr"/>
       <c r="K1340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46643,9 +45773,7 @@
         <v>0</v>
       </c>
       <c r="I1341" t="inlineStr"/>
-      <c r="J1341" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1341" t="inlineStr"/>
       <c r="K1341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46682,9 +45810,7 @@
         <v>0</v>
       </c>
       <c r="I1342" t="inlineStr"/>
-      <c r="J1342" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1342" t="inlineStr"/>
       <c r="K1342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46721,9 +45847,7 @@
         <v>0</v>
       </c>
       <c r="I1343" t="inlineStr"/>
-      <c r="J1343" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1343" t="inlineStr"/>
       <c r="K1343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46760,9 +45884,7 @@
         <v>0</v>
       </c>
       <c r="I1344" t="inlineStr"/>
-      <c r="J1344" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1344" t="inlineStr"/>
       <c r="K1344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46799,9 +45921,7 @@
         <v>0</v>
       </c>
       <c r="I1345" t="inlineStr"/>
-      <c r="J1345" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1345" t="inlineStr"/>
       <c r="K1345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46838,9 +45958,7 @@
         <v>0</v>
       </c>
       <c r="I1346" t="inlineStr"/>
-      <c r="J1346" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1346" t="inlineStr"/>
       <c r="K1346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46877,9 +45995,7 @@
         <v>0</v>
       </c>
       <c r="I1347" t="inlineStr"/>
-      <c r="J1347" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1347" t="inlineStr"/>
       <c r="K1347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46916,9 +46032,7 @@
         <v>0</v>
       </c>
       <c r="I1348" t="inlineStr"/>
-      <c r="J1348" t="n">
-        <v>8920000</v>
-      </c>
+      <c r="J1348" t="inlineStr"/>
       <c r="K1348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46930,6 +46044,6 @@
       <c r="M1348" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-10 BackTest BTC.xlsx
+++ b/BackTest/2020-01-10 BackTest BTC.xlsx
@@ -3223,7 +3223,7 @@
         <v>-124.89915802</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-132.67285802</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-130.48708563</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-128.1485793</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-132.5704793</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-116.73798968</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-115.01408968</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-111.49248398</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-104.15795697</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-96.69885076999999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-93.43259954</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-99.73189954</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-96.29522289000001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-86.08437735000001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-76.74270611000001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-66.99400611000002</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-62.85294952000002</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-58.35037735000002</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-77.35272898000002</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-56.72045419000003</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-32.98869406000003</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-24.01119406000003</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-19.42402131000003</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-36.17424945000003</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-47.48525867000004</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-43.34800102000003</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-43.70190107000003</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-46.08030107000003</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-46.86424395000003</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-45.56877263000003</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-44.45030153000003</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-44.45030153000003</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-44.40910153000003</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-43.89526610000003</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-42.97509329000003</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-43.40284076000003</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-42.86588040000003</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-42.86588040000003</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-48.48810510000003</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-41.67803498000003</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-38.56583498000003</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-46.77042153000003</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-43.25049367000003</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-54.75777619000003</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-56.51853217000003</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-59.32591104000003</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-58.65139723000003</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-80.70910309000003</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-80.70910309000003</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-86.30050309000003</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-80.82050309000003</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-80.82050309000003</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-220.5465359500002</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-220.5465359500002</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-217.0373359500002</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-220.9371359500002</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-223.7908359500002</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-223.5877359500002</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-222.7444359500002</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-225.2005359500002</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-225.2005359500002</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-225.4496359500002</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-226.8944359500002</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-224.3376359500002</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-224.5100359500002</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-224.3369359500002</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-224.7452359500002</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -33022,2280 +33022,2030 @@
         <v>-395.8968689100006</v>
       </c>
       <c r="H989" t="n">
-        <v>1</v>
-      </c>
-      <c r="I989" t="n">
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="inlineStr"/>
+      <c r="L989" t="n">
+        <v>1</v>
+      </c>
+      <c r="M989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B990" t="n">
+        <v>8929000</v>
+      </c>
+      <c r="C990" t="n">
+        <v>8939000</v>
+      </c>
+      <c r="D990" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="E990" t="n">
+        <v>8928000</v>
+      </c>
+      <c r="F990" t="n">
+        <v>8.5397</v>
+      </c>
+      <c r="G990" t="n">
+        <v>-387.3571689100007</v>
+      </c>
+      <c r="H990" t="n">
+        <v>0</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="inlineStr"/>
+      <c r="L990" t="n">
+        <v>1</v>
+      </c>
+      <c r="M990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="B991" t="n">
+        <v>8934000</v>
+      </c>
+      <c r="C991" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="D991" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="E991" t="n">
         <v>8933000</v>
       </c>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
+      <c r="F991" t="n">
+        <v>0.1926</v>
+      </c>
+      <c r="G991" t="n">
+        <v>-387.1645689100006</v>
+      </c>
+      <c r="H991" t="n">
+        <v>0</v>
+      </c>
+      <c r="I991" t="inlineStr"/>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
+      <c r="L991" t="n">
+        <v>1</v>
+      </c>
+      <c r="M991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B992" t="n">
+        <v>8939000</v>
+      </c>
+      <c r="C992" t="n">
+        <v>8935000</v>
+      </c>
+      <c r="D992" t="n">
+        <v>8941000</v>
+      </c>
+      <c r="E992" t="n">
+        <v>8935000</v>
+      </c>
+      <c r="F992" t="n">
+        <v>0.1121</v>
+      </c>
+      <c r="G992" t="n">
+        <v>-387.2766689100006</v>
+      </c>
+      <c r="H992" t="n">
+        <v>0</v>
+      </c>
+      <c r="I992" t="inlineStr"/>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr"/>
+      <c r="L992" t="n">
+        <v>1</v>
+      </c>
+      <c r="M992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="B993" t="n">
+        <v>8938000</v>
+      </c>
+      <c r="C993" t="n">
+        <v>8933000</v>
+      </c>
+      <c r="D993" t="n">
+        <v>8939000</v>
+      </c>
+      <c r="E993" t="n">
+        <v>8930000</v>
+      </c>
+      <c r="F993" t="n">
+        <v>0.78826924</v>
+      </c>
+      <c r="G993" t="n">
+        <v>-388.0649381500006</v>
+      </c>
+      <c r="H993" t="n">
+        <v>0</v>
+      </c>
+      <c r="I993" t="inlineStr"/>
+      <c r="J993" t="inlineStr"/>
+      <c r="K993" t="inlineStr"/>
+      <c r="L993" t="n">
+        <v>1</v>
+      </c>
+      <c r="M993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B994" t="n">
+        <v>8931000</v>
+      </c>
+      <c r="C994" t="n">
+        <v>8930000</v>
+      </c>
+      <c r="D994" t="n">
+        <v>8936000</v>
+      </c>
+      <c r="E994" t="n">
+        <v>8930000</v>
+      </c>
+      <c r="F994" t="n">
+        <v>0.7933</v>
+      </c>
+      <c r="G994" t="n">
+        <v>-388.8582381500006</v>
+      </c>
+      <c r="H994" t="n">
+        <v>0</v>
+      </c>
+      <c r="I994" t="inlineStr"/>
+      <c r="J994" t="inlineStr"/>
+      <c r="K994" t="inlineStr"/>
+      <c r="L994" t="n">
+        <v>1</v>
+      </c>
+      <c r="M994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B995" t="n">
+        <v>8929000</v>
+      </c>
+      <c r="C995" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="D995" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="E995" t="n">
+        <v>8927000</v>
+      </c>
+      <c r="F995" t="n">
+        <v>18.5273</v>
+      </c>
+      <c r="G995" t="n">
+        <v>-370.3309381500006</v>
+      </c>
+      <c r="H995" t="n">
+        <v>0</v>
+      </c>
+      <c r="I995" t="inlineStr"/>
+      <c r="J995" t="inlineStr"/>
+      <c r="K995" t="inlineStr"/>
+      <c r="L995" t="n">
+        <v>1</v>
+      </c>
+      <c r="M995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B996" t="n">
+        <v>8942000</v>
+      </c>
+      <c r="C996" t="n">
+        <v>8951000</v>
+      </c>
+      <c r="D996" t="n">
+        <v>8951000</v>
+      </c>
+      <c r="E996" t="n">
+        <v>8938000</v>
+      </c>
+      <c r="F996" t="n">
+        <v>4.7447</v>
+      </c>
+      <c r="G996" t="n">
+        <v>-365.5862381500006</v>
+      </c>
+      <c r="H996" t="n">
+        <v>0</v>
+      </c>
+      <c r="I996" t="inlineStr"/>
+      <c r="J996" t="inlineStr"/>
+      <c r="K996" t="inlineStr"/>
+      <c r="L996" t="n">
+        <v>1</v>
+      </c>
+      <c r="M996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B997" t="n">
+        <v>8949000</v>
+      </c>
+      <c r="C997" t="n">
+        <v>8951000</v>
+      </c>
+      <c r="D997" t="n">
+        <v>8951000</v>
+      </c>
+      <c r="E997" t="n">
+        <v>8946000</v>
+      </c>
+      <c r="F997" t="n">
+        <v>4.1293</v>
+      </c>
+      <c r="G997" t="n">
+        <v>-365.5862381500006</v>
+      </c>
+      <c r="H997" t="n">
+        <v>0</v>
+      </c>
+      <c r="I997" t="inlineStr"/>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
+      <c r="L997" t="n">
+        <v>1</v>
+      </c>
+      <c r="M997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="B998" t="n">
+        <v>8952000</v>
+      </c>
+      <c r="C998" t="n">
+        <v>8946000</v>
+      </c>
+      <c r="D998" t="n">
+        <v>8954000</v>
+      </c>
+      <c r="E998" t="n">
+        <v>8946000</v>
+      </c>
+      <c r="F998" t="n">
+        <v>4.06502224</v>
+      </c>
+      <c r="G998" t="n">
+        <v>-369.6512603900006</v>
+      </c>
+      <c r="H998" t="n">
+        <v>0</v>
+      </c>
+      <c r="I998" t="inlineStr"/>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
+      <c r="L998" t="n">
+        <v>1</v>
+      </c>
+      <c r="M998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="B999" t="n">
+        <v>8946000</v>
+      </c>
+      <c r="C999" t="n">
+        <v>8935000</v>
+      </c>
+      <c r="D999" t="n">
+        <v>8946000</v>
+      </c>
+      <c r="E999" t="n">
+        <v>8933000</v>
+      </c>
+      <c r="F999" t="n">
+        <v>0.5311</v>
+      </c>
+      <c r="G999" t="n">
+        <v>-370.1823603900006</v>
+      </c>
+      <c r="H999" t="n">
+        <v>0</v>
+      </c>
+      <c r="I999" t="inlineStr"/>
+      <c r="J999" t="inlineStr"/>
+      <c r="K999" t="inlineStr"/>
+      <c r="L999" t="n">
+        <v>1</v>
+      </c>
+      <c r="M999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>8942000</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>8939000</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>8945000</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>8937000</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>-370.0223603900005</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1000" t="inlineStr"/>
+      <c r="J1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr"/>
+      <c r="L1000" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>8942000</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>8944000</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>8939000</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>0.15268885</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>-369.8696715400005</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1001" t="inlineStr"/>
+      <c r="J1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr"/>
+      <c r="L1001" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>8941000</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>8943000</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>8944000</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>8941000</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>-369.7496715400005</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1002" t="inlineStr"/>
+      <c r="J1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr"/>
+      <c r="L1002" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>8941000</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>8946000</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>8954000</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>8941000</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>1.96871115</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>-367.7809603900005</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1003" t="inlineStr"/>
+      <c r="J1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr"/>
+      <c r="L1003" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>8950000</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>8952000</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>8954000</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>8950000</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>2.99743363</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>-364.7835267600005</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1004" t="inlineStr"/>
+      <c r="J1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr"/>
+      <c r="L1004" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>8954000</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>8956000</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>8962000</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>8954000</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>4.39664413</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>-360.3868826300005</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1005" t="inlineStr"/>
+      <c r="J1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr"/>
+      <c r="L1005" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>8954000</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>8963000</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>8966000</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>8947000</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>1.9389</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>-358.4479826300005</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1006" t="inlineStr"/>
+      <c r="J1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr"/>
+      <c r="L1006" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>8963000</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>8958000</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>8963000</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>8956000</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>0.1631</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>-358.6110826300005</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1007" t="inlineStr"/>
+      <c r="J1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr"/>
+      <c r="L1007" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>8959000</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>8950000</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>8961000</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>8950000</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>1.0383</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>-359.6493826300005</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1008" t="inlineStr"/>
+      <c r="J1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr"/>
+      <c r="L1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>8957000</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>8961000</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>8961000</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>8957000</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>0.0393</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>-359.6100826300005</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1009" t="inlineStr"/>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr"/>
+      <c r="L1009" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>8958000</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>8957000</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>8958000</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>8954000</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>0.39138131</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>-360.0014639400005</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1010" t="inlineStr"/>
+      <c r="J1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr"/>
+      <c r="L1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>8958000</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>8958000</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>8959000</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>8950000</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>0.5342</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>-359.4672639400005</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1011" t="inlineStr"/>
+      <c r="J1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr"/>
+      <c r="L1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>8950000</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>8955000</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>8958000</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>8945000</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>1.6717</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>-361.1389639400005</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1012" t="inlineStr"/>
+      <c r="J1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr"/>
+      <c r="L1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>8955000</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>8956000</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>8956000</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>8950000</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>0.1414</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>-360.9975639400005</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1013" t="inlineStr"/>
+      <c r="J1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr"/>
+      <c r="L1013" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>8954000</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>8955000</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>8956000</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>8954000</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>-361.2405639400005</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1014" t="inlineStr"/>
+      <c r="J1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr"/>
+      <c r="L1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>8955000</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>8948000</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>8956000</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>8947000</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>0.5515</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>-361.7920639400004</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1015" t="inlineStr"/>
+      <c r="J1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr"/>
+      <c r="L1015" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>8947000</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>8948000</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>8939000</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>2.38030078</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>-364.1723647200005</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1016" t="inlineStr"/>
+      <c r="J1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr"/>
+      <c r="L1016" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>8939000</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>8943000</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>8943000</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>8933000</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>0.9962</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>-363.1761647200005</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1017" t="inlineStr"/>
+      <c r="J1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr"/>
+      <c r="L1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>8944000</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>8944000</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>-363.1451647200005</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1018" t="inlineStr"/>
+      <c r="J1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr"/>
+      <c r="L1018" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>8949000</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>8949000</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>8937000</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>6.27589036</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>-356.8692743600005</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1019" t="inlineStr"/>
+      <c r="J1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr"/>
+      <c r="L1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>8948000</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>8939000</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>8949000</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>8936000</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>0.7426</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>-357.6118743600005</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
+      <c r="J1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr"/>
+      <c r="L1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>8939000</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>8942000</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>8935000</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>12.538</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>-345.0738743600004</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1021" t="inlineStr"/>
+      <c r="J1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr"/>
+      <c r="L1021" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>8935000</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>8930000</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>8936000</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>8930000</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>1.3515</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>-346.4253743600004</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1022" t="inlineStr"/>
+      <c r="J1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr"/>
+      <c r="L1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>8934000</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>8938000</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>8939000</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>8933000</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>1.4823</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>-344.9430743600004</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1023" t="inlineStr"/>
+      <c r="J1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr"/>
+      <c r="L1023" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>8941000</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>8941000</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>0.1677</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>-344.7753743600004</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1024" t="inlineStr"/>
+      <c r="J1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr"/>
+      <c r="L1024" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>8938000</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>8943000</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>8936000</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>2.8704</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>-347.6457743600004</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1025" t="inlineStr"/>
+      <c r="J1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr"/>
+      <c r="L1025" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>8937000</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>8930000</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>8938000</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>8930000</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>0.5312</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>-348.1769743600004</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1026" t="inlineStr"/>
+      <c r="J1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr"/>
+      <c r="L1026" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>8930000</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>8933000</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>8938000</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>8930000</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>10.03831036</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>-338.1386640000004</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1027" t="inlineStr"/>
+      <c r="J1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr"/>
+      <c r="L1027" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>8936000</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>8937000</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>8937000</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>8932000</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>0.8028999999999999</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>-337.3357640000004</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1028" t="inlineStr"/>
+      <c r="J1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr"/>
+      <c r="L1028" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>8937000</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>8946000</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>8946000</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>8936000</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>3.00018964</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>-334.3355743600004</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1029" t="inlineStr"/>
+      <c r="J1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr"/>
+      <c r="L1029" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>8948000</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>8943000</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>8949000</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>8943000</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>0.5101</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>-334.8456743600004</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
+      <c r="J1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr"/>
+      <c r="L1030" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>8948000</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>8948000</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>8948000</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>8942000</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>1.0513</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>-333.7943743600004</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1031" t="inlineStr"/>
+      <c r="J1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr"/>
+      <c r="L1031" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>8943000</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>8943000</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>8948000</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>8942000</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>-333.8115743600004</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1032" t="inlineStr"/>
+      <c r="J1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr"/>
+      <c r="L1032" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>8942000</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>8935000</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>8942000</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>8934000</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>1.3061</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>-335.1176743600004</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
+      <c r="J1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr"/>
+      <c r="L1033" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>8936000</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>8935000</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>8939000</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>8935000</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>0.0509</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>-335.1176743600004</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1034" t="inlineStr"/>
+      <c r="J1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr"/>
+      <c r="L1034" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>8934000</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>8926000</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>8934000</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>8919000</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>4.4272</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>-339.5448743600004</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1035" t="inlineStr"/>
+      <c r="J1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr"/>
+      <c r="L1035" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>8925000</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>8910000</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>12.5195</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>-352.0643743600004</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1036" t="inlineStr"/>
+      <c r="J1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr"/>
+      <c r="L1036" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>8913000</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>8908000</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>8917000</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>8908000</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>5.1677</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>-357.2320743600005</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1037" t="inlineStr"/>
+      <c r="J1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr"/>
+      <c r="L1037" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>8911000</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>8927000</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>8911000</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>0.8963</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>-356.3357743600005</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1038" t="inlineStr"/>
+      <c r="J1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr"/>
+      <c r="L1038" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>8922000</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>8925000</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>8934000</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>8921000</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>3.67368766</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>-352.6620867000005</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1039" t="inlineStr"/>
+      <c r="J1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr"/>
+      <c r="L1039" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="1" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>8925000</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>8925000</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>2.1417</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>-354.8037867000005</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1040" t="inlineStr"/>
+      <c r="J1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr"/>
+      <c r="L1040" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>8917000</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>8924000</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>8911000</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>4.4722</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>-350.3315867000005</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1041" t="inlineStr"/>
+      <c r="J1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr"/>
+      <c r="L1041" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>8922000</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>8918000</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>8926000</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>8918000</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>1.12904265</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>-349.2025440500005</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1042" t="inlineStr"/>
+      <c r="J1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr"/>
+      <c r="L1042" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>8915000</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>8918000</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>8918000</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>0.6488</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>-349.2025440500005</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1043" t="inlineStr"/>
+      <c r="J1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr"/>
+      <c r="L1043" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>8920000</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>8925000</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>1.511</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>-350.7135440500006</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1044" t="inlineStr"/>
+      <c r="J1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr"/>
+      <c r="L1044" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>8915000</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>8908000</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>8917000</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>8906000</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>2.02979155</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>-352.7433356000006</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1045" t="inlineStr"/>
+      <c r="J1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr"/>
+      <c r="L1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>8910000</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>8906000</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>6.3169</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>-346.4264356000006</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1046" t="inlineStr"/>
+      <c r="J1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr"/>
+      <c r="L1046" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>8904000</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>8900000</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>12.05811041</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>-358.4845460100006</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1047" t="inlineStr"/>
+      <c r="J1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr"/>
+      <c r="L1047" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>8901000</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>8900000</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>3.5851</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>-354.8994460100006</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1048" t="inlineStr"/>
+      <c r="J1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr"/>
+      <c r="L1048" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>8911000</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>8904000</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>8911000</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>8903000</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>0.4028</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>-355.3022460100006</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1049" t="inlineStr"/>
+      <c r="J1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr"/>
+      <c r="L1049" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>8904000</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>8904000</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>8904000</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>8900000</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>1.8177</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>-355.3022460100006</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>8904000</v>
+      </c>
+      <c r="J1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L989" t="n">
-        <v>1</v>
-      </c>
-      <c r="M989" t="inlineStr"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="1" t="n">
-        <v>988</v>
-      </c>
-      <c r="B990" t="n">
-        <v>8929000</v>
-      </c>
-      <c r="C990" t="n">
-        <v>8939000</v>
-      </c>
-      <c r="D990" t="n">
-        <v>8940000</v>
-      </c>
-      <c r="E990" t="n">
-        <v>8928000</v>
-      </c>
-      <c r="F990" t="n">
-        <v>8.5397</v>
-      </c>
-      <c r="G990" t="n">
-        <v>-387.3571689100007</v>
-      </c>
-      <c r="H990" t="n">
-        <v>1</v>
-      </c>
-      <c r="I990" t="n">
-        <v>8929000</v>
-      </c>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L990" t="n">
-        <v>1</v>
-      </c>
-      <c r="M990" t="inlineStr"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="1" t="n">
-        <v>989</v>
-      </c>
-      <c r="B991" t="n">
-        <v>8934000</v>
-      </c>
-      <c r="C991" t="n">
-        <v>8940000</v>
-      </c>
-      <c r="D991" t="n">
-        <v>8940000</v>
-      </c>
-      <c r="E991" t="n">
-        <v>8933000</v>
-      </c>
-      <c r="F991" t="n">
-        <v>0.1926</v>
-      </c>
-      <c r="G991" t="n">
-        <v>-387.1645689100006</v>
-      </c>
-      <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L991" t="n">
-        <v>1</v>
-      </c>
-      <c r="M991" t="inlineStr"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="1" t="n">
-        <v>990</v>
-      </c>
-      <c r="B992" t="n">
-        <v>8939000</v>
-      </c>
-      <c r="C992" t="n">
-        <v>8935000</v>
-      </c>
-      <c r="D992" t="n">
-        <v>8941000</v>
-      </c>
-      <c r="E992" t="n">
-        <v>8935000</v>
-      </c>
-      <c r="F992" t="n">
-        <v>0.1121</v>
-      </c>
-      <c r="G992" t="n">
-        <v>-387.2766689100006</v>
-      </c>
-      <c r="H992" t="n">
-        <v>1</v>
-      </c>
-      <c r="I992" t="n">
-        <v>8940000</v>
-      </c>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L992" t="n">
-        <v>1</v>
-      </c>
-      <c r="M992" t="inlineStr"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="1" t="n">
-        <v>991</v>
-      </c>
-      <c r="B993" t="n">
-        <v>8938000</v>
-      </c>
-      <c r="C993" t="n">
-        <v>8933000</v>
-      </c>
-      <c r="D993" t="n">
-        <v>8939000</v>
-      </c>
-      <c r="E993" t="n">
-        <v>8930000</v>
-      </c>
-      <c r="F993" t="n">
-        <v>0.78826924</v>
-      </c>
-      <c r="G993" t="n">
-        <v>-388.0649381500006</v>
-      </c>
-      <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L993" t="n">
-        <v>1</v>
-      </c>
-      <c r="M993" t="inlineStr"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="1" t="n">
-        <v>992</v>
-      </c>
-      <c r="B994" t="n">
-        <v>8931000</v>
-      </c>
-      <c r="C994" t="n">
-        <v>8930000</v>
-      </c>
-      <c r="D994" t="n">
-        <v>8936000</v>
-      </c>
-      <c r="E994" t="n">
-        <v>8930000</v>
-      </c>
-      <c r="F994" t="n">
-        <v>0.7933</v>
-      </c>
-      <c r="G994" t="n">
-        <v>-388.8582381500006</v>
-      </c>
-      <c r="H994" t="n">
-        <v>1</v>
-      </c>
-      <c r="I994" t="n">
-        <v>8933000</v>
-      </c>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L994" t="n">
-        <v>1</v>
-      </c>
-      <c r="M994" t="inlineStr"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="1" t="n">
-        <v>993</v>
-      </c>
-      <c r="B995" t="n">
-        <v>8929000</v>
-      </c>
-      <c r="C995" t="n">
-        <v>8940000</v>
-      </c>
-      <c r="D995" t="n">
-        <v>8940000</v>
-      </c>
-      <c r="E995" t="n">
-        <v>8927000</v>
-      </c>
-      <c r="F995" t="n">
-        <v>18.5273</v>
-      </c>
-      <c r="G995" t="n">
-        <v>-370.3309381500006</v>
-      </c>
-      <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L995" t="n">
-        <v>1</v>
-      </c>
-      <c r="M995" t="inlineStr"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="1" t="n">
-        <v>994</v>
-      </c>
-      <c r="B996" t="n">
-        <v>8942000</v>
-      </c>
-      <c r="C996" t="n">
-        <v>8951000</v>
-      </c>
-      <c r="D996" t="n">
-        <v>8951000</v>
-      </c>
-      <c r="E996" t="n">
-        <v>8938000</v>
-      </c>
-      <c r="F996" t="n">
-        <v>4.7447</v>
-      </c>
-      <c r="G996" t="n">
-        <v>-365.5862381500006</v>
-      </c>
-      <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L996" t="n">
-        <v>1</v>
-      </c>
-      <c r="M996" t="inlineStr"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="1" t="n">
-        <v>995</v>
-      </c>
-      <c r="B997" t="n">
-        <v>8949000</v>
-      </c>
-      <c r="C997" t="n">
-        <v>8951000</v>
-      </c>
-      <c r="D997" t="n">
-        <v>8951000</v>
-      </c>
-      <c r="E997" t="n">
-        <v>8946000</v>
-      </c>
-      <c r="F997" t="n">
-        <v>4.1293</v>
-      </c>
-      <c r="G997" t="n">
-        <v>-365.5862381500006</v>
-      </c>
-      <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L997" t="n">
-        <v>1</v>
-      </c>
-      <c r="M997" t="inlineStr"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="1" t="n">
-        <v>996</v>
-      </c>
-      <c r="B998" t="n">
-        <v>8952000</v>
-      </c>
-      <c r="C998" t="n">
-        <v>8946000</v>
-      </c>
-      <c r="D998" t="n">
-        <v>8954000</v>
-      </c>
-      <c r="E998" t="n">
-        <v>8946000</v>
-      </c>
-      <c r="F998" t="n">
-        <v>4.06502224</v>
-      </c>
-      <c r="G998" t="n">
-        <v>-369.6512603900006</v>
-      </c>
-      <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L998" t="n">
-        <v>1</v>
-      </c>
-      <c r="M998" t="inlineStr"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="1" t="n">
-        <v>997</v>
-      </c>
-      <c r="B999" t="n">
-        <v>8946000</v>
-      </c>
-      <c r="C999" t="n">
-        <v>8935000</v>
-      </c>
-      <c r="D999" t="n">
-        <v>8946000</v>
-      </c>
-      <c r="E999" t="n">
-        <v>8933000</v>
-      </c>
-      <c r="F999" t="n">
-        <v>0.5311</v>
-      </c>
-      <c r="G999" t="n">
-        <v>-370.1823603900006</v>
-      </c>
-      <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L999" t="n">
-        <v>1</v>
-      </c>
-      <c r="M999" t="inlineStr"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="1" t="n">
-        <v>998</v>
-      </c>
-      <c r="B1000" t="n">
-        <v>8942000</v>
-      </c>
-      <c r="C1000" t="n">
-        <v>8939000</v>
-      </c>
-      <c r="D1000" t="n">
-        <v>8945000</v>
-      </c>
-      <c r="E1000" t="n">
-        <v>8937000</v>
-      </c>
-      <c r="F1000" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="G1000" t="n">
-        <v>-370.0223603900005</v>
-      </c>
-      <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1000" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1000" t="inlineStr"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="1" t="n">
-        <v>999</v>
-      </c>
-      <c r="B1001" t="n">
-        <v>8940000</v>
-      </c>
-      <c r="C1001" t="n">
-        <v>8942000</v>
-      </c>
-      <c r="D1001" t="n">
-        <v>8944000</v>
-      </c>
-      <c r="E1001" t="n">
-        <v>8939000</v>
-      </c>
-      <c r="F1001" t="n">
-        <v>0.15268885</v>
-      </c>
-      <c r="G1001" t="n">
-        <v>-369.8696715400005</v>
-      </c>
-      <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1001" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1001" t="inlineStr"/>
-    </row>
-    <row r="1002">
-      <c r="A1002" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B1002" t="n">
-        <v>8941000</v>
-      </c>
-      <c r="C1002" t="n">
-        <v>8943000</v>
-      </c>
-      <c r="D1002" t="n">
-        <v>8944000</v>
-      </c>
-      <c r="E1002" t="n">
-        <v>8941000</v>
-      </c>
-      <c r="F1002" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G1002" t="n">
-        <v>-369.7496715400005</v>
-      </c>
-      <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1002" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1002" t="inlineStr"/>
-    </row>
-    <row r="1003">
-      <c r="A1003" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B1003" t="n">
-        <v>8941000</v>
-      </c>
-      <c r="C1003" t="n">
-        <v>8946000</v>
-      </c>
-      <c r="D1003" t="n">
-        <v>8954000</v>
-      </c>
-      <c r="E1003" t="n">
-        <v>8941000</v>
-      </c>
-      <c r="F1003" t="n">
-        <v>1.96871115</v>
-      </c>
-      <c r="G1003" t="n">
-        <v>-367.7809603900005</v>
-      </c>
-      <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1003" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1003" t="inlineStr"/>
-    </row>
-    <row r="1004">
-      <c r="A1004" s="1" t="n">
-        <v>1002</v>
-      </c>
-      <c r="B1004" t="n">
-        <v>8950000</v>
-      </c>
-      <c r="C1004" t="n">
-        <v>8952000</v>
-      </c>
-      <c r="D1004" t="n">
-        <v>8954000</v>
-      </c>
-      <c r="E1004" t="n">
-        <v>8950000</v>
-      </c>
-      <c r="F1004" t="n">
-        <v>2.99743363</v>
-      </c>
-      <c r="G1004" t="n">
-        <v>-364.7835267600005</v>
-      </c>
-      <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1004" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1004" t="inlineStr"/>
-    </row>
-    <row r="1005">
-      <c r="A1005" s="1" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B1005" t="n">
-        <v>8954000</v>
-      </c>
-      <c r="C1005" t="n">
-        <v>8956000</v>
-      </c>
-      <c r="D1005" t="n">
-        <v>8962000</v>
-      </c>
-      <c r="E1005" t="n">
-        <v>8954000</v>
-      </c>
-      <c r="F1005" t="n">
-        <v>4.39664413</v>
-      </c>
-      <c r="G1005" t="n">
-        <v>-360.3868826300005</v>
-      </c>
-      <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1005" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1005" t="inlineStr"/>
-    </row>
-    <row r="1006">
-      <c r="A1006" s="1" t="n">
-        <v>1004</v>
-      </c>
-      <c r="B1006" t="n">
-        <v>8954000</v>
-      </c>
-      <c r="C1006" t="n">
-        <v>8963000</v>
-      </c>
-      <c r="D1006" t="n">
-        <v>8966000</v>
-      </c>
-      <c r="E1006" t="n">
-        <v>8947000</v>
-      </c>
-      <c r="F1006" t="n">
-        <v>1.9389</v>
-      </c>
-      <c r="G1006" t="n">
-        <v>-358.4479826300005</v>
-      </c>
-      <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1006" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1006" t="inlineStr"/>
-    </row>
-    <row r="1007">
-      <c r="A1007" s="1" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B1007" t="n">
-        <v>8963000</v>
-      </c>
-      <c r="C1007" t="n">
-        <v>8958000</v>
-      </c>
-      <c r="D1007" t="n">
-        <v>8963000</v>
-      </c>
-      <c r="E1007" t="n">
-        <v>8956000</v>
-      </c>
-      <c r="F1007" t="n">
-        <v>0.1631</v>
-      </c>
-      <c r="G1007" t="n">
-        <v>-358.6110826300005</v>
-      </c>
-      <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1007" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1007" t="inlineStr"/>
-    </row>
-    <row r="1008">
-      <c r="A1008" s="1" t="n">
-        <v>1006</v>
-      </c>
-      <c r="B1008" t="n">
-        <v>8959000</v>
-      </c>
-      <c r="C1008" t="n">
-        <v>8950000</v>
-      </c>
-      <c r="D1008" t="n">
-        <v>8961000</v>
-      </c>
-      <c r="E1008" t="n">
-        <v>8950000</v>
-      </c>
-      <c r="F1008" t="n">
-        <v>1.0383</v>
-      </c>
-      <c r="G1008" t="n">
-        <v>-359.6493826300005</v>
-      </c>
-      <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1008" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1008" t="inlineStr"/>
-    </row>
-    <row r="1009">
-      <c r="A1009" s="1" t="n">
-        <v>1007</v>
-      </c>
-      <c r="B1009" t="n">
-        <v>8957000</v>
-      </c>
-      <c r="C1009" t="n">
-        <v>8961000</v>
-      </c>
-      <c r="D1009" t="n">
-        <v>8961000</v>
-      </c>
-      <c r="E1009" t="n">
-        <v>8957000</v>
-      </c>
-      <c r="F1009" t="n">
-        <v>0.0393</v>
-      </c>
-      <c r="G1009" t="n">
-        <v>-359.6100826300005</v>
-      </c>
-      <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1009" t="inlineStr"/>
-    </row>
-    <row r="1010">
-      <c r="A1010" s="1" t="n">
-        <v>1008</v>
-      </c>
-      <c r="B1010" t="n">
-        <v>8958000</v>
-      </c>
-      <c r="C1010" t="n">
-        <v>8957000</v>
-      </c>
-      <c r="D1010" t="n">
-        <v>8958000</v>
-      </c>
-      <c r="E1010" t="n">
-        <v>8954000</v>
-      </c>
-      <c r="F1010" t="n">
-        <v>0.39138131</v>
-      </c>
-      <c r="G1010" t="n">
-        <v>-360.0014639400005</v>
-      </c>
-      <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1010" t="inlineStr"/>
-    </row>
-    <row r="1011">
-      <c r="A1011" s="1" t="n">
-        <v>1009</v>
-      </c>
-      <c r="B1011" t="n">
-        <v>8958000</v>
-      </c>
-      <c r="C1011" t="n">
-        <v>8958000</v>
-      </c>
-      <c r="D1011" t="n">
-        <v>8959000</v>
-      </c>
-      <c r="E1011" t="n">
-        <v>8950000</v>
-      </c>
-      <c r="F1011" t="n">
-        <v>0.5342</v>
-      </c>
-      <c r="G1011" t="n">
-        <v>-359.4672639400005</v>
-      </c>
-      <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1011" t="inlineStr"/>
-    </row>
-    <row r="1012">
-      <c r="A1012" s="1" t="n">
-        <v>1010</v>
-      </c>
-      <c r="B1012" t="n">
-        <v>8950000</v>
-      </c>
-      <c r="C1012" t="n">
-        <v>8955000</v>
-      </c>
-      <c r="D1012" t="n">
-        <v>8958000</v>
-      </c>
-      <c r="E1012" t="n">
-        <v>8945000</v>
-      </c>
-      <c r="F1012" t="n">
-        <v>1.6717</v>
-      </c>
-      <c r="G1012" t="n">
-        <v>-361.1389639400005</v>
-      </c>
-      <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1012" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1012" t="inlineStr"/>
-    </row>
-    <row r="1013">
-      <c r="A1013" s="1" t="n">
-        <v>1011</v>
-      </c>
-      <c r="B1013" t="n">
-        <v>8955000</v>
-      </c>
-      <c r="C1013" t="n">
-        <v>8956000</v>
-      </c>
-      <c r="D1013" t="n">
-        <v>8956000</v>
-      </c>
-      <c r="E1013" t="n">
-        <v>8950000</v>
-      </c>
-      <c r="F1013" t="n">
-        <v>0.1414</v>
-      </c>
-      <c r="G1013" t="n">
-        <v>-360.9975639400005</v>
-      </c>
-      <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1013" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1013" t="inlineStr"/>
-    </row>
-    <row r="1014">
-      <c r="A1014" s="1" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B1014" t="n">
-        <v>8954000</v>
-      </c>
-      <c r="C1014" t="n">
-        <v>8955000</v>
-      </c>
-      <c r="D1014" t="n">
-        <v>8956000</v>
-      </c>
-      <c r="E1014" t="n">
-        <v>8954000</v>
-      </c>
-      <c r="F1014" t="n">
-        <v>0.243</v>
-      </c>
-      <c r="G1014" t="n">
-        <v>-361.2405639400005</v>
-      </c>
-      <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1014" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1014" t="inlineStr"/>
-    </row>
-    <row r="1015">
-      <c r="A1015" s="1" t="n">
-        <v>1013</v>
-      </c>
-      <c r="B1015" t="n">
-        <v>8955000</v>
-      </c>
-      <c r="C1015" t="n">
-        <v>8948000</v>
-      </c>
-      <c r="D1015" t="n">
-        <v>8956000</v>
-      </c>
-      <c r="E1015" t="n">
-        <v>8947000</v>
-      </c>
-      <c r="F1015" t="n">
-        <v>0.5515</v>
-      </c>
-      <c r="G1015" t="n">
-        <v>-361.7920639400004</v>
-      </c>
-      <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1015" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1015" t="inlineStr"/>
-    </row>
-    <row r="1016">
-      <c r="A1016" s="1" t="n">
-        <v>1014</v>
-      </c>
-      <c r="B1016" t="n">
-        <v>8947000</v>
-      </c>
-      <c r="C1016" t="n">
-        <v>8940000</v>
-      </c>
-      <c r="D1016" t="n">
-        <v>8948000</v>
-      </c>
-      <c r="E1016" t="n">
-        <v>8939000</v>
-      </c>
-      <c r="F1016" t="n">
-        <v>2.38030078</v>
-      </c>
-      <c r="G1016" t="n">
-        <v>-364.1723647200005</v>
-      </c>
-      <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1016" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1016" t="inlineStr"/>
-    </row>
-    <row r="1017">
-      <c r="A1017" s="1" t="n">
-        <v>1015</v>
-      </c>
-      <c r="B1017" t="n">
-        <v>8939000</v>
-      </c>
-      <c r="C1017" t="n">
-        <v>8943000</v>
-      </c>
-      <c r="D1017" t="n">
-        <v>8943000</v>
-      </c>
-      <c r="E1017" t="n">
-        <v>8933000</v>
-      </c>
-      <c r="F1017" t="n">
-        <v>0.9962</v>
-      </c>
-      <c r="G1017" t="n">
-        <v>-363.1761647200005</v>
-      </c>
-      <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1017" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1017" t="inlineStr"/>
-    </row>
-    <row r="1018">
-      <c r="A1018" s="1" t="n">
-        <v>1016</v>
-      </c>
-      <c r="B1018" t="n">
-        <v>8940000</v>
-      </c>
-      <c r="C1018" t="n">
-        <v>8944000</v>
-      </c>
-      <c r="D1018" t="n">
-        <v>8944000</v>
-      </c>
-      <c r="E1018" t="n">
-        <v>8940000</v>
-      </c>
-      <c r="F1018" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="G1018" t="n">
-        <v>-363.1451647200005</v>
-      </c>
-      <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1018" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1018" t="inlineStr"/>
-    </row>
-    <row r="1019">
-      <c r="A1019" s="1" t="n">
-        <v>1017</v>
-      </c>
-      <c r="B1019" t="n">
-        <v>8940000</v>
-      </c>
-      <c r="C1019" t="n">
-        <v>8949000</v>
-      </c>
-      <c r="D1019" t="n">
-        <v>8949000</v>
-      </c>
-      <c r="E1019" t="n">
-        <v>8937000</v>
-      </c>
-      <c r="F1019" t="n">
-        <v>6.27589036</v>
-      </c>
-      <c r="G1019" t="n">
-        <v>-356.8692743600005</v>
-      </c>
-      <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1019" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1019" t="inlineStr"/>
-    </row>
-    <row r="1020">
-      <c r="A1020" s="1" t="n">
-        <v>1018</v>
-      </c>
-      <c r="B1020" t="n">
-        <v>8948000</v>
-      </c>
-      <c r="C1020" t="n">
-        <v>8939000</v>
-      </c>
-      <c r="D1020" t="n">
-        <v>8949000</v>
-      </c>
-      <c r="E1020" t="n">
-        <v>8936000</v>
-      </c>
-      <c r="F1020" t="n">
-        <v>0.7426</v>
-      </c>
-      <c r="G1020" t="n">
-        <v>-357.6118743600005</v>
-      </c>
-      <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1020" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1020" t="inlineStr"/>
-    </row>
-    <row r="1021">
-      <c r="A1021" s="1" t="n">
-        <v>1019</v>
-      </c>
-      <c r="B1021" t="n">
-        <v>8939000</v>
-      </c>
-      <c r="C1021" t="n">
-        <v>8940000</v>
-      </c>
-      <c r="D1021" t="n">
-        <v>8942000</v>
-      </c>
-      <c r="E1021" t="n">
-        <v>8935000</v>
-      </c>
-      <c r="F1021" t="n">
-        <v>12.538</v>
-      </c>
-      <c r="G1021" t="n">
-        <v>-345.0738743600004</v>
-      </c>
-      <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1021" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1021" t="inlineStr"/>
-    </row>
-    <row r="1022">
-      <c r="A1022" s="1" t="n">
-        <v>1020</v>
-      </c>
-      <c r="B1022" t="n">
-        <v>8935000</v>
-      </c>
-      <c r="C1022" t="n">
-        <v>8930000</v>
-      </c>
-      <c r="D1022" t="n">
-        <v>8936000</v>
-      </c>
-      <c r="E1022" t="n">
-        <v>8930000</v>
-      </c>
-      <c r="F1022" t="n">
-        <v>1.3515</v>
-      </c>
-      <c r="G1022" t="n">
-        <v>-346.4253743600004</v>
-      </c>
-      <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1022" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1022" t="inlineStr"/>
-    </row>
-    <row r="1023">
-      <c r="A1023" s="1" t="n">
-        <v>1021</v>
-      </c>
-      <c r="B1023" t="n">
-        <v>8934000</v>
-      </c>
-      <c r="C1023" t="n">
-        <v>8938000</v>
-      </c>
-      <c r="D1023" t="n">
-        <v>8939000</v>
-      </c>
-      <c r="E1023" t="n">
-        <v>8933000</v>
-      </c>
-      <c r="F1023" t="n">
-        <v>1.4823</v>
-      </c>
-      <c r="G1023" t="n">
-        <v>-344.9430743600004</v>
-      </c>
-      <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1023" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1023" t="inlineStr"/>
-    </row>
-    <row r="1024">
-      <c r="A1024" s="1" t="n">
-        <v>1022</v>
-      </c>
-      <c r="B1024" t="n">
-        <v>8940000</v>
-      </c>
-      <c r="C1024" t="n">
-        <v>8941000</v>
-      </c>
-      <c r="D1024" t="n">
-        <v>8941000</v>
-      </c>
-      <c r="E1024" t="n">
-        <v>8940000</v>
-      </c>
-      <c r="F1024" t="n">
-        <v>0.1677</v>
-      </c>
-      <c r="G1024" t="n">
-        <v>-344.7753743600004</v>
-      </c>
-      <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1024" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1024" t="inlineStr"/>
-    </row>
-    <row r="1025">
-      <c r="A1025" s="1" t="n">
-        <v>1023</v>
-      </c>
-      <c r="B1025" t="n">
-        <v>8940000</v>
-      </c>
-      <c r="C1025" t="n">
-        <v>8938000</v>
-      </c>
-      <c r="D1025" t="n">
-        <v>8943000</v>
-      </c>
-      <c r="E1025" t="n">
-        <v>8936000</v>
-      </c>
-      <c r="F1025" t="n">
-        <v>2.8704</v>
-      </c>
-      <c r="G1025" t="n">
-        <v>-347.6457743600004</v>
-      </c>
-      <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1025" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1025" t="inlineStr"/>
-    </row>
-    <row r="1026">
-      <c r="A1026" s="1" t="n">
-        <v>1024</v>
-      </c>
-      <c r="B1026" t="n">
-        <v>8937000</v>
-      </c>
-      <c r="C1026" t="n">
-        <v>8930000</v>
-      </c>
-      <c r="D1026" t="n">
-        <v>8938000</v>
-      </c>
-      <c r="E1026" t="n">
-        <v>8930000</v>
-      </c>
-      <c r="F1026" t="n">
-        <v>0.5312</v>
-      </c>
-      <c r="G1026" t="n">
-        <v>-348.1769743600004</v>
-      </c>
-      <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1026" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1026" t="inlineStr"/>
-    </row>
-    <row r="1027">
-      <c r="A1027" s="1" t="n">
-        <v>1025</v>
-      </c>
-      <c r="B1027" t="n">
-        <v>8930000</v>
-      </c>
-      <c r="C1027" t="n">
-        <v>8933000</v>
-      </c>
-      <c r="D1027" t="n">
-        <v>8938000</v>
-      </c>
-      <c r="E1027" t="n">
-        <v>8930000</v>
-      </c>
-      <c r="F1027" t="n">
-        <v>10.03831036</v>
-      </c>
-      <c r="G1027" t="n">
-        <v>-338.1386640000004</v>
-      </c>
-      <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1027" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1027" t="inlineStr"/>
-    </row>
-    <row r="1028">
-      <c r="A1028" s="1" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B1028" t="n">
-        <v>8936000</v>
-      </c>
-      <c r="C1028" t="n">
-        <v>8937000</v>
-      </c>
-      <c r="D1028" t="n">
-        <v>8937000</v>
-      </c>
-      <c r="E1028" t="n">
-        <v>8932000</v>
-      </c>
-      <c r="F1028" t="n">
-        <v>0.8028999999999999</v>
-      </c>
-      <c r="G1028" t="n">
-        <v>-337.3357640000004</v>
-      </c>
-      <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1028" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1028" t="inlineStr"/>
-    </row>
-    <row r="1029">
-      <c r="A1029" s="1" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B1029" t="n">
-        <v>8937000</v>
-      </c>
-      <c r="C1029" t="n">
-        <v>8946000</v>
-      </c>
-      <c r="D1029" t="n">
-        <v>8946000</v>
-      </c>
-      <c r="E1029" t="n">
-        <v>8936000</v>
-      </c>
-      <c r="F1029" t="n">
-        <v>3.00018964</v>
-      </c>
-      <c r="G1029" t="n">
-        <v>-334.3355743600004</v>
-      </c>
-      <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1029" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1029" t="inlineStr"/>
-    </row>
-    <row r="1030">
-      <c r="A1030" s="1" t="n">
-        <v>1028</v>
-      </c>
-      <c r="B1030" t="n">
-        <v>8948000</v>
-      </c>
-      <c r="C1030" t="n">
-        <v>8943000</v>
-      </c>
-      <c r="D1030" t="n">
-        <v>8949000</v>
-      </c>
-      <c r="E1030" t="n">
-        <v>8943000</v>
-      </c>
-      <c r="F1030" t="n">
-        <v>0.5101</v>
-      </c>
-      <c r="G1030" t="n">
-        <v>-334.8456743600004</v>
-      </c>
-      <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1030" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1030" t="inlineStr"/>
-    </row>
-    <row r="1031">
-      <c r="A1031" s="1" t="n">
-        <v>1029</v>
-      </c>
-      <c r="B1031" t="n">
-        <v>8948000</v>
-      </c>
-      <c r="C1031" t="n">
-        <v>8948000</v>
-      </c>
-      <c r="D1031" t="n">
-        <v>8948000</v>
-      </c>
-      <c r="E1031" t="n">
-        <v>8942000</v>
-      </c>
-      <c r="F1031" t="n">
-        <v>1.0513</v>
-      </c>
-      <c r="G1031" t="n">
-        <v>-333.7943743600004</v>
-      </c>
-      <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1031" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1031" t="inlineStr"/>
-    </row>
-    <row r="1032">
-      <c r="A1032" s="1" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B1032" t="n">
-        <v>8943000</v>
-      </c>
-      <c r="C1032" t="n">
-        <v>8943000</v>
-      </c>
-      <c r="D1032" t="n">
-        <v>8948000</v>
-      </c>
-      <c r="E1032" t="n">
-        <v>8942000</v>
-      </c>
-      <c r="F1032" t="n">
-        <v>0.0172</v>
-      </c>
-      <c r="G1032" t="n">
-        <v>-333.8115743600004</v>
-      </c>
-      <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1032" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1032" t="inlineStr"/>
-    </row>
-    <row r="1033">
-      <c r="A1033" s="1" t="n">
-        <v>1031</v>
-      </c>
-      <c r="B1033" t="n">
-        <v>8942000</v>
-      </c>
-      <c r="C1033" t="n">
-        <v>8935000</v>
-      </c>
-      <c r="D1033" t="n">
-        <v>8942000</v>
-      </c>
-      <c r="E1033" t="n">
-        <v>8934000</v>
-      </c>
-      <c r="F1033" t="n">
-        <v>1.3061</v>
-      </c>
-      <c r="G1033" t="n">
-        <v>-335.1176743600004</v>
-      </c>
-      <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1033" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1033" t="inlineStr"/>
-    </row>
-    <row r="1034">
-      <c r="A1034" s="1" t="n">
-        <v>1032</v>
-      </c>
-      <c r="B1034" t="n">
-        <v>8936000</v>
-      </c>
-      <c r="C1034" t="n">
-        <v>8935000</v>
-      </c>
-      <c r="D1034" t="n">
-        <v>8939000</v>
-      </c>
-      <c r="E1034" t="n">
-        <v>8935000</v>
-      </c>
-      <c r="F1034" t="n">
-        <v>0.0509</v>
-      </c>
-      <c r="G1034" t="n">
-        <v>-335.1176743600004</v>
-      </c>
-      <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1034" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1034" t="inlineStr"/>
-    </row>
-    <row r="1035">
-      <c r="A1035" s="1" t="n">
-        <v>1033</v>
-      </c>
-      <c r="B1035" t="n">
-        <v>8934000</v>
-      </c>
-      <c r="C1035" t="n">
-        <v>8926000</v>
-      </c>
-      <c r="D1035" t="n">
-        <v>8934000</v>
-      </c>
-      <c r="E1035" t="n">
-        <v>8919000</v>
-      </c>
-      <c r="F1035" t="n">
-        <v>4.4272</v>
-      </c>
-      <c r="G1035" t="n">
-        <v>-339.5448743600004</v>
-      </c>
-      <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1035" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1035" t="inlineStr"/>
-    </row>
-    <row r="1036">
-      <c r="A1036" s="1" t="n">
-        <v>1034</v>
-      </c>
-      <c r="B1036" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="C1036" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="D1036" t="n">
-        <v>8925000</v>
-      </c>
-      <c r="E1036" t="n">
-        <v>8910000</v>
-      </c>
-      <c r="F1036" t="n">
-        <v>12.5195</v>
-      </c>
-      <c r="G1036" t="n">
-        <v>-352.0643743600004</v>
-      </c>
-      <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1036" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1036" t="inlineStr"/>
-    </row>
-    <row r="1037">
-      <c r="A1037" s="1" t="n">
-        <v>1035</v>
-      </c>
-      <c r="B1037" t="n">
-        <v>8913000</v>
-      </c>
-      <c r="C1037" t="n">
-        <v>8908000</v>
-      </c>
-      <c r="D1037" t="n">
-        <v>8917000</v>
-      </c>
-      <c r="E1037" t="n">
-        <v>8908000</v>
-      </c>
-      <c r="F1037" t="n">
-        <v>5.1677</v>
-      </c>
-      <c r="G1037" t="n">
-        <v>-357.2320743600005</v>
-      </c>
-      <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1037" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1037" t="inlineStr"/>
-    </row>
-    <row r="1038">
-      <c r="A1038" s="1" t="n">
-        <v>1036</v>
-      </c>
-      <c r="B1038" t="n">
-        <v>8911000</v>
-      </c>
-      <c r="C1038" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="D1038" t="n">
-        <v>8927000</v>
-      </c>
-      <c r="E1038" t="n">
-        <v>8911000</v>
-      </c>
-      <c r="F1038" t="n">
-        <v>0.8963</v>
-      </c>
-      <c r="G1038" t="n">
-        <v>-356.3357743600005</v>
-      </c>
-      <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1038" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1038" t="inlineStr"/>
-    </row>
-    <row r="1039">
-      <c r="A1039" s="1" t="n">
-        <v>1037</v>
-      </c>
-      <c r="B1039" t="n">
-        <v>8922000</v>
-      </c>
-      <c r="C1039" t="n">
-        <v>8925000</v>
-      </c>
-      <c r="D1039" t="n">
-        <v>8934000</v>
-      </c>
-      <c r="E1039" t="n">
-        <v>8921000</v>
-      </c>
-      <c r="F1039" t="n">
-        <v>3.67368766</v>
-      </c>
-      <c r="G1039" t="n">
-        <v>-352.6620867000005</v>
-      </c>
-      <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1039" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1039" t="inlineStr"/>
-    </row>
-    <row r="1040">
-      <c r="A1040" s="1" t="n">
-        <v>1038</v>
-      </c>
-      <c r="B1040" t="n">
-        <v>8925000</v>
-      </c>
-      <c r="C1040" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="D1040" t="n">
-        <v>8925000</v>
-      </c>
-      <c r="E1040" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="F1040" t="n">
-        <v>2.1417</v>
-      </c>
-      <c r="G1040" t="n">
-        <v>-354.8037867000005</v>
-      </c>
-      <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1040" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1040" t="inlineStr"/>
-    </row>
-    <row r="1041">
-      <c r="A1041" s="1" t="n">
-        <v>1039</v>
-      </c>
-      <c r="B1041" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="C1041" t="n">
-        <v>8917000</v>
-      </c>
-      <c r="D1041" t="n">
-        <v>8924000</v>
-      </c>
-      <c r="E1041" t="n">
-        <v>8911000</v>
-      </c>
-      <c r="F1041" t="n">
-        <v>4.4722</v>
-      </c>
-      <c r="G1041" t="n">
-        <v>-350.3315867000005</v>
-      </c>
-      <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1041" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1041" t="inlineStr"/>
-    </row>
-    <row r="1042">
-      <c r="A1042" s="1" t="n">
-        <v>1040</v>
-      </c>
-      <c r="B1042" t="n">
-        <v>8922000</v>
-      </c>
-      <c r="C1042" t="n">
-        <v>8918000</v>
-      </c>
-      <c r="D1042" t="n">
-        <v>8926000</v>
-      </c>
-      <c r="E1042" t="n">
-        <v>8918000</v>
-      </c>
-      <c r="F1042" t="n">
-        <v>1.12904265</v>
-      </c>
-      <c r="G1042" t="n">
-        <v>-349.2025440500005</v>
-      </c>
-      <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1042" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1042" t="inlineStr"/>
-    </row>
-    <row r="1043">
-      <c r="A1043" s="1" t="n">
-        <v>1041</v>
-      </c>
-      <c r="B1043" t="n">
-        <v>8915000</v>
-      </c>
-      <c r="C1043" t="n">
-        <v>8918000</v>
-      </c>
-      <c r="D1043" t="n">
-        <v>8918000</v>
-      </c>
-      <c r="E1043" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="F1043" t="n">
-        <v>0.6488</v>
-      </c>
-      <c r="G1043" t="n">
-        <v>-349.2025440500005</v>
-      </c>
-      <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1043" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1043" t="inlineStr"/>
-    </row>
-    <row r="1044">
-      <c r="A1044" s="1" t="n">
-        <v>1042</v>
-      </c>
-      <c r="B1044" t="n">
-        <v>8920000</v>
-      </c>
-      <c r="C1044" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="D1044" t="n">
-        <v>8925000</v>
-      </c>
-      <c r="E1044" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="F1044" t="n">
-        <v>1.511</v>
-      </c>
-      <c r="G1044" t="n">
-        <v>-350.7135440500006</v>
-      </c>
-      <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1044" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1044" t="inlineStr"/>
-    </row>
-    <row r="1045">
-      <c r="A1045" s="1" t="n">
-        <v>1043</v>
-      </c>
-      <c r="B1045" t="n">
-        <v>8915000</v>
-      </c>
-      <c r="C1045" t="n">
-        <v>8908000</v>
-      </c>
-      <c r="D1045" t="n">
-        <v>8917000</v>
-      </c>
-      <c r="E1045" t="n">
-        <v>8906000</v>
-      </c>
-      <c r="F1045" t="n">
-        <v>2.02979155</v>
-      </c>
-      <c r="G1045" t="n">
-        <v>-352.7433356000006</v>
-      </c>
-      <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1045" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1045" t="inlineStr"/>
-    </row>
-    <row r="1046">
-      <c r="A1046" s="1" t="n">
-        <v>1044</v>
-      </c>
-      <c r="B1046" t="n">
-        <v>8910000</v>
-      </c>
-      <c r="C1046" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="D1046" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="E1046" t="n">
-        <v>8906000</v>
-      </c>
-      <c r="F1046" t="n">
-        <v>6.3169</v>
-      </c>
-      <c r="G1046" t="n">
-        <v>-346.4264356000006</v>
-      </c>
-      <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1046" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1046" t="inlineStr"/>
-    </row>
-    <row r="1047">
-      <c r="A1047" s="1" t="n">
-        <v>1045</v>
-      </c>
-      <c r="B1047" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="C1047" t="n">
-        <v>8904000</v>
-      </c>
-      <c r="D1047" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="E1047" t="n">
-        <v>8900000</v>
-      </c>
-      <c r="F1047" t="n">
-        <v>12.05811041</v>
-      </c>
-      <c r="G1047" t="n">
-        <v>-358.4845460100006</v>
-      </c>
-      <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1047" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1047" t="inlineStr"/>
-    </row>
-    <row r="1048">
-      <c r="A1048" s="1" t="n">
-        <v>1046</v>
-      </c>
-      <c r="B1048" t="n">
-        <v>8901000</v>
-      </c>
-      <c r="C1048" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="D1048" t="n">
-        <v>8912000</v>
-      </c>
-      <c r="E1048" t="n">
-        <v>8900000</v>
-      </c>
-      <c r="F1048" t="n">
-        <v>3.5851</v>
-      </c>
-      <c r="G1048" t="n">
-        <v>-354.8994460100006</v>
-      </c>
-      <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1048" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1048" t="inlineStr"/>
-    </row>
-    <row r="1049">
-      <c r="A1049" s="1" t="n">
-        <v>1047</v>
-      </c>
-      <c r="B1049" t="n">
-        <v>8911000</v>
-      </c>
-      <c r="C1049" t="n">
-        <v>8904000</v>
-      </c>
-      <c r="D1049" t="n">
-        <v>8911000</v>
-      </c>
-      <c r="E1049" t="n">
-        <v>8903000</v>
-      </c>
-      <c r="F1049" t="n">
-        <v>0.4028</v>
-      </c>
-      <c r="G1049" t="n">
-        <v>-355.3022460100006</v>
-      </c>
-      <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1049" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1049" t="inlineStr"/>
-    </row>
-    <row r="1050">
-      <c r="A1050" s="1" t="n">
-        <v>1048</v>
-      </c>
-      <c r="B1050" t="n">
-        <v>8904000</v>
-      </c>
-      <c r="C1050" t="n">
-        <v>8904000</v>
-      </c>
-      <c r="D1050" t="n">
-        <v>8904000</v>
-      </c>
-      <c r="E1050" t="n">
-        <v>8900000</v>
-      </c>
-      <c r="F1050" t="n">
-        <v>1.8177</v>
-      </c>
-      <c r="G1050" t="n">
-        <v>-355.3022460100006</v>
-      </c>
-      <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35324,9 +35074,11 @@
         <v>-351.8895807700006</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>8904000</v>
+      </c>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
@@ -35361,9 +35113,11 @@
         <v>-351.2394807700006</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>8910000</v>
+      </c>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
@@ -35398,9 +35152,11 @@
         <v>-349.2831807700006</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>8916000</v>
+      </c>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
@@ -35435,9 +35191,11 @@
         <v>-352.0342807700006</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>8933000</v>
+      </c>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
@@ -35731,9 +35489,11 @@
         <v>-350.3111455000006</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1062" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>8906000</v>
+      </c>
       <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
@@ -35768,9 +35528,11 @@
         <v>-347.1315455000006</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>8910000</v>
+      </c>
       <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
@@ -35805,9 +35567,11 @@
         <v>-344.5559455000006</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>8915000</v>
+      </c>
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
@@ -36471,9 +36235,11 @@
         <v>-350.5795455000004</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>8920000</v>
+      </c>
       <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr">
         <is>
@@ -36508,9 +36274,11 @@
         <v>-350.4652455000004</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>8914000</v>
+      </c>
       <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr">
         <is>
@@ -36545,9 +36313,11 @@
         <v>-349.0837685000004</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1084" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>8917000</v>
+      </c>
       <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr">
         <is>
@@ -36619,9 +36389,11 @@
         <v>-349.1105685000003</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1086" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>8918000</v>
+      </c>
       <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr">
         <is>
@@ -36656,9 +36428,11 @@
         <v>-348.0637685000003</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>8917000</v>
+      </c>
       <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr">
         <is>
@@ -36693,9 +36467,11 @@
         <v>-348.0637685000003</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>8930000</v>
+      </c>
       <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr">
         <is>
@@ -36730,9 +36506,11 @@
         <v>-350.4443685000003</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>8930000</v>
+      </c>
       <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr">
         <is>
@@ -36767,9 +36545,11 @@
         <v>-350.4062685000004</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>8923000</v>
+      </c>
       <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
@@ -36804,9 +36584,11 @@
         <v>-350.5447685000004</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>8927000</v>
+      </c>
       <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr">
         <is>
@@ -36841,9 +36623,11 @@
         <v>-351.0838685000004</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>8921000</v>
+      </c>
       <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
@@ -36878,9 +36662,11 @@
         <v>-351.1063685000004</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>8917000</v>
+      </c>
       <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
@@ -36915,9 +36701,11 @@
         <v>-351.0667685000004</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>8916000</v>
+      </c>
       <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
@@ -36952,9 +36740,11 @@
         <v>-352.4414685000004</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>8917000</v>
+      </c>
       <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
@@ -36989,9 +36779,11 @@
         <v>-352.4380685000004</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>8911000</v>
+      </c>
       <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
@@ -37026,9 +36818,11 @@
         <v>-352.4520685000004</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>8916000</v>
+      </c>
       <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
@@ -37063,9 +36857,11 @@
         <v>-352.4490685000004</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1098" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>8911000</v>
+      </c>
       <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr">
         <is>
@@ -37100,9 +36896,11 @@
         <v>-348.9148572600004</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1099" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>8922000</v>
+      </c>
       <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr">
         <is>
@@ -37137,9 +36935,11 @@
         <v>-349.2688572600004</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>8923000</v>
+      </c>
       <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
@@ -37174,9 +36974,11 @@
         <v>-349.4557572600004</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>8922000</v>
+      </c>
       <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr">
         <is>
@@ -37211,9 +37013,11 @@
         <v>-349.3867572600004</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>8914000</v>
+      </c>
       <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr">
         <is>
@@ -37248,9 +37052,11 @@
         <v>-349.3867572600004</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>8920000</v>
+      </c>
       <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr">
         <is>
@@ -37285,9 +37091,11 @@
         <v>-339.6267572600004</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>8920000</v>
+      </c>
       <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
@@ -37322,9 +37130,11 @@
         <v>-341.9694572600004</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>8924000</v>
+      </c>
       <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
@@ -37359,9 +37169,11 @@
         <v>-335.5105572600004</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>8915000</v>
+      </c>
       <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
@@ -37396,9 +37208,11 @@
         <v>-335.7350572600004</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>8925000</v>
+      </c>
       <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr">
         <is>
@@ -37433,9 +37247,11 @@
         <v>-335.6244572600004</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>8916000</v>
+      </c>
       <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
@@ -37470,9 +37286,11 @@
         <v>-335.6382572600004</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>8928000</v>
+      </c>
       <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr">
         <is>
@@ -37507,9 +37325,11 @@
         <v>-332.7433999600004</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>8927000</v>
+      </c>
       <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
@@ -40504,16 +40324,18 @@
         <v>-272.8761595600003</v>
       </c>
       <c r="H1191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1191" t="inlineStr"/>
+      <c r="L1191" t="n">
+        <v>1</v>
+      </c>
       <c r="M1191" t="inlineStr"/>
     </row>
     <row r="1192">
@@ -40539,11 +40361,15 @@
         <v>-272.8761595600003</v>
       </c>
       <c r="H1192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr"/>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -40572,11 +40398,15 @@
         <v>-278.5919595600003</v>
       </c>
       <c r="H1193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr"/>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -40605,11 +40435,15 @@
         <v>-279.4906595600003</v>
       </c>
       <c r="H1194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr"/>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -40638,11 +40472,15 @@
         <v>-276.2175595100003</v>
       </c>
       <c r="H1195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr"/>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -40671,11 +40509,15 @@
         <v>-275.4243595100003</v>
       </c>
       <c r="H1196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr"/>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -40704,11 +40546,15 @@
         <v>-273.1489595100003</v>
       </c>
       <c r="H1197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr"/>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -40737,11 +40583,15 @@
         <v>-273.3190595100003</v>
       </c>
       <c r="H1198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr"/>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -40770,11 +40620,15 @@
         <v>-272.2760595100003</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr"/>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40803,11 +40657,15 @@
         <v>-270.2460595600003</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40836,11 +40694,15 @@
         <v>-262.3768031900003</v>
       </c>
       <c r="H1201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40869,11 +40731,15 @@
         <v>-252.1160031900003</v>
       </c>
       <c r="H1202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40902,11 +40768,15 @@
         <v>-240.1366031900003</v>
       </c>
       <c r="H1203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40935,11 +40805,15 @@
         <v>-249.5470492000003</v>
       </c>
       <c r="H1204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -40968,11 +40842,15 @@
         <v>-244.3029000200003</v>
       </c>
       <c r="H1205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr"/>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -41001,11 +40879,15 @@
         <v>-243.7158000800003</v>
       </c>
       <c r="H1206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -41034,11 +40916,15 @@
         <v>-241.5277999700003</v>
       </c>
       <c r="H1207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -41071,7 +40957,11 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr"/>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -41104,7 +40994,11 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -41137,7 +41031,11 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr"/>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -41170,7 +41068,11 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr"/>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -41203,7 +41105,11 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -41236,7 +41142,11 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -41265,11 +41175,15 @@
         <v>-244.3335205500003</v>
       </c>
       <c r="H1214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -41298,11 +41212,15 @@
         <v>-255.4671205500003</v>
       </c>
       <c r="H1215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -41331,11 +41249,15 @@
         <v>-257.6578205500003</v>
       </c>
       <c r="H1216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -41364,11 +41286,15 @@
         <v>-257.8999205500003</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr"/>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -41401,7 +41327,11 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -41434,7 +41364,11 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -41467,7 +41401,11 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -41500,7 +41438,11 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -41533,7 +41475,11 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -41566,7 +41512,11 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -41599,7 +41549,11 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -41632,7 +41586,11 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -41665,7 +41623,11 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41698,7 +41660,11 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41731,7 +41697,11 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -41764,7 +41734,11 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -41797,7 +41771,11 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -41830,7 +41808,11 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -41863,7 +41845,11 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -41892,11 +41878,15 @@
         <v>-272.2832609400003</v>
       </c>
       <c r="H1233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -41925,11 +41915,15 @@
         <v>-273.1301609400003</v>
       </c>
       <c r="H1234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41958,11 +41952,15 @@
         <v>-273.2518609400003</v>
       </c>
       <c r="H1235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41991,11 +41989,15 @@
         <v>-273.5200609400003</v>
       </c>
       <c r="H1236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -42028,7 +42030,11 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -42061,7 +42067,11 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -42094,7 +42104,11 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -42127,7 +42141,11 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -42160,7 +42178,11 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -42193,7 +42215,11 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -42226,7 +42252,11 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -42259,7 +42289,11 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -42292,7 +42326,11 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -42325,7 +42363,11 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -42358,7 +42400,11 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -42391,7 +42437,11 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -42424,7 +42474,11 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -42457,7 +42511,11 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -42490,7 +42548,11 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -42523,7 +42585,11 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -42556,7 +42622,11 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -42589,7 +42659,11 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -42622,7 +42696,11 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -42655,7 +42733,11 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr"/>
+      <c r="K1256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -42688,7 +42770,11 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr"/>
+      <c r="K1257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -42721,7 +42807,11 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr"/>
+      <c r="K1258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -42754,7 +42844,11 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr"/>
+      <c r="K1259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -42787,7 +42881,11 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -42820,7 +42918,11 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -42853,7 +42955,11 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -42886,7 +42992,11 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -42919,7 +43029,11 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr"/>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -42948,15 +43062,13 @@
         <v>-380.7890497400002</v>
       </c>
       <c r="H1265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1265" t="n">
-        <v>8914000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1265" t="n">
@@ -42987,11 +43099,9 @@
         <v>-386.9066497400002</v>
       </c>
       <c r="H1266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1266" t="n">
-        <v>8919000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
@@ -43026,11 +43136,9 @@
         <v>-389.0228497400002</v>
       </c>
       <c r="H1267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1267" t="n">
-        <v>8918000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr">
         <is>
@@ -43065,11 +43173,9 @@
         <v>-384.9072043500002</v>
       </c>
       <c r="H1268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1268" t="n">
-        <v>8917000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr">
         <is>
@@ -43104,11 +43210,9 @@
         <v>-385.1788908200002</v>
       </c>
       <c r="H1269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1269" t="n">
-        <v>8944000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr">
         <is>
@@ -44438,9 +44542,11 @@
         <v>-396.5214839600004</v>
       </c>
       <c r="H1305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>8928000</v>
+      </c>
       <c r="J1305" t="inlineStr"/>
       <c r="K1305" t="inlineStr">
         <is>
@@ -44475,9 +44581,11 @@
         <v>-396.8026425900003</v>
       </c>
       <c r="H1306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>8928000</v>
+      </c>
       <c r="J1306" t="inlineStr"/>
       <c r="K1306" t="inlineStr">
         <is>
@@ -44512,9 +44620,11 @@
         <v>-395.4827473900003</v>
       </c>
       <c r="H1307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>8925000</v>
+      </c>
       <c r="J1307" t="inlineStr"/>
       <c r="K1307" t="inlineStr">
         <is>
@@ -44549,9 +44659,11 @@
         <v>-395.9464703400003</v>
       </c>
       <c r="H1308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>8937000</v>
+      </c>
       <c r="J1308" t="inlineStr"/>
       <c r="K1308" t="inlineStr">
         <is>
@@ -44586,9 +44698,11 @@
         <v>-393.8810703400003</v>
       </c>
       <c r="H1309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>8929000</v>
+      </c>
       <c r="J1309" t="inlineStr"/>
       <c r="K1309" t="inlineStr">
         <is>
@@ -44623,9 +44737,11 @@
         <v>-394.1481703400003</v>
       </c>
       <c r="H1310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>8930000</v>
+      </c>
       <c r="J1310" t="inlineStr"/>
       <c r="K1310" t="inlineStr">
         <is>
@@ -44660,9 +44776,11 @@
         <v>-395.1349703400003</v>
       </c>
       <c r="H1311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>8929000</v>
+      </c>
       <c r="J1311" t="inlineStr"/>
       <c r="K1311" t="inlineStr">
         <is>
@@ -44697,9 +44815,11 @@
         <v>-393.8799703400003</v>
       </c>
       <c r="H1312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>8918000</v>
+      </c>
       <c r="J1312" t="inlineStr"/>
       <c r="K1312" t="inlineStr">
         <is>
@@ -44734,9 +44854,11 @@
         <v>-388.5296703400003</v>
       </c>
       <c r="H1313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>8920000</v>
+      </c>
       <c r="J1313" t="inlineStr"/>
       <c r="K1313" t="inlineStr">
         <is>
@@ -44771,9 +44893,11 @@
         <v>-388.7357703400003</v>
       </c>
       <c r="H1314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>8932000</v>
+      </c>
       <c r="J1314" t="inlineStr"/>
       <c r="K1314" t="inlineStr">
         <is>
@@ -44808,9 +44932,11 @@
         <v>-389.7387703400003</v>
       </c>
       <c r="H1315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>8920000</v>
+      </c>
       <c r="J1315" t="inlineStr"/>
       <c r="K1315" t="inlineStr">
         <is>
@@ -44845,9 +44971,11 @@
         <v>-389.8246703400003</v>
       </c>
       <c r="H1316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>8917000</v>
+      </c>
       <c r="J1316" t="inlineStr"/>
       <c r="K1316" t="inlineStr">
         <is>
@@ -44882,9 +45010,11 @@
         <v>-389.7860703400003</v>
       </c>
       <c r="H1317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>8916000</v>
+      </c>
       <c r="J1317" t="inlineStr"/>
       <c r="K1317" t="inlineStr">
         <is>
@@ -44919,9 +45049,11 @@
         <v>-388.6674706000003</v>
       </c>
       <c r="H1318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>8923000</v>
+      </c>
       <c r="J1318" t="inlineStr"/>
       <c r="K1318" t="inlineStr">
         <is>
@@ -44956,9 +45088,11 @@
         <v>-385.8141706000004</v>
       </c>
       <c r="H1319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>8924000</v>
+      </c>
       <c r="J1319" t="inlineStr"/>
       <c r="K1319" t="inlineStr">
         <is>
@@ -44993,9 +45127,11 @@
         <v>-380.9050706000003</v>
       </c>
       <c r="H1320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>8933000</v>
+      </c>
       <c r="J1320" t="inlineStr"/>
       <c r="K1320" t="inlineStr">
         <is>
@@ -45030,9 +45166,11 @@
         <v>-381.4359706000003</v>
       </c>
       <c r="H1321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>8951000</v>
+      </c>
       <c r="J1321" t="inlineStr"/>
       <c r="K1321" t="inlineStr">
         <is>
@@ -45067,9 +45205,11 @@
         <v>-381.4119706000003</v>
       </c>
       <c r="H1322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>8938000</v>
+      </c>
       <c r="J1322" t="inlineStr"/>
       <c r="K1322" t="inlineStr">
         <is>
@@ -45104,9 +45244,11 @@
         <v>-381.4119706000003</v>
       </c>
       <c r="H1323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>8945000</v>
+      </c>
       <c r="J1323" t="inlineStr"/>
       <c r="K1323" t="inlineStr">
         <is>
@@ -45141,9 +45283,11 @@
         <v>-381.2055706000003</v>
       </c>
       <c r="H1324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>8945000</v>
+      </c>
       <c r="J1324" t="inlineStr"/>
       <c r="K1324" t="inlineStr">
         <is>
@@ -45289,9 +45433,11 @@
         <v>-384.9376474500003</v>
       </c>
       <c r="H1328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>8933000</v>
+      </c>
       <c r="J1328" t="inlineStr"/>
       <c r="K1328" t="inlineStr">
         <is>
@@ -45326,9 +45472,11 @@
         <v>-384.9185443800003</v>
       </c>
       <c r="H1329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>8933000</v>
+      </c>
       <c r="J1329" t="inlineStr"/>
       <c r="K1329" t="inlineStr">
         <is>
@@ -45363,9 +45511,11 @@
         <v>-384.6982097500003</v>
       </c>
       <c r="H1330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>8935000</v>
+      </c>
       <c r="J1330" t="inlineStr"/>
       <c r="K1330" t="inlineStr">
         <is>
@@ -45400,9 +45550,11 @@
         <v>-384.9969097500003</v>
       </c>
       <c r="H1331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>8940000</v>
+      </c>
       <c r="J1331" t="inlineStr"/>
       <c r="K1331" t="inlineStr">
         <is>
@@ -45437,9 +45589,11 @@
         <v>-385.2858097500003</v>
       </c>
       <c r="H1332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>8936000</v>
+      </c>
       <c r="J1332" t="inlineStr"/>
       <c r="K1332" t="inlineStr">
         <is>
@@ -45474,9 +45628,11 @@
         <v>-385.2858097500003</v>
       </c>
       <c r="H1333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>8934000</v>
+      </c>
       <c r="J1333" t="inlineStr"/>
       <c r="K1333" t="inlineStr">
         <is>
@@ -45511,9 +45667,11 @@
         <v>-384.6416097500003</v>
       </c>
       <c r="H1334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>8934000</v>
+      </c>
       <c r="J1334" t="inlineStr"/>
       <c r="K1334" t="inlineStr">
         <is>
@@ -45548,9 +45706,11 @@
         <v>-384.6075097500002</v>
       </c>
       <c r="H1335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>8940000</v>
+      </c>
       <c r="J1335" t="inlineStr"/>
       <c r="K1335" t="inlineStr">
         <is>
@@ -45622,9 +45782,11 @@
         <v>-384.3630442000003</v>
       </c>
       <c r="H1337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>8938000</v>
+      </c>
       <c r="J1337" t="inlineStr"/>
       <c r="K1337" t="inlineStr">
         <is>
@@ -45659,9 +45821,11 @@
         <v>-383.8059442000003</v>
       </c>
       <c r="H1338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>8939000</v>
+      </c>
       <c r="J1338" t="inlineStr"/>
       <c r="K1338" t="inlineStr">
         <is>
@@ -45696,9 +45860,11 @@
         <v>-384.0019442000003</v>
       </c>
       <c r="H1339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>8943000</v>
+      </c>
       <c r="J1339" t="inlineStr"/>
       <c r="K1339" t="inlineStr">
         <is>
@@ -46029,9 +46195,11 @@
         <v>-376.3383782600004</v>
       </c>
       <c r="H1348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>8966000</v>
+      </c>
       <c r="J1348" t="inlineStr"/>
       <c r="K1348" t="inlineStr">
         <is>
